--- a/BackTest/2019-10-27 BackTest HC.xlsx
+++ b/BackTest/2019-10-27 BackTest HC.xlsx
@@ -836,17 +836,13 @@
         <v>1589</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1582</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1582</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
@@ -875,22 +871,14 @@
         <v>1589.333333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1600</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1582</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -918,22 +906,14 @@
         <v>1591.666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1592</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1582</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -961,17 +941,13 @@
         <v>1592.666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1585</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1585</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
@@ -1000,22 +976,14 @@
         <v>1592.333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1600</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1043,22 +1011,14 @@
         <v>1596.666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1600</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1046,14 @@
         <v>1598</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1595</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1129,22 +1081,14 @@
         <v>1600</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1603</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1172,22 +1116,14 @@
         <v>1598</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1599</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1215,22 +1151,14 @@
         <v>1603.333333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1605</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1258,22 +1186,14 @@
         <v>1603</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1606</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1301,22 +1221,14 @@
         <v>1602.333333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1598</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1344,22 +1256,14 @@
         <v>1597.666666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1591</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1387,22 +1291,14 @@
         <v>1598</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1606</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1430,22 +1326,14 @@
         <v>1600.333333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1604</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1473,22 +1361,14 @@
         <v>1603</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1599</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1516,22 +1396,14 @@
         <v>1603</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1606</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1559,22 +1431,14 @@
         <v>1599</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1592</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1602,22 +1466,14 @@
         <v>1601.333333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1606</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1645,22 +1501,14 @@
         <v>1601.333333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1606</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1688,22 +1536,14 @@
         <v>1606</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1606</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1731,22 +1571,14 @@
         <v>1606</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1606</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1774,22 +1606,14 @@
         <v>1604</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1597</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1817,22 +1641,14 @@
         <v>1601.333333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1598</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1860,22 +1676,14 @@
         <v>1601.333333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1606</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1903,22 +1711,14 @@
         <v>1600.666666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1598</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1946,22 +1746,14 @@
         <v>1603.333333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1606</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1995,16 +1787,12 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1595</v>
+        <v>1606</v>
       </c>
       <c r="K40" t="n">
-        <v>1585</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1606</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2038,14 +1826,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1605</v>
+        <v>1595</v>
       </c>
       <c r="K41" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -2081,10 +1869,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1595</v>
+        <v>1602</v>
       </c>
       <c r="K42" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2124,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1606</v>
+        <v>1595</v>
       </c>
       <c r="K43" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2161,16 +1949,14 @@
         <v>1609.666666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1617</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2211,7 +1997,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2252,7 +2038,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2293,7 +2079,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2334,7 +2120,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2375,7 +2161,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2416,7 +2202,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2450,16 +2236,14 @@
         <v>1602.666666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1601</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2493,16 +2277,14 @@
         <v>1601.666666666667</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1605</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2543,7 +2325,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2577,16 +2359,14 @@
         <v>1602.333333333333</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>1604</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2620,16 +2400,14 @@
         <v>1603.666666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1599</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2663,16 +2441,14 @@
         <v>1604</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>1610</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2706,16 +2482,14 @@
         <v>1606</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>1610</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2749,16 +2523,14 @@
         <v>1609</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>1610</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2792,16 +2564,14 @@
         <v>1616</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>1619</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2835,16 +2605,14 @@
         <v>1619.666666666667</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>1621</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2878,16 +2646,14 @@
         <v>1623.666666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>1628</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2921,16 +2687,14 @@
         <v>1622.333333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>1617</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2964,16 +2728,14 @@
         <v>1620.666666666667</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>1616</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3007,16 +2769,14 @@
         <v>1618</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>1622</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3050,16 +2810,14 @@
         <v>1622.666666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>1630</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3093,16 +2851,14 @@
         <v>1627.333333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>1630</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3136,16 +2892,14 @@
         <v>1628.333333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>1625</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3179,16 +2933,14 @@
         <v>1626</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>1624</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3222,16 +2974,14 @@
         <v>1624.666666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3265,16 +3015,14 @@
         <v>1624</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>1623</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3308,16 +3056,14 @@
         <v>1620</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>1615</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3351,16 +3097,14 @@
         <v>1613.666666666667</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>1610</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3394,16 +3138,14 @@
         <v>1610.666666666667</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>1614</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3437,16 +3179,14 @@
         <v>1612.333333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>1617</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3480,16 +3220,14 @@
         <v>1613.666666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>1611</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3523,16 +3261,14 @@
         <v>1614</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>1615</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3566,16 +3302,14 @@
         <v>1616</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>1622</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3609,16 +3343,14 @@
         <v>1619.333333333333</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>1621</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3652,16 +3384,14 @@
         <v>1627.666666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1640</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3695,16 +3425,14 @@
         <v>1632</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1635</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3738,16 +3466,14 @@
         <v>1636.666666666667</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1635</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3781,16 +3507,14 @@
         <v>1636.666666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1640</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3831,7 +3555,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3872,7 +3596,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3913,7 +3637,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3954,7 +3678,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3995,7 +3719,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4036,7 +3760,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4077,7 +3801,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4118,7 +3842,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4159,7 +3883,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4200,7 +3924,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4241,7 +3965,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4282,7 +4006,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4323,7 +4047,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4364,7 +4088,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4405,7 +4129,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4446,7 +4170,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4487,7 +4211,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4528,7 +4252,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4569,7 +4293,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4610,7 +4334,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4651,7 +4375,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4692,7 +4416,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4733,7 +4457,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4774,7 +4498,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4815,7 +4539,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4856,7 +4580,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4897,7 +4621,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4938,7 +4662,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4979,7 +4703,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5020,7 +4744,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5061,7 +4785,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5102,7 +4826,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5143,7 +4867,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5184,7 +4908,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5225,7 +4949,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5266,7 +4990,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5307,7 +5031,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5348,7 +5072,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5389,7 +5113,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5430,7 +5154,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5471,7 +5195,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5512,7 +5236,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5553,7 +5277,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5594,7 +5318,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5635,7 +5359,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5676,7 +5400,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5717,7 +5441,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5754,19 +5478,19 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>1.092791798107256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -5795,11 +5519,17 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1606</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5833,10 +5563,16 @@
         <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1606</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M132" t="n">
-        <v>1</v>
+        <v>1.099607721046077</v>
       </c>
     </row>
     <row r="133">
@@ -5900,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -6040,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -6075,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -6145,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -6180,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -6565,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -6600,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -6635,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -6670,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -6705,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -6740,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -6775,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6845,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6880,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest HC.xlsx
+++ b/BackTest/2019-10-27 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M184"/>
+  <dimension ref="A1:M185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="C2" t="n">
-        <v>1612</v>
+        <v>1605</v>
       </c>
       <c r="D2" t="n">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="E2" t="n">
         <v>1605</v>
       </c>
       <c r="F2" t="n">
-        <v>87.083</v>
+        <v>2358.9565</v>
       </c>
       <c r="G2" t="n">
-        <v>1610</v>
+        <v>1622</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1605</v>
+        <v>1611</v>
       </c>
       <c r="C3" t="n">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D3" t="n">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E3" t="n">
         <v>1605</v>
       </c>
       <c r="F3" t="n">
-        <v>65.4894</v>
+        <v>87.083</v>
       </c>
       <c r="G3" t="n">
-        <v>1610</v>
+        <v>1621.6</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="C4" t="n">
         <v>1613</v>
@@ -512,13 +512,13 @@
         <v>1613</v>
       </c>
       <c r="E4" t="n">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="F4" t="n">
-        <v>2499.41</v>
+        <v>65.4894</v>
       </c>
       <c r="G4" t="n">
-        <v>1612.666666666667</v>
+        <v>1621.383333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>1613</v>
       </c>
       <c r="C5" t="n">
-        <v>1606</v>
+        <v>1613</v>
       </c>
       <c r="D5" t="n">
         <v>1613</v>
       </c>
       <c r="E5" t="n">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="F5" t="n">
-        <v>723.925</v>
+        <v>2499.41</v>
       </c>
       <c r="G5" t="n">
-        <v>1610.666666666667</v>
+        <v>1620.883333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1606</v>
+        <v>1613</v>
       </c>
       <c r="C6" t="n">
         <v>1606</v>
       </c>
       <c r="D6" t="n">
-        <v>1606</v>
+        <v>1613</v>
       </c>
       <c r="E6" t="n">
         <v>1606</v>
       </c>
       <c r="F6" t="n">
-        <v>2461.5782</v>
+        <v>723.925</v>
       </c>
       <c r="G6" t="n">
-        <v>1608.333333333333</v>
+        <v>1620.35</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1603</v>
+        <v>1606</v>
       </c>
       <c r="C7" t="n">
-        <v>1601</v>
+        <v>1606</v>
       </c>
       <c r="D7" t="n">
-        <v>1603</v>
+        <v>1606</v>
       </c>
       <c r="E7" t="n">
-        <v>1601</v>
+        <v>1606</v>
       </c>
       <c r="F7" t="n">
-        <v>127.2104</v>
+        <v>2461.5782</v>
       </c>
       <c r="G7" t="n">
-        <v>1604.333333333333</v>
+        <v>1619.816666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="C8" t="n">
         <v>1601</v>
       </c>
       <c r="D8" t="n">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="E8" t="n">
         <v>1601</v>
       </c>
       <c r="F8" t="n">
-        <v>1451.3131</v>
+        <v>127.2104</v>
       </c>
       <c r="G8" t="n">
-        <v>1602.666666666667</v>
+        <v>1619.083333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="C9" t="n">
         <v>1601</v>
@@ -687,13 +687,13 @@
         <v>1601</v>
       </c>
       <c r="E9" t="n">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="F9" t="n">
-        <v>380</v>
+        <v>1451.3131</v>
       </c>
       <c r="G9" t="n">
-        <v>1601</v>
+        <v>1618.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>1600</v>
       </c>
       <c r="C10" t="n">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D10" t="n">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="E10" t="n">
         <v>1600</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1</v>
+        <v>380</v>
       </c>
       <c r="G10" t="n">
-        <v>1600.666666666667</v>
+        <v>1617.55</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C11" t="n">
         <v>1600</v>
       </c>
       <c r="D11" t="n">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E11" t="n">
         <v>1600</v>
       </c>
       <c r="F11" t="n">
-        <v>155.7827</v>
+        <v>0.1</v>
       </c>
       <c r="G11" t="n">
-        <v>1600.333333333333</v>
+        <v>1616.883333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>1601</v>
+      </c>
+      <c r="C12" t="n">
         <v>1600</v>
       </c>
-      <c r="C12" t="n">
-        <v>1585</v>
-      </c>
       <c r="D12" t="n">
+        <v>1601</v>
+      </c>
+      <c r="E12" t="n">
         <v>1600</v>
       </c>
-      <c r="E12" t="n">
-        <v>1585</v>
-      </c>
       <c r="F12" t="n">
-        <v>1100</v>
+        <v>155.7827</v>
       </c>
       <c r="G12" t="n">
-        <v>1595</v>
+        <v>1616.316666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1582</v>
+        <v>1600</v>
       </c>
       <c r="C13" t="n">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="D13" t="n">
-        <v>1582</v>
+        <v>1600</v>
       </c>
       <c r="E13" t="n">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2</v>
+        <v>1100</v>
       </c>
       <c r="G13" t="n">
-        <v>1589</v>
+        <v>1615.533333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1600</v>
+        <v>1582</v>
       </c>
       <c r="C14" t="n">
-        <v>1601</v>
+        <v>1582</v>
       </c>
       <c r="D14" t="n">
-        <v>1601</v>
+        <v>1582</v>
       </c>
       <c r="E14" t="n">
-        <v>1600</v>
+        <v>1582</v>
       </c>
       <c r="F14" t="n">
-        <v>109.2666</v>
+        <v>0.2</v>
       </c>
       <c r="G14" t="n">
-        <v>1589.333333333333</v>
+        <v>1614.666666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1592</v>
+        <v>1600</v>
       </c>
       <c r="C15" t="n">
-        <v>1592</v>
+        <v>1601</v>
       </c>
       <c r="D15" t="n">
-        <v>1592</v>
+        <v>1601</v>
       </c>
       <c r="E15" t="n">
-        <v>1592</v>
+        <v>1600</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1</v>
+        <v>109.2666</v>
       </c>
       <c r="G15" t="n">
-        <v>1591.666666666667</v>
+        <v>1613.916666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1585</v>
+        <v>1592</v>
       </c>
       <c r="C16" t="n">
-        <v>1585</v>
+        <v>1592</v>
       </c>
       <c r="D16" t="n">
-        <v>1585</v>
+        <v>1592</v>
       </c>
       <c r="E16" t="n">
-        <v>1585</v>
+        <v>1592</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G16" t="n">
-        <v>1592.666666666667</v>
+        <v>1612.866666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1600</v>
+        <v>1585</v>
       </c>
       <c r="C17" t="n">
-        <v>1600</v>
+        <v>1585</v>
       </c>
       <c r="D17" t="n">
-        <v>1600</v>
+        <v>1585</v>
       </c>
       <c r="E17" t="n">
-        <v>1600</v>
+        <v>1585</v>
       </c>
       <c r="F17" t="n">
-        <v>26.893</v>
+        <v>0.2</v>
       </c>
       <c r="G17" t="n">
-        <v>1592.333333333333</v>
+        <v>1612</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>1600</v>
       </c>
       <c r="C18" t="n">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="D18" t="n">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="E18" t="n">
         <v>1600</v>
       </c>
       <c r="F18" t="n">
-        <v>84.4819</v>
+        <v>26.893</v>
       </c>
       <c r="G18" t="n">
-        <v>1596.666666666667</v>
+        <v>1611.383333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1595</v>
+        <v>1600</v>
       </c>
       <c r="C19" t="n">
-        <v>1589</v>
+        <v>1605</v>
       </c>
       <c r="D19" t="n">
-        <v>1595</v>
+        <v>1605</v>
       </c>
       <c r="E19" t="n">
-        <v>1589</v>
+        <v>1600</v>
       </c>
       <c r="F19" t="n">
-        <v>1372.4938</v>
+        <v>84.4819</v>
       </c>
       <c r="G19" t="n">
-        <v>1598</v>
+        <v>1610.85</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="C20" t="n">
-        <v>1606</v>
+        <v>1589</v>
       </c>
       <c r="D20" t="n">
-        <v>1606</v>
+        <v>1595</v>
       </c>
       <c r="E20" t="n">
-        <v>1603</v>
+        <v>1589</v>
       </c>
       <c r="F20" t="n">
-        <v>203.8072</v>
+        <v>1372.4938</v>
       </c>
       <c r="G20" t="n">
-        <v>1600</v>
+        <v>1610.05</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1599</v>
+        <v>1603</v>
       </c>
       <c r="C21" t="n">
-        <v>1599</v>
+        <v>1606</v>
       </c>
       <c r="D21" t="n">
-        <v>1599</v>
+        <v>1606</v>
       </c>
       <c r="E21" t="n">
-        <v>1599</v>
+        <v>1603</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1</v>
+        <v>203.8072</v>
       </c>
       <c r="G21" t="n">
-        <v>1598</v>
+        <v>1609.716666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="C22" t="n">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="D22" t="n">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="E22" t="n">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="F22" t="n">
-        <v>55.7405</v>
+        <v>0.1</v>
       </c>
       <c r="G22" t="n">
-        <v>1603.333333333333</v>
+        <v>1609.35</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C23" t="n">
         <v>1605</v>
       </c>
       <c r="D23" t="n">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E23" t="n">
         <v>1605</v>
       </c>
       <c r="F23" t="n">
-        <v>647.6310999999999</v>
+        <v>55.7405</v>
       </c>
       <c r="G23" t="n">
-        <v>1603</v>
+        <v>1609.116666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1598</v>
+        <v>1606</v>
       </c>
       <c r="C24" t="n">
-        <v>1597</v>
+        <v>1605</v>
       </c>
       <c r="D24" t="n">
-        <v>1598</v>
+        <v>1606</v>
       </c>
       <c r="E24" t="n">
-        <v>1597</v>
+        <v>1605</v>
       </c>
       <c r="F24" t="n">
-        <v>1.2</v>
+        <v>647.6310999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>1602.333333333333</v>
+        <v>1608.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,32 +1238,38 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1591</v>
+        <v>1598</v>
       </c>
       <c r="C25" t="n">
-        <v>1591</v>
+        <v>1597</v>
       </c>
       <c r="D25" t="n">
-        <v>1591</v>
+        <v>1598</v>
       </c>
       <c r="E25" t="n">
-        <v>1591</v>
+        <v>1597</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="G25" t="n">
-        <v>1597.666666666667</v>
+        <v>1608.433333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1605</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1279,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1606</v>
+        <v>1591</v>
       </c>
       <c r="C26" t="n">
-        <v>1606</v>
+        <v>1591</v>
       </c>
       <c r="D26" t="n">
-        <v>1606</v>
+        <v>1591</v>
       </c>
       <c r="E26" t="n">
-        <v>1606</v>
+        <v>1591</v>
       </c>
       <c r="F26" t="n">
-        <v>303.14</v>
+        <v>0.1</v>
       </c>
       <c r="G26" t="n">
-        <v>1598</v>
+        <v>1608.183333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1304,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,22 +1318,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="C27" t="n">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="D27" t="n">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="E27" t="n">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="F27" t="n">
-        <v>342.91</v>
+        <v>303.14</v>
       </c>
       <c r="G27" t="n">
-        <v>1600.333333333333</v>
+        <v>1608.183333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1343,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1357,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="C28" t="n">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="D28" t="n">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="E28" t="n">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1</v>
+        <v>342.91</v>
       </c>
       <c r="G28" t="n">
-        <v>1603</v>
+        <v>1608.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1382,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1396,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1606</v>
+        <v>1599</v>
       </c>
       <c r="C29" t="n">
-        <v>1606</v>
+        <v>1599</v>
       </c>
       <c r="D29" t="n">
-        <v>1606</v>
+        <v>1599</v>
       </c>
       <c r="E29" t="n">
-        <v>1606</v>
+        <v>1599</v>
       </c>
       <c r="F29" t="n">
-        <v>203.8749</v>
+        <v>0.1</v>
       </c>
       <c r="G29" t="n">
-        <v>1603</v>
+        <v>1607.933333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,7 +1421,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1435,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1592</v>
+        <v>1606</v>
       </c>
       <c r="C30" t="n">
-        <v>1592</v>
+        <v>1606</v>
       </c>
       <c r="D30" t="n">
-        <v>1592</v>
+        <v>1606</v>
       </c>
       <c r="E30" t="n">
-        <v>1592</v>
+        <v>1606</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1</v>
+        <v>203.8749</v>
       </c>
       <c r="G30" t="n">
-        <v>1599</v>
+        <v>1607.883333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1460,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1474,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1606</v>
+        <v>1592</v>
       </c>
       <c r="C31" t="n">
-        <v>1606</v>
+        <v>1592</v>
       </c>
       <c r="D31" t="n">
-        <v>1606</v>
+        <v>1592</v>
       </c>
       <c r="E31" t="n">
-        <v>1606</v>
+        <v>1592</v>
       </c>
       <c r="F31" t="n">
-        <v>338.7199</v>
+        <v>0.1</v>
       </c>
       <c r="G31" t="n">
-        <v>1601.333333333333</v>
+        <v>1607.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1499,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1495,10 +1525,10 @@
         <v>1606</v>
       </c>
       <c r="F32" t="n">
-        <v>692.1667</v>
+        <v>338.7199</v>
       </c>
       <c r="G32" t="n">
-        <v>1601.333333333333</v>
+        <v>1607.55</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1538,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1530,10 +1564,10 @@
         <v>1606</v>
       </c>
       <c r="F33" t="n">
-        <v>25.12</v>
+        <v>692.1667</v>
       </c>
       <c r="G33" t="n">
-        <v>1606</v>
+        <v>1607.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1577,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1565,10 +1603,10 @@
         <v>1606</v>
       </c>
       <c r="F34" t="n">
-        <v>59.58</v>
+        <v>25.12</v>
       </c>
       <c r="G34" t="n">
-        <v>1606</v>
+        <v>1607.45</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1616,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1630,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1597</v>
+        <v>1606</v>
       </c>
       <c r="C35" t="n">
-        <v>1600</v>
+        <v>1606</v>
       </c>
       <c r="D35" t="n">
         <v>1606</v>
       </c>
       <c r="E35" t="n">
-        <v>1597</v>
+        <v>1606</v>
       </c>
       <c r="F35" t="n">
-        <v>90.73999999999999</v>
+        <v>59.58</v>
       </c>
       <c r="G35" t="n">
-        <v>1604</v>
+        <v>1607.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1655,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,32 +1669,38 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C36" t="n">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="D36" t="n">
-        <v>1598</v>
+        <v>1606</v>
       </c>
       <c r="E36" t="n">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>1601.333333333333</v>
+        <v>1607.266666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1606</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,32 +1710,38 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="C37" t="n">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="D37" t="n">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="E37" t="n">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="F37" t="n">
-        <v>615.8092</v>
+        <v>0.1</v>
       </c>
       <c r="G37" t="n">
-        <v>1601.333333333333</v>
+        <v>1607.083333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1600</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1751,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1598</v>
+        <v>1606</v>
       </c>
       <c r="C38" t="n">
-        <v>1598</v>
+        <v>1606</v>
       </c>
       <c r="D38" t="n">
-        <v>1598</v>
+        <v>1606</v>
       </c>
       <c r="E38" t="n">
-        <v>1598</v>
+        <v>1606</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1</v>
+        <v>615.8092</v>
       </c>
       <c r="G38" t="n">
-        <v>1600.666666666667</v>
+        <v>1607.033333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1776,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1790,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="C39" t="n">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="D39" t="n">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="E39" t="n">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="F39" t="n">
-        <v>0.118</v>
+        <v>0.1</v>
       </c>
       <c r="G39" t="n">
-        <v>1603.333333333333</v>
+        <v>1606.85</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1815,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,36 +1829,36 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1595</v>
+        <v>1606</v>
       </c>
       <c r="C40" t="n">
-        <v>1595</v>
+        <v>1606</v>
       </c>
       <c r="D40" t="n">
-        <v>1595</v>
+        <v>1606</v>
       </c>
       <c r="E40" t="n">
-        <v>1595</v>
+        <v>1606</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1</v>
+        <v>0.118</v>
       </c>
       <c r="G40" t="n">
-        <v>1599.666666666667</v>
+        <v>1606.8</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1606</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1606</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1802,38 +1868,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1605</v>
+        <v>1595</v>
       </c>
       <c r="C41" t="n">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="D41" t="n">
-        <v>1606</v>
+        <v>1595</v>
       </c>
       <c r="E41" t="n">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="F41" t="n">
-        <v>1868.095</v>
+        <v>0.1</v>
       </c>
       <c r="G41" t="n">
-        <v>1601</v>
+        <v>1606.566666666667</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1595</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1606</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -1845,35 +1907,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>1605</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1602</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1606</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1602</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1868.095</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1606.45</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
         <v>1595</v>
       </c>
-      <c r="C42" t="n">
-        <v>1595</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1595</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1595</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1597.333333333333</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1602</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1888,35 +1948,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1606</v>
+        <v>1595</v>
       </c>
       <c r="C43" t="n">
-        <v>1617</v>
+        <v>1595</v>
       </c>
       <c r="D43" t="n">
-        <v>1617</v>
+        <v>1595</v>
       </c>
       <c r="E43" t="n">
-        <v>1606</v>
+        <v>1595</v>
       </c>
       <c r="F43" t="n">
-        <v>3776.3062</v>
+        <v>0.1</v>
       </c>
       <c r="G43" t="n">
-        <v>1604.666666666667</v>
+        <v>1606.216666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1595</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1606</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1931,7 +1987,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1617</v>
+        <v>1606</v>
       </c>
       <c r="C44" t="n">
         <v>1617</v>
@@ -1940,13 +1996,13 @@
         <v>1617</v>
       </c>
       <c r="E44" t="n">
-        <v>1617</v>
+        <v>1606</v>
       </c>
       <c r="F44" t="n">
-        <v>45.57</v>
+        <v>3776.3062</v>
       </c>
       <c r="G44" t="n">
-        <v>1609.666666666667</v>
+        <v>1606.35</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1955,9 +2011,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1975,19 +2029,19 @@
         <v>1617</v>
       </c>
       <c r="C45" t="n">
-        <v>1626</v>
+        <v>1617</v>
       </c>
       <c r="D45" t="n">
-        <v>1682</v>
+        <v>1617</v>
       </c>
       <c r="E45" t="n">
         <v>1617</v>
       </c>
       <c r="F45" t="n">
-        <v>569.9165</v>
+        <v>45.57</v>
       </c>
       <c r="G45" t="n">
-        <v>1620</v>
+        <v>1606.483333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1996,9 +2050,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2013,22 +2065,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1634</v>
+        <v>1617</v>
       </c>
       <c r="C46" t="n">
-        <v>1634</v>
+        <v>1626</v>
       </c>
       <c r="D46" t="n">
-        <v>1634</v>
+        <v>1682</v>
       </c>
       <c r="E46" t="n">
-        <v>1634</v>
+        <v>1617</v>
       </c>
       <c r="F46" t="n">
-        <v>48</v>
+        <v>569.9165</v>
       </c>
       <c r="G46" t="n">
-        <v>1625.666666666667</v>
+        <v>1606.766666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2037,9 +2089,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2054,22 +2104,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1619</v>
+        <v>1634</v>
       </c>
       <c r="C47" t="n">
-        <v>1619</v>
+        <v>1634</v>
       </c>
       <c r="D47" t="n">
-        <v>1619</v>
+        <v>1634</v>
       </c>
       <c r="E47" t="n">
-        <v>1619</v>
+        <v>1634</v>
       </c>
       <c r="F47" t="n">
-        <v>15.4785</v>
+        <v>48</v>
       </c>
       <c r="G47" t="n">
-        <v>1626.333333333333</v>
+        <v>1607.183333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2078,9 +2128,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2095,22 +2143,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1629</v>
+        <v>1619</v>
       </c>
       <c r="C48" t="n">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="D48" t="n">
-        <v>1629</v>
+        <v>1619</v>
       </c>
       <c r="E48" t="n">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="F48" t="n">
-        <v>151.1</v>
+        <v>15.4785</v>
       </c>
       <c r="G48" t="n">
-        <v>1624.666666666667</v>
+        <v>1607.166666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2119,9 +2167,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2136,22 +2182,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1608</v>
+        <v>1629</v>
       </c>
       <c r="C49" t="n">
-        <v>1608</v>
+        <v>1621</v>
       </c>
       <c r="D49" t="n">
-        <v>1608</v>
+        <v>1629</v>
       </c>
       <c r="E49" t="n">
-        <v>1608</v>
+        <v>1621</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1</v>
+        <v>151.1</v>
       </c>
       <c r="G49" t="n">
-        <v>1616</v>
+        <v>1607.233333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2160,9 +2206,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2177,22 +2221,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1603</v>
+        <v>1608</v>
       </c>
       <c r="C50" t="n">
-        <v>1603</v>
+        <v>1608</v>
       </c>
       <c r="D50" t="n">
-        <v>1603</v>
+        <v>1608</v>
       </c>
       <c r="E50" t="n">
-        <v>1603</v>
+        <v>1608</v>
       </c>
       <c r="F50" t="n">
         <v>0.1</v>
       </c>
       <c r="G50" t="n">
-        <v>1610.666666666667</v>
+        <v>1606.95</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2201,9 +2245,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2218,22 +2260,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="C51" t="n">
-        <v>1597</v>
+        <v>1603</v>
       </c>
       <c r="D51" t="n">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="E51" t="n">
-        <v>1597</v>
+        <v>1603</v>
       </c>
       <c r="F51" t="n">
-        <v>1833.1878</v>
+        <v>0.1</v>
       </c>
       <c r="G51" t="n">
-        <v>1602.666666666667</v>
+        <v>1606.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2242,9 +2284,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2259,22 +2299,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="C52" t="n">
-        <v>1605</v>
+        <v>1597</v>
       </c>
       <c r="D52" t="n">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="E52" t="n">
-        <v>1605</v>
+        <v>1597</v>
       </c>
       <c r="F52" t="n">
-        <v>134.1</v>
+        <v>1833.1878</v>
       </c>
       <c r="G52" t="n">
-        <v>1601.666666666667</v>
+        <v>1605.916666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2283,9 +2323,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2300,22 +2338,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1598</v>
+        <v>1605</v>
       </c>
       <c r="C53" t="n">
-        <v>1598</v>
+        <v>1605</v>
       </c>
       <c r="D53" t="n">
-        <v>1598</v>
+        <v>1605</v>
       </c>
       <c r="E53" t="n">
-        <v>1598</v>
+        <v>1605</v>
       </c>
       <c r="F53" t="n">
-        <v>16.2823</v>
+        <v>134.1</v>
       </c>
       <c r="G53" t="n">
-        <v>1600</v>
+        <v>1605.533333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2324,9 +2362,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2341,22 +2377,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="C54" t="n">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="D54" t="n">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="E54" t="n">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="F54" t="n">
-        <v>190.4</v>
+        <v>16.2823</v>
       </c>
       <c r="G54" t="n">
-        <v>1602.333333333333</v>
+        <v>1605.083333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2365,9 +2401,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2382,22 +2416,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="C55" t="n">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="D55" t="n">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="E55" t="n">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="F55" t="n">
-        <v>27.646</v>
+        <v>190.4</v>
       </c>
       <c r="G55" t="n">
-        <v>1603.666666666667</v>
+        <v>1604.716666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2406,9 +2440,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2423,22 +2455,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1610</v>
+        <v>1599</v>
       </c>
       <c r="C56" t="n">
-        <v>1599</v>
+        <v>1609</v>
       </c>
       <c r="D56" t="n">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E56" t="n">
         <v>1599</v>
       </c>
       <c r="F56" t="n">
-        <v>16.1393</v>
+        <v>27.646</v>
       </c>
       <c r="G56" t="n">
-        <v>1604</v>
+        <v>1604.45</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2447,9 +2479,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2467,19 +2497,19 @@
         <v>1610</v>
       </c>
       <c r="C57" t="n">
-        <v>1610</v>
+        <v>1599</v>
       </c>
       <c r="D57" t="n">
         <v>1610</v>
       </c>
       <c r="E57" t="n">
-        <v>1610</v>
+        <v>1599</v>
       </c>
       <c r="F57" t="n">
-        <v>21.8611</v>
+        <v>16.1393</v>
       </c>
       <c r="G57" t="n">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2488,9 +2518,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2508,19 +2536,19 @@
         <v>1610</v>
       </c>
       <c r="C58" t="n">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="D58" t="n">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="E58" t="n">
         <v>1610</v>
       </c>
       <c r="F58" t="n">
-        <v>1271.7748</v>
+        <v>21.8611</v>
       </c>
       <c r="G58" t="n">
-        <v>1609</v>
+        <v>1603.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2529,9 +2557,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2546,22 +2572,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1619</v>
+        <v>1610</v>
       </c>
       <c r="C59" t="n">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D59" t="n">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E59" t="n">
-        <v>1619</v>
+        <v>1610</v>
       </c>
       <c r="F59" t="n">
-        <v>587</v>
+        <v>1271.7748</v>
       </c>
       <c r="G59" t="n">
-        <v>1616</v>
+        <v>1603.883333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2570,9 +2596,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2587,22 +2611,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="C60" t="n">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D60" t="n">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E60" t="n">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="F60" t="n">
-        <v>27.1292</v>
+        <v>587</v>
       </c>
       <c r="G60" t="n">
-        <v>1619.666666666667</v>
+        <v>1604.15</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2611,9 +2635,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2628,22 +2650,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1628</v>
+        <v>1621</v>
       </c>
       <c r="C61" t="n">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="D61" t="n">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="E61" t="n">
-        <v>1628</v>
+        <v>1621</v>
       </c>
       <c r="F61" t="n">
-        <v>1039.54581337</v>
+        <v>27.1292</v>
       </c>
       <c r="G61" t="n">
-        <v>1623.666666666667</v>
+        <v>1604.283333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2652,9 +2674,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2669,22 +2689,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1617</v>
+        <v>1628</v>
       </c>
       <c r="C62" t="n">
-        <v>1616</v>
+        <v>1630</v>
       </c>
       <c r="D62" t="n">
-        <v>1617</v>
+        <v>1630</v>
       </c>
       <c r="E62" t="n">
-        <v>1616</v>
+        <v>1628</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5</v>
+        <v>1039.54581337</v>
       </c>
       <c r="G62" t="n">
-        <v>1622.333333333333</v>
+        <v>1604.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2693,9 +2713,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2710,13 +2728,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="C63" t="n">
         <v>1616</v>
       </c>
       <c r="D63" t="n">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="E63" t="n">
         <v>1616</v>
@@ -2725,7 +2743,7 @@
         <v>0.5</v>
       </c>
       <c r="G63" t="n">
-        <v>1620.666666666667</v>
+        <v>1604.766666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2734,9 +2752,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2751,22 +2767,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="C64" t="n">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="D64" t="n">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="E64" t="n">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="F64" t="n">
-        <v>216.9794</v>
+        <v>0.5</v>
       </c>
       <c r="G64" t="n">
-        <v>1618</v>
+        <v>1604.816666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2775,9 +2791,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2792,22 +2806,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="C65" t="n">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="D65" t="n">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="E65" t="n">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="F65" t="n">
-        <v>94.40000000000001</v>
+        <v>216.9794</v>
       </c>
       <c r="G65" t="n">
-        <v>1622.666666666667</v>
+        <v>1604.966666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2816,9 +2830,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2845,10 +2857,10 @@
         <v>1630</v>
       </c>
       <c r="F66" t="n">
-        <v>47.2</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="G66" t="n">
-        <v>1627.333333333333</v>
+        <v>1605.366666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2857,9 +2869,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2874,22 +2884,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1625</v>
+        <v>1630</v>
       </c>
       <c r="C67" t="n">
-        <v>1625</v>
+        <v>1630</v>
       </c>
       <c r="D67" t="n">
-        <v>1625</v>
+        <v>1630</v>
       </c>
       <c r="E67" t="n">
-        <v>1625</v>
+        <v>1630</v>
       </c>
       <c r="F67" t="n">
-        <v>23.9041</v>
+        <v>47.2</v>
       </c>
       <c r="G67" t="n">
-        <v>1628.333333333333</v>
+        <v>1605.766666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2898,9 +2908,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2915,22 +2923,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="C68" t="n">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="D68" t="n">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="E68" t="n">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="F68" t="n">
-        <v>15.7918</v>
+        <v>23.9041</v>
       </c>
       <c r="G68" t="n">
-        <v>1626</v>
+        <v>1606.166666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2939,9 +2947,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2956,22 +2962,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="C69" t="n">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="D69" t="n">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="E69" t="n">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="F69" t="n">
-        <v>26.9548</v>
+        <v>15.7918</v>
       </c>
       <c r="G69" t="n">
-        <v>1624.666666666667</v>
+        <v>1606.533333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2980,9 +2986,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2997,22 +3001,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="C70" t="n">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="D70" t="n">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="E70" t="n">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="F70" t="n">
-        <v>264.7996</v>
+        <v>26.9548</v>
       </c>
       <c r="G70" t="n">
-        <v>1624</v>
+        <v>1606.95</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3021,9 +3025,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3038,22 +3040,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1615</v>
+        <v>1623</v>
       </c>
       <c r="C71" t="n">
-        <v>1611</v>
+        <v>1623</v>
       </c>
       <c r="D71" t="n">
-        <v>1615</v>
+        <v>1623</v>
       </c>
       <c r="E71" t="n">
-        <v>1611</v>
+        <v>1623</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5</v>
+        <v>264.7996</v>
       </c>
       <c r="G71" t="n">
-        <v>1620</v>
+        <v>1607.333333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3062,9 +3064,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3079,22 +3079,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1610</v>
+        <v>1615</v>
       </c>
       <c r="C72" t="n">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="D72" t="n">
-        <v>1610</v>
+        <v>1615</v>
       </c>
       <c r="E72" t="n">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G72" t="n">
-        <v>1613.666666666667</v>
+        <v>1607.516666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3103,9 +3103,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3120,22 +3118,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="C73" t="n">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="D73" t="n">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="E73" t="n">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="F73" t="n">
-        <v>35.6539</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>1610.666666666667</v>
+        <v>1607.883333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3144,9 +3142,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3161,22 +3157,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="C74" t="n">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D74" t="n">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="E74" t="n">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="F74" t="n">
-        <v>110.3199</v>
+        <v>35.6539</v>
       </c>
       <c r="G74" t="n">
-        <v>1612.333333333333</v>
+        <v>1608.416666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3185,9 +3181,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3202,22 +3196,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="C75" t="n">
-        <v>1611</v>
+        <v>1616</v>
       </c>
       <c r="D75" t="n">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="E75" t="n">
-        <v>1611</v>
+        <v>1616</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1</v>
+        <v>110.3199</v>
       </c>
       <c r="G75" t="n">
-        <v>1613.666666666667</v>
+        <v>1608.666666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3226,9 +3220,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3243,22 +3235,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="C76" t="n">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="D76" t="n">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="E76" t="n">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F76" t="n">
-        <v>16.2263</v>
+        <v>0.1</v>
       </c>
       <c r="G76" t="n">
-        <v>1614</v>
+        <v>1608.983333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3267,9 +3259,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3284,22 +3274,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1622</v>
+        <v>1615</v>
       </c>
       <c r="C77" t="n">
-        <v>1622</v>
+        <v>1615</v>
       </c>
       <c r="D77" t="n">
-        <v>1622</v>
+        <v>1615</v>
       </c>
       <c r="E77" t="n">
-        <v>1622</v>
+        <v>1615</v>
       </c>
       <c r="F77" t="n">
-        <v>11.47</v>
+        <v>16.2263</v>
       </c>
       <c r="G77" t="n">
-        <v>1616</v>
+        <v>1609.483333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3308,9 +3298,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3325,22 +3313,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="C78" t="n">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="D78" t="n">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="E78" t="n">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="F78" t="n">
-        <v>20.35</v>
+        <v>11.47</v>
       </c>
       <c r="G78" t="n">
-        <v>1619.333333333333</v>
+        <v>1609.85</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3349,9 +3337,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3366,22 +3352,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1640</v>
+        <v>1621</v>
       </c>
       <c r="C79" t="n">
-        <v>1640</v>
+        <v>1621</v>
       </c>
       <c r="D79" t="n">
-        <v>1640</v>
+        <v>1621</v>
       </c>
       <c r="E79" t="n">
-        <v>1640</v>
+        <v>1621</v>
       </c>
       <c r="F79" t="n">
-        <v>57.61</v>
+        <v>20.35</v>
       </c>
       <c r="G79" t="n">
-        <v>1627.666666666667</v>
+        <v>1610.116666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3390,9 +3376,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3407,22 +3391,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1635</v>
+        <v>1640</v>
       </c>
       <c r="C80" t="n">
-        <v>1635</v>
+        <v>1640</v>
       </c>
       <c r="D80" t="n">
-        <v>1635</v>
+        <v>1640</v>
       </c>
       <c r="E80" t="n">
-        <v>1635</v>
+        <v>1640</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6989</v>
+        <v>57.61</v>
       </c>
       <c r="G80" t="n">
-        <v>1632</v>
+        <v>1610.966666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3431,9 +3415,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3460,10 +3442,10 @@
         <v>1635</v>
       </c>
       <c r="F81" t="n">
-        <v>33.6973</v>
+        <v>0.6989</v>
       </c>
       <c r="G81" t="n">
-        <v>1636.666666666667</v>
+        <v>1611.45</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3472,9 +3454,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3489,22 +3469,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="C82" t="n">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="D82" t="n">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="E82" t="n">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1</v>
+        <v>33.6973</v>
       </c>
       <c r="G82" t="n">
-        <v>1636.666666666667</v>
+        <v>1612.05</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3513,9 +3493,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3542,10 +3520,10 @@
         <v>1640</v>
       </c>
       <c r="F83" t="n">
-        <v>392.5974</v>
+        <v>0.1</v>
       </c>
       <c r="G83" t="n">
-        <v>1638.333333333333</v>
+        <v>1612.633333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3554,9 +3532,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3571,22 +3547,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1636</v>
+        <v>1640</v>
       </c>
       <c r="C84" t="n">
-        <v>1636</v>
+        <v>1640</v>
       </c>
       <c r="D84" t="n">
-        <v>1636</v>
+        <v>1640</v>
       </c>
       <c r="E84" t="n">
-        <v>1636</v>
+        <v>1640</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1</v>
+        <v>392.5974</v>
       </c>
       <c r="G84" t="n">
-        <v>1638.666666666667</v>
+        <v>1613.216666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3595,9 +3571,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3612,22 +3586,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1647</v>
+        <v>1636</v>
       </c>
       <c r="C85" t="n">
-        <v>1647</v>
+        <v>1636</v>
       </c>
       <c r="D85" t="n">
-        <v>1647</v>
+        <v>1636</v>
       </c>
       <c r="E85" t="n">
-        <v>1647</v>
+        <v>1636</v>
       </c>
       <c r="F85" t="n">
-        <v>0.118</v>
+        <v>0.1</v>
       </c>
       <c r="G85" t="n">
-        <v>1641</v>
+        <v>1613.866666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3636,9 +3610,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3653,22 +3625,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C86" t="n">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="D86" t="n">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="E86" t="n">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="F86" t="n">
-        <v>909.6422</v>
+        <v>0.118</v>
       </c>
       <c r="G86" t="n">
-        <v>1644</v>
+        <v>1614.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3677,9 +3649,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3694,7 +3664,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1643</v>
+        <v>1646</v>
       </c>
       <c r="C87" t="n">
         <v>1649</v>
@@ -3703,13 +3673,13 @@
         <v>1649</v>
       </c>
       <c r="E87" t="n">
-        <v>1643</v>
+        <v>1646</v>
       </c>
       <c r="F87" t="n">
-        <v>15.3465</v>
+        <v>909.6422</v>
       </c>
       <c r="G87" t="n">
-        <v>1648.333333333333</v>
+        <v>1615.516666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3718,9 +3688,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3735,22 +3703,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C88" t="n">
-        <v>1644</v>
+        <v>1649</v>
       </c>
       <c r="D88" t="n">
-        <v>1644</v>
+        <v>1649</v>
       </c>
       <c r="E88" t="n">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="F88" t="n">
-        <v>17.4151</v>
+        <v>15.3465</v>
       </c>
       <c r="G88" t="n">
-        <v>1647.333333333333</v>
+        <v>1616.266666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3759,9 +3727,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3788,10 +3754,10 @@
         <v>1644</v>
       </c>
       <c r="F89" t="n">
-        <v>27.77</v>
+        <v>17.4151</v>
       </c>
       <c r="G89" t="n">
-        <v>1645.666666666667</v>
+        <v>1617.016666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3800,9 +3766,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3817,22 +3781,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="C90" t="n">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="D90" t="n">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="E90" t="n">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="F90" t="n">
-        <v>6.2071</v>
+        <v>27.77</v>
       </c>
       <c r="G90" t="n">
-        <v>1646</v>
+        <v>1617.65</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3841,9 +3805,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3858,22 +3820,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="C91" t="n">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="D91" t="n">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="E91" t="n">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="F91" t="n">
-        <v>0.11</v>
+        <v>6.2071</v>
       </c>
       <c r="G91" t="n">
-        <v>1650.333333333333</v>
+        <v>1618.616666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3882,9 +3844,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3899,22 +3859,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C92" t="n">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D92" t="n">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="E92" t="n">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="F92" t="n">
-        <v>18</v>
+        <v>0.11</v>
       </c>
       <c r="G92" t="n">
-        <v>1655</v>
+        <v>1619.466666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3923,9 +3883,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3952,10 +3910,10 @@
         <v>1658</v>
       </c>
       <c r="F93" t="n">
-        <v>31.9999</v>
+        <v>18</v>
       </c>
       <c r="G93" t="n">
-        <v>1657.666666666667</v>
+        <v>1620.333333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3964,9 +3922,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3984,19 +3940,19 @@
         <v>1658</v>
       </c>
       <c r="C94" t="n">
-        <v>1668</v>
+        <v>1658</v>
       </c>
       <c r="D94" t="n">
-        <v>1668</v>
+        <v>1658</v>
       </c>
       <c r="E94" t="n">
         <v>1658</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1</v>
+        <v>31.9999</v>
       </c>
       <c r="G94" t="n">
-        <v>1661.333333333333</v>
+        <v>1621.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4005,9 +3961,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4022,22 +3976,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C95" t="n">
-        <v>1659</v>
+        <v>1668</v>
       </c>
       <c r="D95" t="n">
-        <v>1659</v>
+        <v>1668</v>
       </c>
       <c r="E95" t="n">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="F95" t="n">
-        <v>15.3484</v>
+        <v>0.1</v>
       </c>
       <c r="G95" t="n">
-        <v>1661.666666666667</v>
+        <v>1622.233333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4046,9 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4063,22 +4015,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1685</v>
+        <v>1659</v>
       </c>
       <c r="C96" t="n">
-        <v>1686</v>
+        <v>1659</v>
       </c>
       <c r="D96" t="n">
-        <v>1686</v>
+        <v>1659</v>
       </c>
       <c r="E96" t="n">
-        <v>1685</v>
+        <v>1659</v>
       </c>
       <c r="F96" t="n">
-        <v>24.422</v>
+        <v>15.3484</v>
       </c>
       <c r="G96" t="n">
-        <v>1671</v>
+        <v>1623.216666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4087,9 +4039,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4104,22 +4054,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>1685</v>
+      </c>
+      <c r="C97" t="n">
         <v>1686</v>
       </c>
-      <c r="C97" t="n">
-        <v>1699</v>
-      </c>
       <c r="D97" t="n">
-        <v>1699</v>
+        <v>1686</v>
       </c>
       <c r="E97" t="n">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="F97" t="n">
-        <v>1363.8355</v>
+        <v>24.422</v>
       </c>
       <c r="G97" t="n">
-        <v>1681.333333333333</v>
+        <v>1624.683333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4128,9 +4078,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4145,22 +4093,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1695</v>
+        <v>1686</v>
       </c>
       <c r="C98" t="n">
-        <v>1679</v>
+        <v>1699</v>
       </c>
       <c r="D98" t="n">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="E98" t="n">
-        <v>1679</v>
+        <v>1686</v>
       </c>
       <c r="F98" t="n">
-        <v>1500.699</v>
+        <v>1363.8355</v>
       </c>
       <c r="G98" t="n">
-        <v>1688</v>
+        <v>1626.233333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4169,9 +4117,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4186,22 +4132,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="C99" t="n">
-        <v>1698</v>
+        <v>1679</v>
       </c>
       <c r="D99" t="n">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="E99" t="n">
-        <v>1698</v>
+        <v>1679</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1</v>
+        <v>1500.699</v>
       </c>
       <c r="G99" t="n">
-        <v>1692</v>
+        <v>1627.583333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4210,9 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4227,22 +4171,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1676</v>
+        <v>1698</v>
       </c>
       <c r="C100" t="n">
-        <v>1676</v>
+        <v>1698</v>
       </c>
       <c r="D100" t="n">
-        <v>1676</v>
+        <v>1698</v>
       </c>
       <c r="E100" t="n">
-        <v>1676</v>
+        <v>1698</v>
       </c>
       <c r="F100" t="n">
         <v>0.1</v>
       </c>
       <c r="G100" t="n">
-        <v>1684.333333333333</v>
+        <v>1629.116666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4251,9 +4195,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4268,22 +4210,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1695</v>
+        <v>1676</v>
       </c>
       <c r="C101" t="n">
-        <v>1695</v>
+        <v>1676</v>
       </c>
       <c r="D101" t="n">
-        <v>1695</v>
+        <v>1676</v>
       </c>
       <c r="E101" t="n">
-        <v>1695</v>
+        <v>1676</v>
       </c>
       <c r="F101" t="n">
         <v>0.1</v>
       </c>
       <c r="G101" t="n">
-        <v>1689.666666666667</v>
+        <v>1630.466666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4292,9 +4234,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4309,22 +4249,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1674</v>
+        <v>1695</v>
       </c>
       <c r="C102" t="n">
-        <v>1672</v>
+        <v>1695</v>
       </c>
       <c r="D102" t="n">
-        <v>1687</v>
+        <v>1695</v>
       </c>
       <c r="E102" t="n">
-        <v>1672</v>
+        <v>1695</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G102" t="n">
-        <v>1681</v>
+        <v>1632.016666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4333,9 +4273,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4350,22 +4288,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1687</v>
+        <v>1674</v>
       </c>
       <c r="C103" t="n">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="D103" t="n">
         <v>1687</v>
       </c>
       <c r="E103" t="n">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="F103" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G103" t="n">
-        <v>1679</v>
+        <v>1633.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4374,9 +4312,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4391,22 +4327,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="C104" t="n">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="D104" t="n">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="E104" t="n">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="F104" t="n">
-        <v>0.298</v>
+        <v>0.3</v>
       </c>
       <c r="G104" t="n">
-        <v>1671.666666666667</v>
+        <v>1634.183333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4415,9 +4351,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4432,22 +4366,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="C105" t="n">
-        <v>1683</v>
+        <v>1673</v>
       </c>
       <c r="D105" t="n">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="E105" t="n">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5</v>
+        <v>0.298</v>
       </c>
       <c r="G105" t="n">
-        <v>1675.333333333333</v>
+        <v>1635.116666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4456,9 +4390,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4473,22 +4405,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1671</v>
+        <v>1683</v>
       </c>
       <c r="C106" t="n">
-        <v>1671</v>
+        <v>1683</v>
       </c>
       <c r="D106" t="n">
         <v>1683</v>
       </c>
       <c r="E106" t="n">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="G106" t="n">
-        <v>1675.666666666667</v>
+        <v>1636.066666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4497,9 +4429,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4517,7 +4447,7 @@
         <v>1671</v>
       </c>
       <c r="C107" t="n">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D107" t="n">
         <v>1683</v>
@@ -4526,10 +4456,10 @@
         <v>1671</v>
       </c>
       <c r="F107" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="G107" t="n">
-        <v>1675.333333333333</v>
+        <v>1636.683333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4538,9 +4468,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4555,22 +4483,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C108" t="n">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="D108" t="n">
-        <v>1670</v>
+        <v>1683</v>
       </c>
       <c r="E108" t="n">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="F108" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="G108" t="n">
-        <v>1671</v>
+        <v>1637.566666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4579,9 +4507,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4596,22 +4522,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1681</v>
+        <v>1670</v>
       </c>
       <c r="C109" t="n">
-        <v>1681</v>
+        <v>1670</v>
       </c>
       <c r="D109" t="n">
-        <v>1681</v>
+        <v>1670</v>
       </c>
       <c r="E109" t="n">
-        <v>1681</v>
+        <v>1670</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G109" t="n">
-        <v>1674.333333333333</v>
+        <v>1638.383333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4620,9 +4546,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4637,22 +4561,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C110" t="n">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D110" t="n">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E110" t="n">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F110" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G110" t="n">
-        <v>1677.666666666667</v>
+        <v>1639.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4661,9 +4585,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4678,22 +4600,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1671</v>
+        <v>1682</v>
       </c>
       <c r="C111" t="n">
-        <v>1671</v>
+        <v>1682</v>
       </c>
       <c r="D111" t="n">
-        <v>1671</v>
+        <v>1682</v>
       </c>
       <c r="E111" t="n">
-        <v>1671</v>
+        <v>1682</v>
       </c>
       <c r="F111" t="n">
-        <v>15.2329</v>
+        <v>0.11</v>
       </c>
       <c r="G111" t="n">
-        <v>1678</v>
+        <v>1640.916666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4702,9 +4624,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4719,22 +4639,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1682</v>
+        <v>1671</v>
       </c>
       <c r="C112" t="n">
-        <v>1682</v>
+        <v>1671</v>
       </c>
       <c r="D112" t="n">
-        <v>1682</v>
+        <v>1671</v>
       </c>
       <c r="E112" t="n">
-        <v>1682</v>
+        <v>1671</v>
       </c>
       <c r="F112" t="n">
-        <v>55.5237</v>
+        <v>15.2329</v>
       </c>
       <c r="G112" t="n">
-        <v>1678.333333333333</v>
+        <v>1642.15</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4743,9 +4663,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4760,22 +4678,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C113" t="n">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D113" t="n">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E113" t="n">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F113" t="n">
-        <v>160.06</v>
+        <v>55.5237</v>
       </c>
       <c r="G113" t="n">
-        <v>1678.666666666667</v>
+        <v>1643.433333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4784,9 +4702,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4813,10 +4729,10 @@
         <v>1683</v>
       </c>
       <c r="F114" t="n">
-        <v>397.9699</v>
+        <v>160.06</v>
       </c>
       <c r="G114" t="n">
-        <v>1682.666666666667</v>
+        <v>1644.85</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4825,9 +4741,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4854,10 +4768,10 @@
         <v>1683</v>
       </c>
       <c r="F115" t="n">
-        <v>56.8512</v>
+        <v>397.9699</v>
       </c>
       <c r="G115" t="n">
-        <v>1683</v>
+        <v>1646.166666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4866,9 +4780,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4883,22 +4795,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C116" t="n">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D116" t="n">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E116" t="n">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="F116" t="n">
-        <v>1582.3453</v>
+        <v>56.8512</v>
       </c>
       <c r="G116" t="n">
-        <v>1683.333333333333</v>
+        <v>1647.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4907,9 +4819,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4936,10 +4846,10 @@
         <v>1684</v>
       </c>
       <c r="F117" t="n">
-        <v>674.4822</v>
+        <v>1582.3453</v>
       </c>
       <c r="G117" t="n">
-        <v>1683.666666666667</v>
+        <v>1648.816666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4948,9 +4858,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4977,10 +4885,10 @@
         <v>1684</v>
       </c>
       <c r="F118" t="n">
-        <v>221.7808</v>
+        <v>674.4822</v>
       </c>
       <c r="G118" t="n">
-        <v>1684</v>
+        <v>1650.05</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4989,9 +4897,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5006,22 +4912,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="C119" t="n">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="D119" t="n">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="E119" t="n">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1</v>
+        <v>221.7808</v>
       </c>
       <c r="G119" t="n">
-        <v>1687.333333333333</v>
+        <v>1651.15</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5030,9 +4936,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5047,22 +4951,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C120" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D120" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="E120" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F120" t="n">
-        <v>173.4199</v>
+        <v>0.1</v>
       </c>
       <c r="G120" t="n">
-        <v>1691</v>
+        <v>1652.383333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5071,9 +4975,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5091,19 +4993,19 @@
         <v>1695</v>
       </c>
       <c r="C121" t="n">
-        <v>1719</v>
+        <v>1695</v>
       </c>
       <c r="D121" t="n">
-        <v>1719</v>
+        <v>1695</v>
       </c>
       <c r="E121" t="n">
         <v>1695</v>
       </c>
       <c r="F121" t="n">
-        <v>1715.89</v>
+        <v>173.4199</v>
       </c>
       <c r="G121" t="n">
-        <v>1702.666666666667</v>
+        <v>1653.616666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5112,9 +5014,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5129,7 +5029,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1719</v>
+        <v>1695</v>
       </c>
       <c r="C122" t="n">
         <v>1719</v>
@@ -5138,13 +5038,13 @@
         <v>1719</v>
       </c>
       <c r="E122" t="n">
-        <v>1719</v>
+        <v>1695</v>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>1715.89</v>
       </c>
       <c r="G122" t="n">
-        <v>1711</v>
+        <v>1655.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5153,9 +5053,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5170,22 +5068,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C123" t="n">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D123" t="n">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E123" t="n">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="F123" t="n">
-        <v>453.2557</v>
+        <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>1719.333333333333</v>
+        <v>1656.816666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5194,9 +5092,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5211,22 +5107,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1732</v>
+        <v>1720</v>
       </c>
       <c r="C124" t="n">
-        <v>1732</v>
+        <v>1720</v>
       </c>
       <c r="D124" t="n">
-        <v>1732</v>
+        <v>1720</v>
       </c>
       <c r="E124" t="n">
-        <v>1732</v>
+        <v>1720</v>
       </c>
       <c r="F124" t="n">
-        <v>305</v>
+        <v>453.2557</v>
       </c>
       <c r="G124" t="n">
-        <v>1723.666666666667</v>
+        <v>1658.55</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5235,9 +5131,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5252,22 +5146,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C125" t="n">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D125" t="n">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="E125" t="n">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="F125" t="n">
-        <v>17.657</v>
+        <v>305</v>
       </c>
       <c r="G125" t="n">
-        <v>1728.333333333333</v>
+        <v>1660.383333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5276,9 +5170,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5293,22 +5185,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="C126" t="n">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="D126" t="n">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="E126" t="n">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="F126" t="n">
-        <v>17.251</v>
+        <v>17.657</v>
       </c>
       <c r="G126" t="n">
-        <v>1734.666666666667</v>
+        <v>1662.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5317,9 +5209,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5334,7 +5224,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1734</v>
+        <v>1739</v>
       </c>
       <c r="C127" t="n">
         <v>1739</v>
@@ -5343,13 +5233,13 @@
         <v>1739</v>
       </c>
       <c r="E127" t="n">
-        <v>1732</v>
+        <v>1739</v>
       </c>
       <c r="F127" t="n">
-        <v>474.8211</v>
+        <v>17.251</v>
       </c>
       <c r="G127" t="n">
-        <v>1737</v>
+        <v>1663.916666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5358,9 +5248,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5375,7 +5263,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="C128" t="n">
         <v>1739</v>
@@ -5384,13 +5272,13 @@
         <v>1739</v>
       </c>
       <c r="E128" t="n">
-        <v>1739</v>
+        <v>1732</v>
       </c>
       <c r="F128" t="n">
-        <v>208.3416</v>
+        <v>474.8211</v>
       </c>
       <c r="G128" t="n">
-        <v>1739</v>
+        <v>1665.816666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5399,9 +5287,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5416,22 +5302,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1751</v>
+        <v>1739</v>
       </c>
       <c r="C129" t="n">
-        <v>1773</v>
+        <v>1739</v>
       </c>
       <c r="D129" t="n">
-        <v>1773</v>
+        <v>1739</v>
       </c>
       <c r="E129" t="n">
-        <v>1751</v>
+        <v>1739</v>
       </c>
       <c r="F129" t="n">
-        <v>265.8471</v>
+        <v>208.3416</v>
       </c>
       <c r="G129" t="n">
-        <v>1750.333333333333</v>
+        <v>1667.75</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5440,9 +5326,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5457,63 +5341,59 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="C130" t="n">
-        <v>1740</v>
+        <v>1773</v>
       </c>
       <c r="D130" t="n">
-        <v>1753</v>
+        <v>1773</v>
       </c>
       <c r="E130" t="n">
-        <v>1740</v>
+        <v>1751</v>
       </c>
       <c r="F130" t="n">
-        <v>2769.215</v>
+        <v>265.8471</v>
       </c>
       <c r="G130" t="n">
-        <v>1750.666666666667</v>
+        <v>1670.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>1606</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1768</v>
+        <v>1753</v>
       </c>
       <c r="C131" t="n">
-        <v>1767</v>
+        <v>1740</v>
       </c>
       <c r="D131" t="n">
-        <v>1768</v>
+        <v>1753</v>
       </c>
       <c r="E131" t="n">
-        <v>1767</v>
+        <v>1740</v>
       </c>
       <c r="F131" t="n">
-        <v>90.48050000000001</v>
+        <v>2769.215</v>
       </c>
       <c r="G131" t="n">
-        <v>1760</v>
+        <v>1672.15</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5522,14 +5402,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>1606</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5539,22 +5413,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>1768</v>
+      </c>
+      <c r="C132" t="n">
         <v>1767</v>
       </c>
-      <c r="C132" t="n">
-        <v>1774</v>
-      </c>
       <c r="D132" t="n">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="E132" t="n">
-        <v>1761</v>
+        <v>1767</v>
       </c>
       <c r="F132" t="n">
-        <v>398.8767</v>
+        <v>90.48050000000001</v>
       </c>
       <c r="G132" t="n">
-        <v>1760.333333333333</v>
+        <v>1674.75</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5563,16 +5437,10 @@
         <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>1606</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>1.099607721046077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -5580,22 +5448,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1778</v>
+        <v>1767</v>
       </c>
       <c r="C133" t="n">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="D133" t="n">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="E133" t="n">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="F133" t="n">
-        <v>3780.2251</v>
+        <v>398.8767</v>
       </c>
       <c r="G133" t="n">
-        <v>1773</v>
+        <v>1677.533333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5618,25 +5486,25 @@
         <v>1778</v>
       </c>
       <c r="C134" t="n">
-        <v>1798</v>
+        <v>1778</v>
       </c>
       <c r="D134" t="n">
-        <v>1798</v>
+        <v>1778</v>
       </c>
       <c r="E134" t="n">
-        <v>1778</v>
+        <v>1765</v>
       </c>
       <c r="F134" t="n">
-        <v>436.56</v>
+        <v>3780.2251</v>
       </c>
       <c r="G134" t="n">
-        <v>1783.333333333333</v>
+        <v>1680.266666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5650,28 +5518,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1770</v>
+        <v>1778</v>
       </c>
       <c r="C135" t="n">
-        <v>1762</v>
+        <v>1798</v>
       </c>
       <c r="D135" t="n">
-        <v>1770</v>
+        <v>1798</v>
       </c>
       <c r="E135" t="n">
-        <v>1762</v>
+        <v>1778</v>
       </c>
       <c r="F135" t="n">
-        <v>36.8854</v>
+        <v>436.56</v>
       </c>
       <c r="G135" t="n">
-        <v>1779.333333333333</v>
+        <v>1683.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5685,22 +5553,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="C136" t="n">
-        <v>1782</v>
+        <v>1762</v>
       </c>
       <c r="D136" t="n">
-        <v>1782</v>
+        <v>1770</v>
       </c>
       <c r="E136" t="n">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="F136" t="n">
-        <v>307.1236</v>
+        <v>36.8854</v>
       </c>
       <c r="G136" t="n">
-        <v>1780.666666666667</v>
+        <v>1685.816666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5720,22 +5588,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1780</v>
+        <v>1773</v>
       </c>
       <c r="C137" t="n">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="D137" t="n">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="E137" t="n">
-        <v>1780</v>
+        <v>1764</v>
       </c>
       <c r="F137" t="n">
-        <v>22.3488</v>
+        <v>307.1236</v>
       </c>
       <c r="G137" t="n">
-        <v>1775</v>
+        <v>1688.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5755,22 +5623,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="C138" t="n">
         <v>1781</v>
       </c>
       <c r="D138" t="n">
-        <v>1790</v>
+        <v>1781</v>
       </c>
       <c r="E138" t="n">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="F138" t="n">
-        <v>477.196</v>
+        <v>22.3488</v>
       </c>
       <c r="G138" t="n">
-        <v>1781.333333333333</v>
+        <v>1691.25</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5790,22 +5658,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1789</v>
+        <v>1782</v>
       </c>
       <c r="C139" t="n">
-        <v>1789</v>
+        <v>1781</v>
       </c>
       <c r="D139" t="n">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="E139" t="n">
-        <v>1789</v>
+        <v>1781</v>
       </c>
       <c r="F139" t="n">
-        <v>0.118</v>
+        <v>477.196</v>
       </c>
       <c r="G139" t="n">
-        <v>1783.666666666667</v>
+        <v>1693.916666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5825,22 +5693,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1771</v>
+        <v>1789</v>
       </c>
       <c r="C140" t="n">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="D140" t="n">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="E140" t="n">
-        <v>1771</v>
+        <v>1789</v>
       </c>
       <c r="F140" t="n">
-        <v>15.7712</v>
+        <v>0.118</v>
       </c>
       <c r="G140" t="n">
-        <v>1786</v>
+        <v>1696.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5860,22 +5728,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C141" t="n">
-        <v>1772</v>
+        <v>1788</v>
       </c>
       <c r="D141" t="n">
-        <v>1772</v>
+        <v>1788</v>
       </c>
       <c r="E141" t="n">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="F141" t="n">
-        <v>355.3673</v>
+        <v>15.7712</v>
       </c>
       <c r="G141" t="n">
-        <v>1783</v>
+        <v>1698.95</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5907,10 +5775,10 @@
         <v>1772</v>
       </c>
       <c r="F142" t="n">
-        <v>242.6304</v>
+        <v>355.3673</v>
       </c>
       <c r="G142" t="n">
-        <v>1777.333333333333</v>
+        <v>1701.233333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5930,22 +5798,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C143" t="n">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="D143" t="n">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="E143" t="n">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="F143" t="n">
-        <v>386.5504</v>
+        <v>242.6304</v>
       </c>
       <c r="G143" t="n">
-        <v>1773.333333333333</v>
+        <v>1703.433333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5968,19 +5836,19 @@
         <v>1773</v>
       </c>
       <c r="C144" t="n">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="D144" t="n">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="E144" t="n">
         <v>1773</v>
       </c>
       <c r="F144" t="n">
-        <v>33.8166</v>
+        <v>386.5504</v>
       </c>
       <c r="G144" t="n">
-        <v>1776</v>
+        <v>1705.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6000,7 +5868,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1780</v>
+        <v>1773</v>
       </c>
       <c r="C145" t="n">
         <v>1780</v>
@@ -6009,13 +5877,13 @@
         <v>1780</v>
       </c>
       <c r="E145" t="n">
-        <v>1780</v>
+        <v>1773</v>
       </c>
       <c r="F145" t="n">
-        <v>49.8784</v>
+        <v>33.8166</v>
       </c>
       <c r="G145" t="n">
-        <v>1778.666666666667</v>
+        <v>1708.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6035,22 +5903,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1774</v>
+        <v>1780</v>
       </c>
       <c r="C146" t="n">
-        <v>1774</v>
+        <v>1780</v>
       </c>
       <c r="D146" t="n">
-        <v>1774</v>
+        <v>1780</v>
       </c>
       <c r="E146" t="n">
-        <v>1774</v>
+        <v>1780</v>
       </c>
       <c r="F146" t="n">
-        <v>34.3939</v>
+        <v>49.8784</v>
       </c>
       <c r="G146" t="n">
-        <v>1778</v>
+        <v>1710.316666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6073,19 +5941,19 @@
         <v>1774</v>
       </c>
       <c r="C147" t="n">
-        <v>1784</v>
+        <v>1774</v>
       </c>
       <c r="D147" t="n">
-        <v>1784</v>
+        <v>1774</v>
       </c>
       <c r="E147" t="n">
         <v>1774</v>
       </c>
       <c r="F147" t="n">
-        <v>566.5735</v>
+        <v>34.3939</v>
       </c>
       <c r="G147" t="n">
-        <v>1779.333333333333</v>
+        <v>1712.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6105,22 +5973,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1787</v>
+        <v>1774</v>
       </c>
       <c r="C148" t="n">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="D148" t="n">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="E148" t="n">
-        <v>1787</v>
+        <v>1774</v>
       </c>
       <c r="F148" t="n">
-        <v>22.4</v>
+        <v>566.5735</v>
       </c>
       <c r="G148" t="n">
-        <v>1781.666666666667</v>
+        <v>1714.65</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6140,22 +6008,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C149" t="n">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="D149" t="n">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="E149" t="n">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="F149" t="n">
-        <v>452.2051</v>
+        <v>22.4</v>
       </c>
       <c r="G149" t="n">
-        <v>1785.666666666667</v>
+        <v>1717.033333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6178,19 +6046,19 @@
         <v>1786</v>
       </c>
       <c r="C150" t="n">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="D150" t="n">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="E150" t="n">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="F150" t="n">
-        <v>44.6655</v>
+        <v>452.2051</v>
       </c>
       <c r="G150" t="n">
-        <v>1787</v>
+        <v>1719.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6210,22 +6078,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="C151" t="n">
-        <v>1800</v>
+        <v>1788</v>
       </c>
       <c r="D151" t="n">
-        <v>1800</v>
+        <v>1788</v>
       </c>
       <c r="E151" t="n">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="F151" t="n">
-        <v>323.7972</v>
+        <v>44.6655</v>
       </c>
       <c r="G151" t="n">
-        <v>1791.333333333333</v>
+        <v>1721.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6245,22 +6113,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>1790</v>
+      </c>
+      <c r="C152" t="n">
         <v>1800</v>
       </c>
-      <c r="C152" t="n">
-        <v>1787</v>
-      </c>
       <c r="D152" t="n">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="E152" t="n">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="F152" t="n">
-        <v>1671.3088</v>
+        <v>323.7972</v>
       </c>
       <c r="G152" t="n">
-        <v>1791.666666666667</v>
+        <v>1724.083333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6280,22 +6148,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C153" t="n">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="D153" t="n">
         <v>1802</v>
       </c>
       <c r="E153" t="n">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="F153" t="n">
-        <v>261.9938</v>
+        <v>1671.3088</v>
       </c>
       <c r="G153" t="n">
-        <v>1792</v>
+        <v>1726.233333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6315,22 +6183,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C154" t="n">
-        <v>1802</v>
+        <v>1789</v>
       </c>
       <c r="D154" t="n">
         <v>1802</v>
       </c>
       <c r="E154" t="n">
-        <v>1802</v>
+        <v>1789</v>
       </c>
       <c r="F154" t="n">
-        <v>0.1</v>
+        <v>261.9938</v>
       </c>
       <c r="G154" t="n">
-        <v>1792.666666666667</v>
+        <v>1728.416666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6350,22 +6218,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1790</v>
+        <v>1802</v>
       </c>
       <c r="C155" t="n">
-        <v>1790</v>
+        <v>1802</v>
       </c>
       <c r="D155" t="n">
-        <v>1790</v>
+        <v>1802</v>
       </c>
       <c r="E155" t="n">
-        <v>1790</v>
+        <v>1802</v>
       </c>
       <c r="F155" t="n">
         <v>0.1</v>
       </c>
       <c r="G155" t="n">
-        <v>1793.666666666667</v>
+        <v>1730.65</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6385,22 +6253,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1801</v>
+        <v>1790</v>
       </c>
       <c r="C156" t="n">
         <v>1790</v>
       </c>
       <c r="D156" t="n">
-        <v>1801</v>
+        <v>1790</v>
       </c>
       <c r="E156" t="n">
         <v>1790</v>
       </c>
       <c r="F156" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G156" t="n">
-        <v>1794</v>
+        <v>1732.833333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6420,22 +6288,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>1801</v>
+      </c>
+      <c r="C157" t="n">
         <v>1790</v>
       </c>
-      <c r="C157" t="n">
-        <v>1789</v>
-      </c>
       <c r="D157" t="n">
+        <v>1801</v>
+      </c>
+      <c r="E157" t="n">
         <v>1790</v>
       </c>
-      <c r="E157" t="n">
-        <v>1789</v>
-      </c>
       <c r="F157" t="n">
-        <v>629.4391000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G157" t="n">
-        <v>1789.666666666667</v>
+        <v>1734.566666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6458,19 +6326,19 @@
         <v>1790</v>
       </c>
       <c r="C158" t="n">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D158" t="n">
         <v>1790</v>
       </c>
       <c r="E158" t="n">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0001</v>
+        <v>629.4391000000001</v>
       </c>
       <c r="G158" t="n">
-        <v>1789.666666666667</v>
+        <v>1736.066666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6490,22 +6358,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1802</v>
+        <v>1790</v>
       </c>
       <c r="C159" t="n">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="D159" t="n">
-        <v>1802</v>
+        <v>1790</v>
       </c>
       <c r="E159" t="n">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="F159" t="n">
-        <v>2034.2415</v>
+        <v>0.0001</v>
       </c>
       <c r="G159" t="n">
-        <v>1790.333333333333</v>
+        <v>1737.916666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6525,22 +6393,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="C160" t="n">
-        <v>1800</v>
+        <v>1792</v>
       </c>
       <c r="D160" t="n">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="E160" t="n">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="F160" t="n">
-        <v>14.639</v>
+        <v>2034.2415</v>
       </c>
       <c r="G160" t="n">
-        <v>1794</v>
+        <v>1739.483333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6560,22 +6428,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1807</v>
+        <v>1800</v>
       </c>
       <c r="C161" t="n">
-        <v>1791</v>
+        <v>1800</v>
       </c>
       <c r="D161" t="n">
-        <v>1808</v>
+        <v>1800</v>
       </c>
       <c r="E161" t="n">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="F161" t="n">
-        <v>116.3291761</v>
+        <v>14.639</v>
       </c>
       <c r="G161" t="n">
-        <v>1794.333333333333</v>
+        <v>1741.55</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6595,22 +6463,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="C162" t="n">
-        <v>1808</v>
+        <v>1791</v>
       </c>
       <c r="D162" t="n">
         <v>1808</v>
       </c>
       <c r="E162" t="n">
-        <v>1808</v>
+        <v>1791</v>
       </c>
       <c r="F162" t="n">
-        <v>29.1</v>
+        <v>116.3291761</v>
       </c>
       <c r="G162" t="n">
-        <v>1799.666666666667</v>
+        <v>1743.15</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6630,22 +6498,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1791</v>
+        <v>1808</v>
       </c>
       <c r="C163" t="n">
-        <v>1789</v>
+        <v>1808</v>
       </c>
       <c r="D163" t="n">
-        <v>1791</v>
+        <v>1808</v>
       </c>
       <c r="E163" t="n">
-        <v>1789</v>
+        <v>1808</v>
       </c>
       <c r="F163" t="n">
-        <v>128.0189</v>
+        <v>29.1</v>
       </c>
       <c r="G163" t="n">
-        <v>1796</v>
+        <v>1745.416666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6665,22 +6533,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1805</v>
+        <v>1791</v>
       </c>
       <c r="C164" t="n">
-        <v>1810</v>
+        <v>1789</v>
       </c>
       <c r="D164" t="n">
-        <v>1810</v>
+        <v>1791</v>
       </c>
       <c r="E164" t="n">
-        <v>1805</v>
+        <v>1789</v>
       </c>
       <c r="F164" t="n">
-        <v>1026.7054</v>
+        <v>128.0189</v>
       </c>
       <c r="G164" t="n">
-        <v>1802.333333333333</v>
+        <v>1747.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6700,22 +6568,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
+        <v>1805</v>
+      </c>
+      <c r="C165" t="n">
         <v>1810</v>
       </c>
-      <c r="C165" t="n">
-        <v>1812</v>
-      </c>
       <c r="D165" t="n">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="E165" t="n">
-        <v>1810</v>
+        <v>1805</v>
       </c>
       <c r="F165" t="n">
-        <v>459.7014</v>
+        <v>1026.7054</v>
       </c>
       <c r="G165" t="n">
-        <v>1803.666666666667</v>
+        <v>1749.683333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6735,7 +6603,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="C166" t="n">
         <v>1812</v>
@@ -6744,13 +6612,13 @@
         <v>1812</v>
       </c>
       <c r="E166" t="n">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="F166" t="n">
-        <v>49.2218</v>
+        <v>459.7014</v>
       </c>
       <c r="G166" t="n">
-        <v>1811.333333333333</v>
+        <v>1751.833333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6773,19 +6641,19 @@
         <v>1812</v>
       </c>
       <c r="C167" t="n">
-        <v>1828</v>
+        <v>1812</v>
       </c>
       <c r="D167" t="n">
-        <v>1828</v>
+        <v>1812</v>
       </c>
       <c r="E167" t="n">
         <v>1812</v>
       </c>
       <c r="F167" t="n">
-        <v>1970.11196132</v>
+        <v>49.2218</v>
       </c>
       <c r="G167" t="n">
-        <v>1817.333333333333</v>
+        <v>1754.183333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6805,7 +6673,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1828</v>
+        <v>1812</v>
       </c>
       <c r="C168" t="n">
         <v>1828</v>
@@ -6814,13 +6682,13 @@
         <v>1828</v>
       </c>
       <c r="E168" t="n">
-        <v>1828</v>
+        <v>1812</v>
       </c>
       <c r="F168" t="n">
-        <v>564.69857768</v>
+        <v>1970.11196132</v>
       </c>
       <c r="G168" t="n">
-        <v>1822.666666666667</v>
+        <v>1756.783333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6849,13 +6717,13 @@
         <v>1828</v>
       </c>
       <c r="E169" t="n">
-        <v>1812</v>
+        <v>1828</v>
       </c>
       <c r="F169" t="n">
-        <v>155.2598</v>
+        <v>564.69857768</v>
       </c>
       <c r="G169" t="n">
-        <v>1828</v>
+        <v>1759.416666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6875,22 +6743,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="C170" t="n">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="D170" t="n">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="E170" t="n">
-        <v>1825</v>
+        <v>1812</v>
       </c>
       <c r="F170" t="n">
-        <v>132.418</v>
+        <v>155.2598</v>
       </c>
       <c r="G170" t="n">
-        <v>1827</v>
+        <v>1761.866666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6910,22 +6778,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="C171" t="n">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="D171" t="n">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="E171" t="n">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="F171" t="n">
-        <v>1008.7091</v>
+        <v>132.418</v>
       </c>
       <c r="G171" t="n">
-        <v>1827</v>
+        <v>1764.25</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6945,7 +6813,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="C172" t="n">
         <v>1828</v>
@@ -6954,13 +6822,13 @@
         <v>1828</v>
       </c>
       <c r="E172" t="n">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="F172" t="n">
-        <v>1602.61885185</v>
+        <v>1008.7091</v>
       </c>
       <c r="G172" t="n">
-        <v>1827</v>
+        <v>1766.866666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6980,22 +6848,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>1822</v>
+      </c>
+      <c r="C173" t="n">
         <v>1828</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1827</v>
       </c>
       <c r="D173" t="n">
         <v>1828</v>
       </c>
       <c r="E173" t="n">
-        <v>1827</v>
+        <v>1822</v>
       </c>
       <c r="F173" t="n">
-        <v>480.2999</v>
+        <v>1602.61885185</v>
       </c>
       <c r="G173" t="n">
-        <v>1827.666666666667</v>
+        <v>1769.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7018,19 +6886,19 @@
         <v>1828</v>
       </c>
       <c r="C174" t="n">
-        <v>1850</v>
+        <v>1827</v>
       </c>
       <c r="D174" t="n">
-        <v>1850</v>
+        <v>1828</v>
       </c>
       <c r="E174" t="n">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="F174" t="n">
-        <v>1976</v>
+        <v>480.2999</v>
       </c>
       <c r="G174" t="n">
-        <v>1835</v>
+        <v>1771.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7050,22 +6918,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>1828</v>
+      </c>
+      <c r="C175" t="n">
         <v>1850</v>
       </c>
-      <c r="C175" t="n">
-        <v>1866</v>
-      </c>
       <c r="D175" t="n">
-        <v>1866</v>
+        <v>1850</v>
       </c>
       <c r="E175" t="n">
-        <v>1850</v>
+        <v>1828</v>
       </c>
       <c r="F175" t="n">
-        <v>550.0151091499999</v>
+        <v>1976</v>
       </c>
       <c r="G175" t="n">
-        <v>1847.666666666667</v>
+        <v>1774.483333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7085,7 +6953,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1866</v>
+        <v>1850</v>
       </c>
       <c r="C176" t="n">
         <v>1866</v>
@@ -7094,13 +6962,13 @@
         <v>1866</v>
       </c>
       <c r="E176" t="n">
-        <v>1866</v>
+        <v>1850</v>
       </c>
       <c r="F176" t="n">
-        <v>177.1159</v>
+        <v>550.0151091499999</v>
       </c>
       <c r="G176" t="n">
-        <v>1860.666666666667</v>
+        <v>1777.533333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7123,19 +6991,19 @@
         <v>1866</v>
       </c>
       <c r="C177" t="n">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="D177" t="n">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="E177" t="n">
         <v>1866</v>
       </c>
       <c r="F177" t="n">
-        <v>1626.2253</v>
+        <v>177.1159</v>
       </c>
       <c r="G177" t="n">
-        <v>1867</v>
+        <v>1780.566666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7155,22 +7023,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1877</v>
+        <v>1866</v>
       </c>
       <c r="C178" t="n">
         <v>1869</v>
       </c>
       <c r="D178" t="n">
-        <v>1877</v>
+        <v>1869</v>
       </c>
       <c r="E178" t="n">
-        <v>1858</v>
+        <v>1866</v>
       </c>
       <c r="F178" t="n">
-        <v>1348.973</v>
+        <v>1626.2253</v>
       </c>
       <c r="G178" t="n">
-        <v>1868</v>
+        <v>1783.65</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7190,7 +7058,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1869</v>
+        <v>1877</v>
       </c>
       <c r="C179" t="n">
         <v>1869</v>
@@ -7199,13 +7067,13 @@
         <v>1877</v>
       </c>
       <c r="E179" t="n">
-        <v>1869</v>
+        <v>1858</v>
       </c>
       <c r="F179" t="n">
-        <v>2274.05702215</v>
+        <v>1348.973</v>
       </c>
       <c r="G179" t="n">
-        <v>1869</v>
+        <v>1786.733333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7231,16 +7099,16 @@
         <v>1869</v>
       </c>
       <c r="D180" t="n">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E180" t="n">
         <v>1869</v>
       </c>
       <c r="F180" t="n">
-        <v>1988.40141585</v>
+        <v>2274.05702215</v>
       </c>
       <c r="G180" t="n">
-        <v>1869</v>
+        <v>1789.65</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7263,19 +7131,19 @@
         <v>1869</v>
       </c>
       <c r="C181" t="n">
-        <v>1847</v>
+        <v>1869</v>
       </c>
       <c r="D181" t="n">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="E181" t="n">
-        <v>1847</v>
+        <v>1869</v>
       </c>
       <c r="F181" t="n">
-        <v>192.3552</v>
+        <v>1988.40141585</v>
       </c>
       <c r="G181" t="n">
-        <v>1861.666666666667</v>
+        <v>1792.55</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7295,22 +7163,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1848</v>
+        <v>1869</v>
       </c>
       <c r="C182" t="n">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D182" t="n">
-        <v>1848</v>
+        <v>1875</v>
       </c>
       <c r="E182" t="n">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="F182" t="n">
-        <v>132.0869</v>
+        <v>192.3552</v>
       </c>
       <c r="G182" t="n">
-        <v>1854.666666666667</v>
+        <v>1794.683333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7330,22 +7198,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="C183" t="n">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="D183" t="n">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="E183" t="n">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="F183" t="n">
-        <v>56.62972744</v>
+        <v>132.0869</v>
       </c>
       <c r="G183" t="n">
-        <v>1847.333333333333</v>
+        <v>1796.833333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7365,22 +7233,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="C184" t="n">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="D184" t="n">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="E184" t="n">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="F184" t="n">
-        <v>200.8528</v>
+        <v>56.62972744</v>
       </c>
       <c r="G184" t="n">
-        <v>1847</v>
+        <v>1798.95</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7395,6 +7263,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1846</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1846</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1846</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1846</v>
+      </c>
+      <c r="F185" t="n">
+        <v>200.8528</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1800.85</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-27 BackTest HC.xlsx
+++ b/BackTest/2019-10-27 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M185"/>
+  <dimension ref="A1:N195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>2358.9565</v>
       </c>
       <c r="G2" t="n">
+        <v>1620.733333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>1622</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>87.083</v>
       </c>
       <c r="G3" t="n">
+        <v>1620.2</v>
+      </c>
+      <c r="H3" t="n">
         <v>1621.6</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>65.4894</v>
       </c>
       <c r="G4" t="n">
+        <v>1619.933333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>1621.383333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>2499.41</v>
       </c>
       <c r="G5" t="n">
+        <v>1619.133333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>1620.883333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>723.925</v>
       </c>
       <c r="G6" t="n">
+        <v>1617.133333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>1620.35</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>2461.5782</v>
       </c>
       <c r="G7" t="n">
+        <v>1615.8</v>
+      </c>
+      <c r="H7" t="n">
         <v>1619.816666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>127.2104</v>
       </c>
       <c r="G8" t="n">
+        <v>1614</v>
+      </c>
+      <c r="H8" t="n">
         <v>1619.083333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1451.3131</v>
       </c>
       <c r="G9" t="n">
+        <v>1612.4</v>
+      </c>
+      <c r="H9" t="n">
         <v>1618.3</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>380</v>
       </c>
       <c r="G10" t="n">
+        <v>1610.733333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>1617.55</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>0.1</v>
       </c>
       <c r="G11" t="n">
+        <v>1609.066666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>1616.883333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>155.7827</v>
       </c>
       <c r="G12" t="n">
+        <v>1607.333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>1616.316666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1100</v>
       </c>
       <c r="G13" t="n">
+        <v>1604.866666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>1615.533333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>0.2</v>
       </c>
       <c r="G14" t="n">
+        <v>1602.8</v>
+      </c>
+      <c r="H14" t="n">
         <v>1614.666666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>109.2666</v>
       </c>
       <c r="G15" t="n">
+        <v>1602.6</v>
+      </c>
+      <c r="H15" t="n">
         <v>1613.916666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>0.1</v>
       </c>
       <c r="G16" t="n">
+        <v>1601.2</v>
+      </c>
+      <c r="H16" t="n">
         <v>1612.866666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>0.2</v>
       </c>
       <c r="G17" t="n">
+        <v>1599.866666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>1612</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>26.893</v>
       </c>
       <c r="G18" t="n">
+        <v>1599.066666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>1611.383333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>84.4819</v>
       </c>
       <c r="G19" t="n">
+        <v>1598.533333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>1610.85</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1372.4938</v>
       </c>
       <c r="G20" t="n">
+        <v>1596.933333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>1610.05</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>203.8072</v>
       </c>
       <c r="G21" t="n">
+        <v>1596.933333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>1609.716666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>0.1</v>
       </c>
       <c r="G22" t="n">
+        <v>1596.466666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>1609.35</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>55.7405</v>
       </c>
       <c r="G23" t="n">
+        <v>1596.733333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>1609.116666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>647.6310999999999</v>
       </c>
       <c r="G24" t="n">
+        <v>1597</v>
+      </c>
+      <c r="H24" t="n">
         <v>1608.7</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,24 +1327,21 @@
         <v>1.2</v>
       </c>
       <c r="G25" t="n">
+        <v>1596.733333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>1608.433333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1605</v>
+        <v>0</v>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1294,22 +1365,21 @@
         <v>0.1</v>
       </c>
       <c r="G26" t="n">
+        <v>1596.133333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>1608.183333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1333,22 +1403,21 @@
         <v>303.14</v>
       </c>
       <c r="G27" t="n">
+        <v>1596.533333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>1608.183333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1372,22 +1441,21 @@
         <v>342.91</v>
       </c>
       <c r="G28" t="n">
+        <v>1597.8</v>
+      </c>
+      <c r="H28" t="n">
         <v>1608.1</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1411,22 +1479,21 @@
         <v>0.1</v>
       </c>
       <c r="G29" t="n">
+        <v>1598.933333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>1607.933333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1450,22 +1517,21 @@
         <v>203.8749</v>
       </c>
       <c r="G30" t="n">
+        <v>1599.266666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>1607.883333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1489,22 +1555,21 @@
         <v>0.1</v>
       </c>
       <c r="G31" t="n">
+        <v>1599.266666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>1607.6</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,22 +1593,21 @@
         <v>338.7199</v>
       </c>
       <c r="G32" t="n">
+        <v>1600.666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>1607.55</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1567,22 +1631,21 @@
         <v>692.1667</v>
       </c>
       <c r="G33" t="n">
+        <v>1601.066666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>1607.5</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1606,22 +1669,21 @@
         <v>25.12</v>
       </c>
       <c r="G34" t="n">
+        <v>1601.133333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>1607.45</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1645,22 +1707,21 @@
         <v>59.58</v>
       </c>
       <c r="G35" t="n">
+        <v>1602.266666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>1607.4</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1684,24 +1745,21 @@
         <v>90.73999999999999</v>
       </c>
       <c r="G36" t="n">
+        <v>1601.866666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>1607.266666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1606</v>
+        <v>0</v>
       </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1725,24 +1783,21 @@
         <v>0.1</v>
       </c>
       <c r="G37" t="n">
+        <v>1601.8</v>
+      </c>
+      <c r="H37" t="n">
         <v>1607.083333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1766,22 +1821,21 @@
         <v>615.8092</v>
       </c>
       <c r="G38" t="n">
+        <v>1601.866666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>1607.033333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1805,22 +1859,21 @@
         <v>0.1</v>
       </c>
       <c r="G39" t="n">
+        <v>1601.4</v>
+      </c>
+      <c r="H39" t="n">
         <v>1606.85</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,22 +1897,21 @@
         <v>0.118</v>
       </c>
       <c r="G40" t="n">
+        <v>1602</v>
+      </c>
+      <c r="H40" t="n">
         <v>1606.8</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,22 +1935,25 @@
         <v>0.1</v>
       </c>
       <c r="G41" t="n">
+        <v>1602.266666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>1606.566666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1606</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1922,24 +1977,29 @@
         <v>1868.095</v>
       </c>
       <c r="G42" t="n">
+        <v>1602</v>
+      </c>
+      <c r="H42" t="n">
         <v>1606.45</v>
       </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>1595</v>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1963,22 +2023,29 @@
         <v>0.1</v>
       </c>
       <c r="G43" t="n">
+        <v>1601.4</v>
+      </c>
+      <c r="H43" t="n">
         <v>1606.216666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1602</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2002,22 +2069,29 @@
         <v>3776.3062</v>
       </c>
       <c r="G44" t="n">
+        <v>1602.6</v>
+      </c>
+      <c r="H44" t="n">
         <v>1606.35</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1595</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2041,22 +2115,27 @@
         <v>45.57</v>
       </c>
       <c r="G45" t="n">
+        <v>1603.333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>1606.483333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,22 +2159,27 @@
         <v>569.9165</v>
       </c>
       <c r="G46" t="n">
+        <v>1605.6</v>
+      </c>
+      <c r="H46" t="n">
         <v>1606.766666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2119,22 +2203,27 @@
         <v>48</v>
       </c>
       <c r="G47" t="n">
+        <v>1607.466666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>1607.183333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2158,22 +2247,27 @@
         <v>15.4785</v>
       </c>
       <c r="G48" t="n">
+        <v>1608.333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>1607.166666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2197,22 +2291,27 @@
         <v>151.1</v>
       </c>
       <c r="G49" t="n">
+        <v>1609.333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>1607.233333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2236,22 +2335,27 @@
         <v>0.1</v>
       </c>
       <c r="G50" t="n">
+        <v>1609.466666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>1606.95</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2275,22 +2379,27 @@
         <v>0.1</v>
       </c>
       <c r="G51" t="n">
+        <v>1609.666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>1606.4</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2314,22 +2423,27 @@
         <v>1833.1878</v>
       </c>
       <c r="G52" t="n">
+        <v>1609.6</v>
+      </c>
+      <c r="H52" t="n">
         <v>1605.916666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2353,22 +2467,27 @@
         <v>134.1</v>
       </c>
       <c r="G53" t="n">
+        <v>1609.533333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>1605.533333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2392,22 +2511,27 @@
         <v>16.2823</v>
       </c>
       <c r="G54" t="n">
+        <v>1609.533333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>1605.083333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2431,22 +2555,27 @@
         <v>190.4</v>
       </c>
       <c r="G55" t="n">
+        <v>1609.4</v>
+      </c>
+      <c r="H55" t="n">
         <v>1604.716666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2470,22 +2599,27 @@
         <v>27.646</v>
       </c>
       <c r="G56" t="n">
+        <v>1610.333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>1604.45</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2509,22 +2643,27 @@
         <v>16.1393</v>
       </c>
       <c r="G57" t="n">
+        <v>1610.133333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>1604</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,22 +2687,27 @@
         <v>21.8611</v>
       </c>
       <c r="G58" t="n">
+        <v>1611.133333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>1603.8</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2587,22 +2731,27 @@
         <v>1271.7748</v>
       </c>
       <c r="G59" t="n">
+        <v>1611.2</v>
+      </c>
+      <c r="H59" t="n">
         <v>1603.883333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2626,22 +2775,27 @@
         <v>587</v>
       </c>
       <c r="G60" t="n">
+        <v>1611.4</v>
+      </c>
+      <c r="H60" t="n">
         <v>1604.15</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2665,22 +2819,27 @@
         <v>27.1292</v>
       </c>
       <c r="G61" t="n">
+        <v>1611.066666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>1604.283333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,22 +2863,27 @@
         <v>1039.54581337</v>
       </c>
       <c r="G62" t="n">
+        <v>1610.8</v>
+      </c>
+      <c r="H62" t="n">
         <v>1604.7</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,22 +2907,27 @@
         <v>0.5</v>
       </c>
       <c r="G63" t="n">
+        <v>1610.6</v>
+      </c>
+      <c r="H63" t="n">
         <v>1604.766666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2782,22 +2951,27 @@
         <v>0.5</v>
       </c>
       <c r="G64" t="n">
+        <v>1610.266666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>1604.816666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2821,22 +2995,27 @@
         <v>216.9794</v>
       </c>
       <c r="G65" t="n">
+        <v>1611.2</v>
+      </c>
+      <c r="H65" t="n">
         <v>1604.966666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2860,22 +3039,27 @@
         <v>94.40000000000001</v>
       </c>
       <c r="G66" t="n">
+        <v>1613</v>
+      </c>
+      <c r="H66" t="n">
         <v>1605.366666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2899,22 +3083,27 @@
         <v>47.2</v>
       </c>
       <c r="G67" t="n">
+        <v>1615.2</v>
+      </c>
+      <c r="H67" t="n">
         <v>1605.766666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2938,22 +3127,27 @@
         <v>23.9041</v>
       </c>
       <c r="G68" t="n">
+        <v>1616.533333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>1606.166666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2977,22 +3171,27 @@
         <v>15.7918</v>
       </c>
       <c r="G69" t="n">
+        <v>1618.2</v>
+      </c>
+      <c r="H69" t="n">
         <v>1606.533333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3016,22 +3215,27 @@
         <v>26.9548</v>
       </c>
       <c r="G70" t="n">
+        <v>1619.666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>1606.95</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3055,22 +3259,27 @@
         <v>264.7996</v>
       </c>
       <c r="G71" t="n">
+        <v>1620.6</v>
+      </c>
+      <c r="H71" t="n">
         <v>1607.333333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3094,22 +3303,27 @@
         <v>0.5</v>
       </c>
       <c r="G72" t="n">
+        <v>1621.4</v>
+      </c>
+      <c r="H72" t="n">
         <v>1607.516666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3133,22 +3347,27 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
+        <v>1621.2</v>
+      </c>
+      <c r="H73" t="n">
         <v>1607.883333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3172,22 +3391,27 @@
         <v>35.6539</v>
       </c>
       <c r="G74" t="n">
+        <v>1620.933333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>1608.416666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3211,22 +3435,27 @@
         <v>110.3199</v>
       </c>
       <c r="G75" t="n">
+        <v>1620.666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>1608.666666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,22 +3479,27 @@
         <v>0.1</v>
       </c>
       <c r="G76" t="n">
+        <v>1620</v>
+      </c>
+      <c r="H76" t="n">
         <v>1608.983333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3289,22 +3523,27 @@
         <v>16.2263</v>
       </c>
       <c r="G77" t="n">
+        <v>1619</v>
+      </c>
+      <c r="H77" t="n">
         <v>1609.483333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3328,22 +3567,29 @@
         <v>11.47</v>
       </c>
       <c r="G78" t="n">
+        <v>1619.4</v>
+      </c>
+      <c r="H78" t="n">
         <v>1609.85</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1615</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3367,22 +3613,27 @@
         <v>20.35</v>
       </c>
       <c r="G79" t="n">
+        <v>1619.733333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>1610.116666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,22 +3657,29 @@
         <v>57.61</v>
       </c>
       <c r="G80" t="n">
+        <v>1620.933333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>1610.966666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1621</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3445,22 +3703,27 @@
         <v>0.6989</v>
       </c>
       <c r="G81" t="n">
+        <v>1621.266666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>1611.45</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3484,22 +3747,27 @@
         <v>33.6973</v>
       </c>
       <c r="G82" t="n">
+        <v>1621.6</v>
+      </c>
+      <c r="H82" t="n">
         <v>1612.05</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3523,22 +3791,27 @@
         <v>0.1</v>
       </c>
       <c r="G83" t="n">
+        <v>1622.6</v>
+      </c>
+      <c r="H83" t="n">
         <v>1612.633333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,22 +3835,27 @@
         <v>392.5974</v>
       </c>
       <c r="G84" t="n">
+        <v>1623.733333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>1613.216666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3601,22 +3879,27 @@
         <v>0.1</v>
       </c>
       <c r="G85" t="n">
+        <v>1624.4</v>
+      </c>
+      <c r="H85" t="n">
         <v>1613.866666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,22 +3923,27 @@
         <v>0.118</v>
       </c>
       <c r="G86" t="n">
+        <v>1626</v>
+      </c>
+      <c r="H86" t="n">
         <v>1614.8</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3679,22 +3967,27 @@
         <v>909.6422</v>
       </c>
       <c r="G87" t="n">
+        <v>1628.533333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>1615.516666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3718,22 +4011,27 @@
         <v>15.3465</v>
       </c>
       <c r="G88" t="n">
+        <v>1631.333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>1616.266666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3757,22 +4055,27 @@
         <v>17.4151</v>
       </c>
       <c r="G89" t="n">
+        <v>1633.333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>1617.016666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3796,22 +4099,27 @@
         <v>27.77</v>
       </c>
       <c r="G90" t="n">
+        <v>1635.2</v>
+      </c>
+      <c r="H90" t="n">
         <v>1617.65</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3835,22 +4143,27 @@
         <v>6.2071</v>
       </c>
       <c r="G91" t="n">
+        <v>1637.8</v>
+      </c>
+      <c r="H91" t="n">
         <v>1618.616666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3874,22 +4187,27 @@
         <v>0.11</v>
       </c>
       <c r="G92" t="n">
+        <v>1640.6</v>
+      </c>
+      <c r="H92" t="n">
         <v>1619.466666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,22 +4231,27 @@
         <v>18</v>
       </c>
       <c r="G93" t="n">
+        <v>1643</v>
+      </c>
+      <c r="H93" t="n">
         <v>1620.333333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3952,22 +4275,27 @@
         <v>31.9999</v>
       </c>
       <c r="G94" t="n">
+        <v>1645.466666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>1621.2</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3991,22 +4319,27 @@
         <v>0.1</v>
       </c>
       <c r="G95" t="n">
+        <v>1647.333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>1622.233333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4030,22 +4363,27 @@
         <v>15.3484</v>
       </c>
       <c r="G96" t="n">
+        <v>1648.933333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>1623.216666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,22 +4407,27 @@
         <v>24.422</v>
       </c>
       <c r="G97" t="n">
+        <v>1652.333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>1624.683333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,22 +4451,27 @@
         <v>1363.8355</v>
       </c>
       <c r="G98" t="n">
+        <v>1656.266666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>1626.233333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4147,22 +4495,27 @@
         <v>1500.699</v>
       </c>
       <c r="G99" t="n">
+        <v>1658.866666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>1627.583333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4186,22 +4539,27 @@
         <v>0.1</v>
       </c>
       <c r="G100" t="n">
+        <v>1663</v>
+      </c>
+      <c r="H100" t="n">
         <v>1629.116666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4225,22 +4583,27 @@
         <v>0.1</v>
       </c>
       <c r="G101" t="n">
+        <v>1664.933333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>1630.466666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4264,22 +4627,27 @@
         <v>0.1</v>
       </c>
       <c r="G102" t="n">
+        <v>1668</v>
+      </c>
+      <c r="H102" t="n">
         <v>1632.016666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4303,22 +4671,27 @@
         <v>0.4</v>
       </c>
       <c r="G103" t="n">
+        <v>1669.533333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>1633.3</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4342,22 +4715,27 @@
         <v>0.3</v>
       </c>
       <c r="G104" t="n">
+        <v>1671.266666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>1634.183333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4381,22 +4759,27 @@
         <v>0.298</v>
       </c>
       <c r="G105" t="n">
+        <v>1673.2</v>
+      </c>
+      <c r="H105" t="n">
         <v>1635.116666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4420,22 +4803,27 @@
         <v>0.5</v>
       </c>
       <c r="G106" t="n">
+        <v>1675.4</v>
+      </c>
+      <c r="H106" t="n">
         <v>1636.066666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4459,22 +4847,27 @@
         <v>0.9</v>
       </c>
       <c r="G107" t="n">
+        <v>1676.333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>1636.683333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4498,22 +4891,27 @@
         <v>1.9</v>
       </c>
       <c r="G108" t="n">
+        <v>1677.266666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>1637.566666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4537,22 +4935,27 @@
         <v>0.2</v>
       </c>
       <c r="G109" t="n">
+        <v>1678.066666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>1638.383333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4576,22 +4979,27 @@
         <v>0.1</v>
       </c>
       <c r="G110" t="n">
+        <v>1678.933333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>1639.6</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4615,22 +5023,27 @@
         <v>0.11</v>
       </c>
       <c r="G111" t="n">
+        <v>1680.466666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>1640.916666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4654,22 +5067,27 @@
         <v>15.2329</v>
       </c>
       <c r="G112" t="n">
+        <v>1679.466666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>1642.15</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4693,22 +5111,27 @@
         <v>55.5237</v>
       </c>
       <c r="G113" t="n">
+        <v>1678.333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>1643.433333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,22 +5155,27 @@
         <v>160.06</v>
       </c>
       <c r="G114" t="n">
+        <v>1678.6</v>
+      </c>
+      <c r="H114" t="n">
         <v>1644.85</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4771,22 +5199,27 @@
         <v>397.9699</v>
       </c>
       <c r="G115" t="n">
+        <v>1677.6</v>
+      </c>
+      <c r="H115" t="n">
         <v>1646.166666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4810,22 +5243,27 @@
         <v>56.8512</v>
       </c>
       <c r="G116" t="n">
+        <v>1678.066666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>1647.4</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4849,22 +5287,27 @@
         <v>1582.3453</v>
       </c>
       <c r="G117" t="n">
+        <v>1677.333333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>1648.816666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4888,22 +5331,27 @@
         <v>674.4822</v>
       </c>
       <c r="G118" t="n">
+        <v>1678.133333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>1650.05</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4927,22 +5375,27 @@
         <v>221.7808</v>
       </c>
       <c r="G119" t="n">
+        <v>1679.066666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>1651.15</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4966,22 +5419,27 @@
         <v>0.1</v>
       </c>
       <c r="G120" t="n">
+        <v>1680.466666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>1652.383333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5005,22 +5463,27 @@
         <v>173.4199</v>
       </c>
       <c r="G121" t="n">
+        <v>1681.266666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>1653.616666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5044,22 +5507,27 @@
         <v>1715.89</v>
       </c>
       <c r="G122" t="n">
+        <v>1684.466666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>1655.1</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5083,22 +5551,27 @@
         <v>10</v>
       </c>
       <c r="G123" t="n">
+        <v>1687.6</v>
+      </c>
+      <c r="H123" t="n">
         <v>1656.816666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5122,22 +5595,27 @@
         <v>453.2557</v>
       </c>
       <c r="G124" t="n">
+        <v>1690.933333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>1658.55</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5161,22 +5639,27 @@
         <v>305</v>
       </c>
       <c r="G125" t="n">
+        <v>1694.333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>1660.383333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5200,22 +5683,27 @@
         <v>17.657</v>
       </c>
       <c r="G126" t="n">
+        <v>1697.733333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>1662.1</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5239,22 +5727,27 @@
         <v>17.251</v>
       </c>
       <c r="G127" t="n">
+        <v>1702.266666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>1663.916666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,22 +5771,27 @@
         <v>474.8211</v>
       </c>
       <c r="G128" t="n">
+        <v>1706.066666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>1665.816666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5317,22 +5815,27 @@
         <v>208.3416</v>
       </c>
       <c r="G129" t="n">
+        <v>1709.8</v>
+      </c>
+      <c r="H129" t="n">
         <v>1667.75</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5356,22 +5859,29 @@
         <v>265.8471</v>
       </c>
       <c r="G130" t="n">
+        <v>1715.8</v>
+      </c>
+      <c r="H130" t="n">
         <v>1670.2</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5393,18 +5903,27 @@
         <v>2769.215</v>
       </c>
       <c r="G131" t="n">
+        <v>1719.6</v>
+      </c>
+      <c r="H131" t="n">
         <v>1672.15</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5428,18 +5947,27 @@
         <v>90.48050000000001</v>
       </c>
       <c r="G132" t="n">
+        <v>1725.133333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>1674.75</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5463,18 +5991,27 @@
         <v>398.8767</v>
       </c>
       <c r="G133" t="n">
+        <v>1731.133333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>1677.533333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5498,18 +6035,27 @@
         <v>3780.2251</v>
       </c>
       <c r="G134" t="n">
+        <v>1737.4</v>
+      </c>
+      <c r="H134" t="n">
         <v>1680.266666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5533,18 +6079,27 @@
         <v>436.56</v>
       </c>
       <c r="G135" t="n">
+        <v>1744.333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>1683.3</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5568,18 +6123,27 @@
         <v>36.8854</v>
       </c>
       <c r="G136" t="n">
+        <v>1748.8</v>
+      </c>
+      <c r="H136" t="n">
         <v>1685.816666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5603,18 +6167,27 @@
         <v>307.1236</v>
       </c>
       <c r="G137" t="n">
+        <v>1753</v>
+      </c>
+      <c r="H137" t="n">
         <v>1688.6</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5638,18 +6211,27 @@
         <v>22.3488</v>
       </c>
       <c r="G138" t="n">
+        <v>1757.133333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>1691.25</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5673,18 +6255,27 @@
         <v>477.196</v>
       </c>
       <c r="G139" t="n">
+        <v>1761.2</v>
+      </c>
+      <c r="H139" t="n">
         <v>1693.916666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5708,18 +6299,27 @@
         <v>0.118</v>
       </c>
       <c r="G140" t="n">
+        <v>1765</v>
+      </c>
+      <c r="H140" t="n">
         <v>1696.4</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5743,18 +6343,27 @@
         <v>15.7712</v>
       </c>
       <c r="G141" t="n">
+        <v>1768.666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>1698.95</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5778,18 +6387,27 @@
         <v>355.3673</v>
       </c>
       <c r="G142" t="n">
+        <v>1770.866666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>1701.233333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5813,18 +6431,27 @@
         <v>242.6304</v>
       </c>
       <c r="G143" t="n">
+        <v>1773.066666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>1703.433333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5848,18 +6475,27 @@
         <v>386.5504</v>
       </c>
       <c r="G144" t="n">
+        <v>1775.533333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>1705.7</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5883,18 +6519,27 @@
         <v>33.8166</v>
       </c>
       <c r="G145" t="n">
+        <v>1776</v>
+      </c>
+      <c r="H145" t="n">
         <v>1708.1</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5918,18 +6563,27 @@
         <v>49.8784</v>
       </c>
       <c r="G146" t="n">
+        <v>1778.666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>1710.316666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5953,18 +6607,27 @@
         <v>34.3939</v>
       </c>
       <c r="G147" t="n">
+        <v>1779.133333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>1712.4</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5988,18 +6651,27 @@
         <v>566.5735</v>
       </c>
       <c r="G148" t="n">
+        <v>1779.8</v>
+      </c>
+      <c r="H148" t="n">
         <v>1714.65</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6023,18 +6695,27 @@
         <v>22.4</v>
       </c>
       <c r="G149" t="n">
+        <v>1780.4</v>
+      </c>
+      <c r="H149" t="n">
         <v>1717.033333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,18 +6739,27 @@
         <v>452.2051</v>
       </c>
       <c r="G150" t="n">
+        <v>1779.6</v>
+      </c>
+      <c r="H150" t="n">
         <v>1719.4</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6093,18 +6783,27 @@
         <v>44.6655</v>
       </c>
       <c r="G151" t="n">
+        <v>1781.333333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>1721.7</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6128,18 +6827,27 @@
         <v>323.7972</v>
       </c>
       <c r="G152" t="n">
+        <v>1782.533333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>1724.083333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6163,18 +6871,27 @@
         <v>1671.3088</v>
       </c>
       <c r="G153" t="n">
+        <v>1782.933333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>1726.233333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6198,18 +6915,27 @@
         <v>261.9938</v>
       </c>
       <c r="G154" t="n">
+        <v>1783.466666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>1728.416666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6233,18 +6959,27 @@
         <v>0.1</v>
       </c>
       <c r="G155" t="n">
+        <v>1784.333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>1730.65</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6268,18 +7003,27 @@
         <v>0.1</v>
       </c>
       <c r="G156" t="n">
+        <v>1784.466666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>1732.833333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6303,18 +7047,27 @@
         <v>0.2</v>
       </c>
       <c r="G157" t="n">
+        <v>1785.666666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>1734.566666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6338,18 +7091,27 @@
         <v>629.4391000000001</v>
       </c>
       <c r="G158" t="n">
+        <v>1786.8</v>
+      </c>
+      <c r="H158" t="n">
         <v>1736.066666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6373,18 +7135,27 @@
         <v>0.0001</v>
       </c>
       <c r="G159" t="n">
+        <v>1787.733333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>1737.916666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6408,18 +7179,27 @@
         <v>2034.2415</v>
       </c>
       <c r="G160" t="n">
+        <v>1788.533333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>1739.483333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6443,18 +7223,27 @@
         <v>14.639</v>
       </c>
       <c r="G161" t="n">
+        <v>1789.866666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>1741.55</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6478,18 +7267,27 @@
         <v>116.3291761</v>
       </c>
       <c r="G162" t="n">
+        <v>1791</v>
+      </c>
+      <c r="H162" t="n">
         <v>1743.15</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6513,18 +7311,27 @@
         <v>29.1</v>
       </c>
       <c r="G163" t="n">
+        <v>1792.6</v>
+      </c>
+      <c r="H163" t="n">
         <v>1745.416666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6548,18 +7355,27 @@
         <v>128.0189</v>
       </c>
       <c r="G164" t="n">
+        <v>1792.733333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>1747.4</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6583,18 +7399,27 @@
         <v>1026.7054</v>
       </c>
       <c r="G165" t="n">
+        <v>1794.333333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>1749.683333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6618,18 +7443,27 @@
         <v>459.7014</v>
       </c>
       <c r="G166" t="n">
+        <v>1795.933333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>1751.833333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6653,18 +7487,27 @@
         <v>49.2218</v>
       </c>
       <c r="G167" t="n">
+        <v>1796.733333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>1754.183333333333</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6688,18 +7531,27 @@
         <v>1970.11196132</v>
       </c>
       <c r="G168" t="n">
+        <v>1799.466666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>1756.783333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6723,18 +7575,27 @@
         <v>564.69857768</v>
       </c>
       <c r="G169" t="n">
+        <v>1802.066666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>1759.416666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6758,18 +7619,27 @@
         <v>155.2598</v>
       </c>
       <c r="G170" t="n">
+        <v>1803.8</v>
+      </c>
+      <c r="H170" t="n">
         <v>1761.866666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6793,18 +7663,27 @@
         <v>132.418</v>
       </c>
       <c r="G171" t="n">
+        <v>1806.133333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>1764.25</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6828,18 +7707,27 @@
         <v>1008.7091</v>
       </c>
       <c r="G172" t="n">
+        <v>1808.666666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>1766.866666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6863,18 +7751,27 @@
         <v>1602.61885185</v>
       </c>
       <c r="G173" t="n">
+        <v>1811.266666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>1769.3</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6898,18 +7795,27 @@
         <v>480.2999</v>
       </c>
       <c r="G174" t="n">
+        <v>1813.733333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>1771.7</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6933,18 +7839,27 @@
         <v>1976</v>
       </c>
       <c r="G175" t="n">
+        <v>1817.6</v>
+      </c>
+      <c r="H175" t="n">
         <v>1774.483333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6968,18 +7883,27 @@
         <v>550.0151091499999</v>
       </c>
       <c r="G176" t="n">
+        <v>1822</v>
+      </c>
+      <c r="H176" t="n">
         <v>1777.533333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7003,18 +7927,27 @@
         <v>177.1159</v>
       </c>
       <c r="G177" t="n">
+        <v>1827</v>
+      </c>
+      <c r="H177" t="n">
         <v>1780.566666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7038,18 +7971,27 @@
         <v>1626.2253</v>
       </c>
       <c r="G178" t="n">
+        <v>1831.066666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>1783.65</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7073,18 +8015,27 @@
         <v>1348.973</v>
       </c>
       <c r="G179" t="n">
+        <v>1836.4</v>
+      </c>
+      <c r="H179" t="n">
         <v>1786.733333333333</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7108,19 +8059,28 @@
         <v>2274.05702215</v>
       </c>
       <c r="G180" t="n">
+        <v>1840.333333333333</v>
+      </c>
+      <c r="H180" t="n">
         <v>1789.65</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
+      <c r="L180" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>1.158760896637609</v>
       </c>
     </row>
     <row r="181">
@@ -7143,18 +8103,21 @@
         <v>1988.40141585</v>
       </c>
       <c r="G181" t="n">
+        <v>1844.133333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>1792.55</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7178,18 +8141,21 @@
         <v>192.3552</v>
       </c>
       <c r="G182" t="n">
+        <v>1846.466666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>1794.683333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7213,18 +8179,21 @@
         <v>132.0869</v>
       </c>
       <c r="G183" t="n">
+        <v>1847.8</v>
+      </c>
+      <c r="H183" t="n">
         <v>1796.833333333333</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7248,18 +8217,21 @@
         <v>56.62972744</v>
       </c>
       <c r="G184" t="n">
+        <v>1849.066666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>1798.95</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7283,18 +8255,401 @@
         <v>200.8528</v>
       </c>
       <c r="G185" t="n">
+        <v>1850.266666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>1800.85</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1830</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1830</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1830</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1830</v>
+      </c>
+      <c r="F186" t="n">
+        <v>19.3144</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1850.6</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1802.466666666667</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1829</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1827</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1829</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1827</v>
+      </c>
+      <c r="F187" t="n">
+        <v>141.0957</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1850.533333333333</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1803.933333333333</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1827</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1789</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1827</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1789</v>
+      </c>
+      <c r="F188" t="n">
+        <v>415.503</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1847.933333333333</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1804.766666666667</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1790</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1790</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1790</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1790</v>
+      </c>
+      <c r="F189" t="n">
+        <v>260.3413</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1845.466666666667</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1805.616666666667</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1809</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1809</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1809</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1809</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1842.733333333333</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1806.216666666667</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1803</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1803</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1803</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1803</v>
+      </c>
+      <c r="F191" t="n">
+        <v>21.1713</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1838.533333333333</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1807.266666666667</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1803</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1804</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1804</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1803</v>
+      </c>
+      <c r="F192" t="n">
+        <v>531.5297</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1834.4</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1807.883333333333</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1804</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1804</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1804</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1804</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.1732</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1830.066666666667</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1808.383333333333</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1828</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1801</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1861</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1801</v>
+      </c>
+      <c r="F194" t="n">
+        <v>216.6892</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1825.533333333333</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1808.766666666667</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1860</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1860</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1860</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1860</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1824.933333333333</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1809.8</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest HC.xlsx
+++ b/BackTest/2019-10-27 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N182"/>
+  <dimension ref="A1:N253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1600</v>
+        <v>1626</v>
       </c>
       <c r="C2" t="n">
-        <v>1601</v>
+        <v>1626</v>
       </c>
       <c r="D2" t="n">
-        <v>1601</v>
+        <v>1626</v>
       </c>
       <c r="E2" t="n">
-        <v>1600</v>
+        <v>1626</v>
       </c>
       <c r="F2" t="n">
-        <v>109.2666</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>1589.333333333333</v>
+        <v>-2487.861900000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1592</v>
+        <v>1643</v>
       </c>
       <c r="C3" t="n">
-        <v>1592</v>
+        <v>1643</v>
       </c>
       <c r="D3" t="n">
-        <v>1592</v>
+        <v>1643</v>
       </c>
       <c r="E3" t="n">
-        <v>1592</v>
+        <v>1643</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>115.3299</v>
       </c>
       <c r="G3" t="n">
-        <v>1591.666666666667</v>
+        <v>-2372.532000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1585</v>
+        <v>1638</v>
       </c>
       <c r="C4" t="n">
-        <v>1585</v>
+        <v>1638</v>
       </c>
       <c r="D4" t="n">
-        <v>1585</v>
+        <v>1638</v>
       </c>
       <c r="E4" t="n">
-        <v>1585</v>
+        <v>1638</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>1592.666666666667</v>
+        <v>-2372.632000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1600</v>
+        <v>1641</v>
       </c>
       <c r="C5" t="n">
-        <v>1600</v>
+        <v>1638</v>
       </c>
       <c r="D5" t="n">
-        <v>1600</v>
+        <v>1641</v>
       </c>
       <c r="E5" t="n">
-        <v>1600</v>
+        <v>1638</v>
       </c>
       <c r="F5" t="n">
-        <v>26.893</v>
+        <v>856.1643</v>
       </c>
       <c r="G5" t="n">
-        <v>1592.333333333333</v>
+        <v>-2372.632000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1600</v>
+        <v>1645</v>
       </c>
       <c r="C6" t="n">
-        <v>1605</v>
+        <v>1645</v>
       </c>
       <c r="D6" t="n">
-        <v>1605</v>
+        <v>1645</v>
       </c>
       <c r="E6" t="n">
-        <v>1600</v>
+        <v>1645</v>
       </c>
       <c r="F6" t="n">
-        <v>84.4819</v>
+        <v>48.4799</v>
       </c>
       <c r="G6" t="n">
-        <v>1596.666666666667</v>
+        <v>-2324.152100000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,38 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1595</v>
+        <v>1647</v>
       </c>
       <c r="C7" t="n">
-        <v>1589</v>
+        <v>1648</v>
       </c>
       <c r="D7" t="n">
-        <v>1595</v>
+        <v>1648</v>
       </c>
       <c r="E7" t="n">
-        <v>1589</v>
+        <v>1647</v>
       </c>
       <c r="F7" t="n">
-        <v>1372.4938</v>
+        <v>197.4866</v>
       </c>
       <c r="G7" t="n">
-        <v>1598</v>
+        <v>-2126.665500000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1605</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -660,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1603</v>
+        <v>1645</v>
       </c>
       <c r="C8" t="n">
-        <v>1606</v>
+        <v>1646</v>
       </c>
       <c r="D8" t="n">
-        <v>1606</v>
+        <v>1646</v>
       </c>
       <c r="E8" t="n">
-        <v>1603</v>
+        <v>1645</v>
       </c>
       <c r="F8" t="n">
-        <v>203.8072</v>
+        <v>279.9999</v>
       </c>
       <c r="G8" t="n">
-        <v>1600</v>
+        <v>-2406.665400000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -685,11 +679,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -700,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1599</v>
+        <v>1640</v>
       </c>
       <c r="C9" t="n">
-        <v>1599</v>
+        <v>1640</v>
       </c>
       <c r="D9" t="n">
-        <v>1599</v>
+        <v>1640</v>
       </c>
       <c r="E9" t="n">
-        <v>1599</v>
+        <v>1640</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1</v>
+        <v>158.4</v>
       </c>
       <c r="G9" t="n">
-        <v>1598</v>
+        <v>-2565.065400000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,11 +715,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -740,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1605</v>
+        <v>1634</v>
       </c>
       <c r="C10" t="n">
-        <v>1605</v>
+        <v>1634</v>
       </c>
       <c r="D10" t="n">
-        <v>1605</v>
+        <v>1634</v>
       </c>
       <c r="E10" t="n">
-        <v>1605</v>
+        <v>1634</v>
       </c>
       <c r="F10" t="n">
-        <v>55.7405</v>
+        <v>0.1</v>
       </c>
       <c r="G10" t="n">
-        <v>1603.333333333333</v>
+        <v>-2565.165400000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -765,11 +751,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -780,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1606</v>
+        <v>1632</v>
       </c>
       <c r="C11" t="n">
-        <v>1605</v>
+        <v>1632</v>
       </c>
       <c r="D11" t="n">
-        <v>1606</v>
+        <v>1632</v>
       </c>
       <c r="E11" t="n">
-        <v>1605</v>
+        <v>1632</v>
       </c>
       <c r="F11" t="n">
-        <v>647.6310999999999</v>
+        <v>0.2</v>
       </c>
       <c r="G11" t="n">
-        <v>1603</v>
+        <v>-2565.365400000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -805,11 +787,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -820,38 +798,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1598</v>
+        <v>1634</v>
       </c>
       <c r="C12" t="n">
-        <v>1597</v>
+        <v>1634</v>
       </c>
       <c r="D12" t="n">
-        <v>1598</v>
+        <v>1634</v>
       </c>
       <c r="E12" t="n">
-        <v>1597</v>
+        <v>1634</v>
       </c>
       <c r="F12" t="n">
-        <v>1.2</v>
+        <v>185.5929</v>
       </c>
       <c r="G12" t="n">
-        <v>1602.333333333333</v>
+        <v>-2379.7725</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1605</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -862,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1591</v>
+        <v>1646</v>
       </c>
       <c r="C13" t="n">
-        <v>1591</v>
+        <v>1646</v>
       </c>
       <c r="D13" t="n">
-        <v>1591</v>
+        <v>1646</v>
       </c>
       <c r="E13" t="n">
-        <v>1591</v>
+        <v>1646</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1</v>
+        <v>151.2829</v>
       </c>
       <c r="G13" t="n">
-        <v>1597.666666666667</v>
+        <v>-2228.4896</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -887,11 +859,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -902,38 +870,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1606</v>
+        <v>1655</v>
       </c>
       <c r="C14" t="n">
-        <v>1606</v>
+        <v>1655</v>
       </c>
       <c r="D14" t="n">
-        <v>1606</v>
+        <v>1655</v>
       </c>
       <c r="E14" t="n">
-        <v>1606</v>
+        <v>1655</v>
       </c>
       <c r="F14" t="n">
-        <v>303.14</v>
+        <v>0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>1598</v>
+        <v>-2228.3896</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1591</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -944,38 +906,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1604</v>
+        <v>1637</v>
       </c>
       <c r="C15" t="n">
-        <v>1604</v>
+        <v>1637</v>
       </c>
       <c r="D15" t="n">
-        <v>1604</v>
+        <v>1637</v>
       </c>
       <c r="E15" t="n">
-        <v>1604</v>
+        <v>1637</v>
       </c>
       <c r="F15" t="n">
-        <v>342.91</v>
+        <v>16.1794</v>
       </c>
       <c r="G15" t="n">
-        <v>1600.333333333333</v>
+        <v>-2244.569</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1606</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -986,38 +942,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1599</v>
+        <v>1637</v>
       </c>
       <c r="C16" t="n">
-        <v>1599</v>
+        <v>1637</v>
       </c>
       <c r="D16" t="n">
-        <v>1599</v>
+        <v>1637</v>
       </c>
       <c r="E16" t="n">
-        <v>1599</v>
+        <v>1637</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1</v>
+        <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>1603</v>
+        <v>-2244.569</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1604</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1028,38 +978,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1606</v>
+        <v>1637</v>
       </c>
       <c r="C17" t="n">
-        <v>1606</v>
+        <v>1637</v>
       </c>
       <c r="D17" t="n">
-        <v>1606</v>
+        <v>1637</v>
       </c>
       <c r="E17" t="n">
-        <v>1606</v>
+        <v>1637</v>
       </c>
       <c r="F17" t="n">
-        <v>203.8749</v>
+        <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>1603</v>
+        <v>-2244.569</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1599</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1070,38 +1014,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1592</v>
+        <v>1638</v>
       </c>
       <c r="C18" t="n">
-        <v>1592</v>
+        <v>1637</v>
       </c>
       <c r="D18" t="n">
-        <v>1592</v>
+        <v>1638</v>
       </c>
       <c r="E18" t="n">
-        <v>1592</v>
+        <v>1637</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1</v>
+        <v>70.2205</v>
       </c>
       <c r="G18" t="n">
-        <v>1599</v>
+        <v>-2244.569</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1606</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1112,38 +1050,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1606</v>
+        <v>1637</v>
       </c>
       <c r="C19" t="n">
-        <v>1606</v>
+        <v>1626</v>
       </c>
       <c r="D19" t="n">
-        <v>1606</v>
+        <v>1637</v>
       </c>
       <c r="E19" t="n">
-        <v>1606</v>
+        <v>1626</v>
       </c>
       <c r="F19" t="n">
-        <v>338.7199</v>
+        <v>3.0001</v>
       </c>
       <c r="G19" t="n">
-        <v>1601.333333333333</v>
+        <v>-2247.569100000001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1592</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1154,38 +1086,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1606</v>
+        <v>1627</v>
       </c>
       <c r="C20" t="n">
-        <v>1606</v>
+        <v>1621</v>
       </c>
       <c r="D20" t="n">
-        <v>1606</v>
+        <v>1633</v>
       </c>
       <c r="E20" t="n">
-        <v>1606</v>
+        <v>1621</v>
       </c>
       <c r="F20" t="n">
-        <v>692.1667</v>
+        <v>287.0565</v>
       </c>
       <c r="G20" t="n">
-        <v>1601.333333333333</v>
+        <v>-2534.625600000001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1606</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1196,38 +1122,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1606</v>
+        <v>1620</v>
       </c>
       <c r="C21" t="n">
-        <v>1606</v>
+        <v>1619</v>
       </c>
       <c r="D21" t="n">
-        <v>1606</v>
+        <v>1620</v>
       </c>
       <c r="E21" t="n">
-        <v>1606</v>
+        <v>1619</v>
       </c>
       <c r="F21" t="n">
-        <v>25.12</v>
+        <v>995</v>
       </c>
       <c r="G21" t="n">
-        <v>1606</v>
+        <v>-3529.625600000001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1606</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1238,38 +1158,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1606</v>
+        <v>1630</v>
       </c>
       <c r="C22" t="n">
-        <v>1606</v>
+        <v>1630</v>
       </c>
       <c r="D22" t="n">
-        <v>1606</v>
+        <v>1630</v>
       </c>
       <c r="E22" t="n">
-        <v>1606</v>
+        <v>1630</v>
       </c>
       <c r="F22" t="n">
-        <v>59.58</v>
+        <v>22.74</v>
       </c>
       <c r="G22" t="n">
-        <v>1606</v>
+        <v>-3506.885600000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1606</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1280,38 +1194,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1597</v>
+        <v>1613</v>
       </c>
       <c r="C23" t="n">
-        <v>1600</v>
+        <v>1613</v>
       </c>
       <c r="D23" t="n">
-        <v>1606</v>
+        <v>1613</v>
       </c>
       <c r="E23" t="n">
-        <v>1597</v>
+        <v>1613</v>
       </c>
       <c r="F23" t="n">
-        <v>90.73999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G23" t="n">
-        <v>1604</v>
+        <v>-3506.985600000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1606</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1322,38 +1230,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1598</v>
+        <v>1613</v>
       </c>
       <c r="C24" t="n">
-        <v>1598</v>
+        <v>1606</v>
       </c>
       <c r="D24" t="n">
-        <v>1598</v>
+        <v>1613</v>
       </c>
       <c r="E24" t="n">
-        <v>1598</v>
+        <v>1606</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>1601.333333333333</v>
+        <v>-3512.985600000001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1600</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1364,38 +1266,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="C25" t="n">
         <v>1606</v>
       </c>
       <c r="D25" t="n">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="E25" t="n">
         <v>1606</v>
       </c>
       <c r="F25" t="n">
-        <v>615.8092</v>
+        <v>1000</v>
       </c>
       <c r="G25" t="n">
-        <v>1601.333333333333</v>
+        <v>-3512.985600000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1598</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1406,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1598</v>
+        <v>1609</v>
       </c>
       <c r="C26" t="n">
-        <v>1598</v>
+        <v>1609</v>
       </c>
       <c r="D26" t="n">
-        <v>1598</v>
+        <v>1609</v>
       </c>
       <c r="E26" t="n">
-        <v>1598</v>
+        <v>1609</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1</v>
+        <v>18.0607</v>
       </c>
       <c r="G26" t="n">
-        <v>1600.666666666667</v>
+        <v>-3494.924900000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1431,11 +1327,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1446,38 +1338,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="C27" t="n">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="D27" t="n">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="E27" t="n">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="F27" t="n">
-        <v>0.118</v>
+        <v>1560.9221</v>
       </c>
       <c r="G27" t="n">
-        <v>1603.333333333333</v>
+        <v>-3494.924900000001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1598</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1488,38 +1374,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1595</v>
+        <v>1609</v>
       </c>
       <c r="C28" t="n">
-        <v>1595</v>
+        <v>1609</v>
       </c>
       <c r="D28" t="n">
-        <v>1595</v>
+        <v>1609</v>
       </c>
       <c r="E28" t="n">
-        <v>1595</v>
+        <v>1609</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1</v>
+        <v>286.03</v>
       </c>
       <c r="G28" t="n">
-        <v>1599.666666666667</v>
+        <v>-3494.924900000001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1606</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1530,38 +1410,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="C29" t="n">
-        <v>1602</v>
+        <v>1609</v>
       </c>
       <c r="D29" t="n">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="E29" t="n">
-        <v>1602</v>
+        <v>1609</v>
       </c>
       <c r="F29" t="n">
-        <v>1868.095</v>
+        <v>270</v>
       </c>
       <c r="G29" t="n">
-        <v>1601</v>
+        <v>-3494.924900000001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1595</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1572,38 +1446,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1595</v>
+        <v>1607</v>
       </c>
       <c r="C30" t="n">
-        <v>1595</v>
+        <v>1609</v>
       </c>
       <c r="D30" t="n">
-        <v>1595</v>
+        <v>1609</v>
       </c>
       <c r="E30" t="n">
-        <v>1595</v>
+        <v>1607</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1</v>
+        <v>788.67</v>
       </c>
       <c r="G30" t="n">
-        <v>1597.333333333333</v>
+        <v>-3494.924900000001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1602</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1614,38 +1482,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="C31" t="n">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="D31" t="n">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="E31" t="n">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="F31" t="n">
-        <v>3776.3062</v>
+        <v>135.58</v>
       </c>
       <c r="G31" t="n">
-        <v>1604.666666666667</v>
+        <v>-3494.924900000001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1595</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1656,38 +1518,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="C32" t="n">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="D32" t="n">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="E32" t="n">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="F32" t="n">
-        <v>45.57</v>
+        <v>4319.26</v>
       </c>
       <c r="G32" t="n">
-        <v>1609.666666666667</v>
+        <v>-3494.924900000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1617</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="C33" t="n">
-        <v>1626</v>
+        <v>1609</v>
       </c>
       <c r="D33" t="n">
-        <v>1682</v>
+        <v>1609</v>
       </c>
       <c r="E33" t="n">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="F33" t="n">
-        <v>569.9165</v>
+        <v>399.7049</v>
       </c>
       <c r="G33" t="n">
-        <v>1620</v>
+        <v>-3494.924900000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1723,11 +1579,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1738,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1634</v>
+        <v>1604</v>
       </c>
       <c r="C34" t="n">
-        <v>1634</v>
+        <v>1608</v>
       </c>
       <c r="D34" t="n">
-        <v>1634</v>
+        <v>1608</v>
       </c>
       <c r="E34" t="n">
-        <v>1634</v>
+        <v>1604</v>
       </c>
       <c r="F34" t="n">
-        <v>48</v>
+        <v>3.0711</v>
       </c>
       <c r="G34" t="n">
-        <v>1625.666666666667</v>
+        <v>-3497.996000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1763,11 +1615,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1778,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1619</v>
+        <v>1608</v>
       </c>
       <c r="C35" t="n">
-        <v>1619</v>
+        <v>1609</v>
       </c>
       <c r="D35" t="n">
-        <v>1619</v>
+        <v>1609</v>
       </c>
       <c r="E35" t="n">
-        <v>1619</v>
+        <v>1608</v>
       </c>
       <c r="F35" t="n">
-        <v>15.4785</v>
+        <v>50</v>
       </c>
       <c r="G35" t="n">
-        <v>1626.333333333333</v>
+        <v>-3447.996000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1803,11 +1651,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1818,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1629</v>
+        <v>1609</v>
       </c>
       <c r="C36" t="n">
-        <v>1621</v>
+        <v>1609</v>
       </c>
       <c r="D36" t="n">
-        <v>1629</v>
+        <v>1609</v>
       </c>
       <c r="E36" t="n">
-        <v>1621</v>
+        <v>1609</v>
       </c>
       <c r="F36" t="n">
-        <v>151.1</v>
+        <v>40</v>
       </c>
       <c r="G36" t="n">
-        <v>1624.666666666667</v>
+        <v>-3447.996000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1843,11 +1687,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1858,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C37" t="n">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="D37" t="n">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="E37" t="n">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1</v>
+        <v>389</v>
       </c>
       <c r="G37" t="n">
-        <v>1616</v>
+        <v>-3447.996000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1883,11 +1723,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1898,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="C38" t="n">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="D38" t="n">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="E38" t="n">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1</v>
+        <v>195.02</v>
       </c>
       <c r="G38" t="n">
-        <v>1610.666666666667</v>
+        <v>-3447.996000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1923,11 +1759,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1601</v>
+        <v>1609</v>
       </c>
       <c r="C39" t="n">
-        <v>1597</v>
+        <v>1609</v>
       </c>
       <c r="D39" t="n">
-        <v>1601</v>
+        <v>1609</v>
       </c>
       <c r="E39" t="n">
-        <v>1597</v>
+        <v>1609</v>
       </c>
       <c r="F39" t="n">
-        <v>1833.1878</v>
+        <v>4367.7938</v>
       </c>
       <c r="G39" t="n">
-        <v>1602.666666666667</v>
+        <v>-3447.996000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1963,11 +1795,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1978,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="C40" t="n">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="D40" t="n">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="E40" t="n">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="F40" t="n">
-        <v>134.1</v>
+        <v>510.4411</v>
       </c>
       <c r="G40" t="n">
-        <v>1601.666666666667</v>
+        <v>-3447.996000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2003,11 +1831,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2018,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1598</v>
+        <v>1609</v>
       </c>
       <c r="C41" t="n">
-        <v>1598</v>
+        <v>1609</v>
       </c>
       <c r="D41" t="n">
-        <v>1598</v>
+        <v>1609</v>
       </c>
       <c r="E41" t="n">
-        <v>1598</v>
+        <v>1609</v>
       </c>
       <c r="F41" t="n">
-        <v>16.2823</v>
+        <v>4185</v>
       </c>
       <c r="G41" t="n">
-        <v>1600</v>
+        <v>-3447.996000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2043,11 +1867,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1604</v>
+        <v>1609</v>
       </c>
       <c r="C42" t="n">
-        <v>1604</v>
+        <v>1609</v>
       </c>
       <c r="D42" t="n">
-        <v>1604</v>
+        <v>1609</v>
       </c>
       <c r="E42" t="n">
-        <v>1604</v>
+        <v>1609</v>
       </c>
       <c r="F42" t="n">
-        <v>190.4</v>
+        <v>51.652</v>
       </c>
       <c r="G42" t="n">
-        <v>1602.333333333333</v>
+        <v>-3447.996000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2083,11 +1903,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2098,7 +1914,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1599</v>
+        <v>1609</v>
       </c>
       <c r="C43" t="n">
         <v>1609</v>
@@ -2107,13 +1923,13 @@
         <v>1609</v>
       </c>
       <c r="E43" t="n">
-        <v>1599</v>
+        <v>1609</v>
       </c>
       <c r="F43" t="n">
-        <v>27.646</v>
+        <v>2298</v>
       </c>
       <c r="G43" t="n">
-        <v>1603.666666666667</v>
+        <v>-3447.996000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2123,11 +1939,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2138,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C44" t="n">
-        <v>1599</v>
+        <v>1609</v>
       </c>
       <c r="D44" t="n">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E44" t="n">
-        <v>1599</v>
+        <v>1609</v>
       </c>
       <c r="F44" t="n">
-        <v>16.1393</v>
+        <v>645</v>
       </c>
       <c r="G44" t="n">
-        <v>1604</v>
+        <v>-3447.996000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2163,11 +1975,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2178,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C45" t="n">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D45" t="n">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E45" t="n">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="F45" t="n">
-        <v>21.8611</v>
+        <v>56</v>
       </c>
       <c r="G45" t="n">
-        <v>1606</v>
+        <v>-3447.996000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2203,11 +2011,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1610</v>
+        <v>1620</v>
       </c>
       <c r="C46" t="n">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D46" t="n">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="E46" t="n">
-        <v>1610</v>
+        <v>1620</v>
       </c>
       <c r="F46" t="n">
-        <v>1271.7748</v>
+        <v>281.7507</v>
       </c>
       <c r="G46" t="n">
-        <v>1609</v>
+        <v>-3166.245300000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2243,11 +2047,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2258,38 +2058,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="C47" t="n">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="D47" t="n">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="E47" t="n">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="F47" t="n">
-        <v>587</v>
+        <v>0.1</v>
       </c>
       <c r="G47" t="n">
-        <v>1616</v>
+        <v>-3166.345300000001</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1618</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2300,38 +2094,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="C48" t="n">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="D48" t="n">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="E48" t="n">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="F48" t="n">
-        <v>27.1292</v>
+        <v>738.2874</v>
       </c>
       <c r="G48" t="n">
-        <v>1619.666666666667</v>
+        <v>-2428.057900000001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1620</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2342,38 +2130,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1628</v>
+        <v>1636</v>
       </c>
       <c r="C49" t="n">
-        <v>1630</v>
+        <v>1636</v>
       </c>
       <c r="D49" t="n">
-        <v>1630</v>
+        <v>1636</v>
       </c>
       <c r="E49" t="n">
-        <v>1628</v>
+        <v>1636</v>
       </c>
       <c r="F49" t="n">
-        <v>1039.54581337</v>
+        <v>0.1</v>
       </c>
       <c r="G49" t="n">
-        <v>1623.666666666667</v>
+        <v>-2427.957900000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1621</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2384,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1617</v>
+        <v>1636</v>
       </c>
       <c r="C50" t="n">
-        <v>1616</v>
+        <v>1626</v>
       </c>
       <c r="D50" t="n">
-        <v>1617</v>
+        <v>1636</v>
       </c>
       <c r="E50" t="n">
-        <v>1616</v>
+        <v>1626</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5</v>
+        <v>34.6509</v>
       </c>
       <c r="G50" t="n">
-        <v>1622.333333333333</v>
+        <v>-2462.608800000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2409,11 +2191,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2424,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1616</v>
+        <v>1628</v>
       </c>
       <c r="C51" t="n">
-        <v>1616</v>
+        <v>1628</v>
       </c>
       <c r="D51" t="n">
-        <v>1616</v>
+        <v>1628</v>
       </c>
       <c r="E51" t="n">
-        <v>1616</v>
+        <v>1628</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5</v>
+        <v>65.09990000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>1620.666666666667</v>
+        <v>-2397.508900000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2449,11 +2227,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2464,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1622</v>
+        <v>1626</v>
       </c>
       <c r="C52" t="n">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="D52" t="n">
-        <v>1622</v>
+        <v>1626</v>
       </c>
       <c r="E52" t="n">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="F52" t="n">
-        <v>216.9794</v>
+        <v>264.5491</v>
       </c>
       <c r="G52" t="n">
-        <v>1618</v>
+        <v>-2662.058000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2489,11 +2263,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2504,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="C53" t="n">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="D53" t="n">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="E53" t="n">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="F53" t="n">
-        <v>94.40000000000001</v>
+        <v>22</v>
       </c>
       <c r="G53" t="n">
-        <v>1622.666666666667</v>
+        <v>-2640.058000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2529,11 +2299,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2544,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="C54" t="n">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="D54" t="n">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="E54" t="n">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="F54" t="n">
-        <v>47.2</v>
+        <v>16</v>
       </c>
       <c r="G54" t="n">
-        <v>1627.333333333333</v>
+        <v>-2656.058000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2569,11 +2335,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2584,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="C55" t="n">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="D55" t="n">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="E55" t="n">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="F55" t="n">
-        <v>23.9041</v>
+        <v>17.053</v>
       </c>
       <c r="G55" t="n">
-        <v>1628.333333333333</v>
+        <v>-2639.005000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2609,11 +2371,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2624,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="C56" t="n">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D56" t="n">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="E56" t="n">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="F56" t="n">
-        <v>15.7918</v>
+        <v>2640.2932</v>
       </c>
       <c r="G56" t="n">
-        <v>1626</v>
+        <v>-5279.298200000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2649,11 +2407,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2664,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="C57" t="n">
-        <v>1626</v>
+        <v>1613</v>
       </c>
       <c r="D57" t="n">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="E57" t="n">
-        <v>1626</v>
+        <v>1610</v>
       </c>
       <c r="F57" t="n">
-        <v>26.9548</v>
+        <v>3362.2293</v>
       </c>
       <c r="G57" t="n">
-        <v>1624.666666666667</v>
+        <v>-8641.5275</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2689,11 +2443,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2704,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1623</v>
+        <v>1613</v>
       </c>
       <c r="C58" t="n">
-        <v>1623</v>
+        <v>1604</v>
       </c>
       <c r="D58" t="n">
-        <v>1623</v>
+        <v>1613</v>
       </c>
       <c r="E58" t="n">
-        <v>1623</v>
+        <v>1604</v>
       </c>
       <c r="F58" t="n">
-        <v>264.7996</v>
+        <v>1099</v>
       </c>
       <c r="G58" t="n">
-        <v>1624</v>
+        <v>-9740.5275</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2729,11 +2479,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2744,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="C59" t="n">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="D59" t="n">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="E59" t="n">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5</v>
+        <v>1127.6577</v>
       </c>
       <c r="G59" t="n">
-        <v>1620</v>
+        <v>-8612.8698</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2769,11 +2515,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2784,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="C60" t="n">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="D60" t="n">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="E60" t="n">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>2358.9565</v>
       </c>
       <c r="G60" t="n">
-        <v>1613.666666666667</v>
+        <v>-10971.8263</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2809,11 +2551,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2824,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="C61" t="n">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="D61" t="n">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="E61" t="n">
-        <v>1614</v>
+        <v>1605</v>
       </c>
       <c r="F61" t="n">
-        <v>35.6539</v>
+        <v>87.083</v>
       </c>
       <c r="G61" t="n">
-        <v>1610.666666666667</v>
+        <v>-10884.7433</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2849,11 +2587,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2864,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1617</v>
+        <v>1605</v>
       </c>
       <c r="C62" t="n">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="D62" t="n">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="E62" t="n">
-        <v>1616</v>
+        <v>1605</v>
       </c>
       <c r="F62" t="n">
-        <v>110.3199</v>
+        <v>65.4894</v>
       </c>
       <c r="G62" t="n">
-        <v>1612.333333333333</v>
+        <v>-10819.2539</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2889,11 +2623,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2904,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="C63" t="n">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="D63" t="n">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="E63" t="n">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1</v>
+        <v>2499.41</v>
       </c>
       <c r="G63" t="n">
-        <v>1613.666666666667</v>
+        <v>-10819.2539</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2929,11 +2659,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2944,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="C64" t="n">
-        <v>1615</v>
+        <v>1606</v>
       </c>
       <c r="D64" t="n">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="E64" t="n">
-        <v>1615</v>
+        <v>1606</v>
       </c>
       <c r="F64" t="n">
-        <v>16.2263</v>
+        <v>723.925</v>
       </c>
       <c r="G64" t="n">
-        <v>1614</v>
+        <v>-11543.1789</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2969,11 +2695,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2984,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1622</v>
+        <v>1606</v>
       </c>
       <c r="C65" t="n">
-        <v>1622</v>
+        <v>1606</v>
       </c>
       <c r="D65" t="n">
-        <v>1622</v>
+        <v>1606</v>
       </c>
       <c r="E65" t="n">
-        <v>1622</v>
+        <v>1606</v>
       </c>
       <c r="F65" t="n">
-        <v>11.47</v>
+        <v>2461.5782</v>
       </c>
       <c r="G65" t="n">
-        <v>1616</v>
+        <v>-11543.1789</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3009,11 +2731,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3024,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1621</v>
+        <v>1603</v>
       </c>
       <c r="C66" t="n">
-        <v>1621</v>
+        <v>1601</v>
       </c>
       <c r="D66" t="n">
-        <v>1621</v>
+        <v>1603</v>
       </c>
       <c r="E66" t="n">
-        <v>1621</v>
+        <v>1601</v>
       </c>
       <c r="F66" t="n">
-        <v>20.35</v>
+        <v>127.2104</v>
       </c>
       <c r="G66" t="n">
-        <v>1619.333333333333</v>
+        <v>-11670.3893</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3049,11 +2767,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3064,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1640</v>
+        <v>1601</v>
       </c>
       <c r="C67" t="n">
-        <v>1640</v>
+        <v>1601</v>
       </c>
       <c r="D67" t="n">
-        <v>1640</v>
+        <v>1601</v>
       </c>
       <c r="E67" t="n">
-        <v>1640</v>
+        <v>1601</v>
       </c>
       <c r="F67" t="n">
-        <v>57.61</v>
+        <v>1451.3131</v>
       </c>
       <c r="G67" t="n">
-        <v>1627.666666666667</v>
+        <v>-11670.3893</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3089,11 +2803,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3104,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1635</v>
+        <v>1600</v>
       </c>
       <c r="C68" t="n">
-        <v>1635</v>
+        <v>1601</v>
       </c>
       <c r="D68" t="n">
-        <v>1635</v>
+        <v>1601</v>
       </c>
       <c r="E68" t="n">
-        <v>1635</v>
+        <v>1600</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6989</v>
+        <v>380</v>
       </c>
       <c r="G68" t="n">
-        <v>1632</v>
+        <v>-11670.3893</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3129,11 +2839,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3144,38 +2850,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1635</v>
+        <v>1600</v>
       </c>
       <c r="C69" t="n">
-        <v>1635</v>
+        <v>1600</v>
       </c>
       <c r="D69" t="n">
-        <v>1635</v>
+        <v>1600</v>
       </c>
       <c r="E69" t="n">
-        <v>1635</v>
+        <v>1600</v>
       </c>
       <c r="F69" t="n">
-        <v>33.6973</v>
+        <v>0.1</v>
       </c>
       <c r="G69" t="n">
-        <v>1636.666666666667</v>
+        <v>-11670.4893</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>1635</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3186,38 +2886,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1640</v>
+        <v>1601</v>
       </c>
       <c r="C70" t="n">
-        <v>1640</v>
+        <v>1600</v>
       </c>
       <c r="D70" t="n">
-        <v>1640</v>
+        <v>1601</v>
       </c>
       <c r="E70" t="n">
-        <v>1640</v>
+        <v>1600</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1</v>
+        <v>155.7827</v>
       </c>
       <c r="G70" t="n">
-        <v>1636.666666666667</v>
+        <v>-11670.4893</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>1635</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3228,38 +2922,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1640</v>
+        <v>1600</v>
       </c>
       <c r="C71" t="n">
-        <v>1640</v>
+        <v>1585</v>
       </c>
       <c r="D71" t="n">
-        <v>1640</v>
+        <v>1600</v>
       </c>
       <c r="E71" t="n">
-        <v>1640</v>
+        <v>1585</v>
       </c>
       <c r="F71" t="n">
-        <v>392.5974</v>
+        <v>1100</v>
       </c>
       <c r="G71" t="n">
-        <v>1638.333333333333</v>
+        <v>-12770.4893</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>1640</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3270,38 +2958,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1636</v>
+        <v>1582</v>
       </c>
       <c r="C72" t="n">
-        <v>1636</v>
+        <v>1582</v>
       </c>
       <c r="D72" t="n">
-        <v>1636</v>
+        <v>1582</v>
       </c>
       <c r="E72" t="n">
-        <v>1636</v>
+        <v>1582</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G72" t="n">
-        <v>1638.666666666667</v>
+        <v>-12770.6893</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>1640</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3312,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1647</v>
+        <v>1600</v>
       </c>
       <c r="C73" t="n">
-        <v>1647</v>
+        <v>1601</v>
       </c>
       <c r="D73" t="n">
-        <v>1647</v>
+        <v>1601</v>
       </c>
       <c r="E73" t="n">
-        <v>1647</v>
+        <v>1600</v>
       </c>
       <c r="F73" t="n">
-        <v>0.118</v>
+        <v>109.2666</v>
       </c>
       <c r="G73" t="n">
-        <v>1641</v>
+        <v>-12661.4227</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3337,11 +3019,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3352,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1646</v>
+        <v>1592</v>
       </c>
       <c r="C74" t="n">
-        <v>1649</v>
+        <v>1592</v>
       </c>
       <c r="D74" t="n">
-        <v>1649</v>
+        <v>1592</v>
       </c>
       <c r="E74" t="n">
-        <v>1646</v>
+        <v>1592</v>
       </c>
       <c r="F74" t="n">
-        <v>909.6422</v>
+        <v>0.1</v>
       </c>
       <c r="G74" t="n">
-        <v>1644</v>
+        <v>-12661.5227</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3377,11 +3055,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3392,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1643</v>
+        <v>1585</v>
       </c>
       <c r="C75" t="n">
-        <v>1649</v>
+        <v>1585</v>
       </c>
       <c r="D75" t="n">
-        <v>1649</v>
+        <v>1585</v>
       </c>
       <c r="E75" t="n">
-        <v>1643</v>
+        <v>1585</v>
       </c>
       <c r="F75" t="n">
-        <v>15.3465</v>
+        <v>0.2</v>
       </c>
       <c r="G75" t="n">
-        <v>1648.333333333333</v>
+        <v>-12661.7227</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3417,11 +3091,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3432,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1644</v>
+        <v>1600</v>
       </c>
       <c r="C76" t="n">
-        <v>1644</v>
+        <v>1600</v>
       </c>
       <c r="D76" t="n">
-        <v>1644</v>
+        <v>1600</v>
       </c>
       <c r="E76" t="n">
-        <v>1644</v>
+        <v>1600</v>
       </c>
       <c r="F76" t="n">
-        <v>17.4151</v>
+        <v>26.893</v>
       </c>
       <c r="G76" t="n">
-        <v>1647.333333333333</v>
+        <v>-12634.8297</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3457,11 +3127,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3472,34 +3138,36 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1644</v>
+        <v>1600</v>
       </c>
       <c r="C77" t="n">
-        <v>1644</v>
+        <v>1605</v>
       </c>
       <c r="D77" t="n">
-        <v>1644</v>
+        <v>1605</v>
       </c>
       <c r="E77" t="n">
-        <v>1644</v>
+        <v>1600</v>
       </c>
       <c r="F77" t="n">
-        <v>27.77</v>
+        <v>84.4819</v>
       </c>
       <c r="G77" t="n">
-        <v>1645.666666666667</v>
+        <v>-12550.3478</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1600</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M77" t="n">
@@ -3512,30 +3180,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1650</v>
+        <v>1595</v>
       </c>
       <c r="C78" t="n">
-        <v>1650</v>
+        <v>1589</v>
       </c>
       <c r="D78" t="n">
-        <v>1650</v>
+        <v>1595</v>
       </c>
       <c r="E78" t="n">
-        <v>1650</v>
+        <v>1589</v>
       </c>
       <c r="F78" t="n">
-        <v>6.2071</v>
+        <v>1372.4938</v>
       </c>
       <c r="G78" t="n">
-        <v>1646</v>
+        <v>-13922.8416</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1605</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3552,30 +3222,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1657</v>
+        <v>1603</v>
       </c>
       <c r="C79" t="n">
-        <v>1657</v>
+        <v>1606</v>
       </c>
       <c r="D79" t="n">
-        <v>1657</v>
+        <v>1606</v>
       </c>
       <c r="E79" t="n">
-        <v>1657</v>
+        <v>1603</v>
       </c>
       <c r="F79" t="n">
-        <v>0.11</v>
+        <v>203.8072</v>
       </c>
       <c r="G79" t="n">
-        <v>1650.333333333333</v>
+        <v>-13719.0344</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1589</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -3592,30 +3264,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1658</v>
+        <v>1599</v>
       </c>
       <c r="C80" t="n">
-        <v>1658</v>
+        <v>1599</v>
       </c>
       <c r="D80" t="n">
-        <v>1658</v>
+        <v>1599</v>
       </c>
       <c r="E80" t="n">
-        <v>1658</v>
+        <v>1599</v>
       </c>
       <c r="F80" t="n">
-        <v>18</v>
+        <v>0.1</v>
       </c>
       <c r="G80" t="n">
-        <v>1655</v>
+        <v>-13719.1344</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1606</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3632,30 +3306,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1658</v>
+        <v>1605</v>
       </c>
       <c r="C81" t="n">
-        <v>1658</v>
+        <v>1605</v>
       </c>
       <c r="D81" t="n">
-        <v>1658</v>
+        <v>1605</v>
       </c>
       <c r="E81" t="n">
-        <v>1658</v>
+        <v>1605</v>
       </c>
       <c r="F81" t="n">
-        <v>31.9999</v>
+        <v>55.7405</v>
       </c>
       <c r="G81" t="n">
-        <v>1657.666666666667</v>
+        <v>-13663.3939</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1599</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3672,22 +3348,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1658</v>
+        <v>1606</v>
       </c>
       <c r="C82" t="n">
-        <v>1668</v>
+        <v>1605</v>
       </c>
       <c r="D82" t="n">
-        <v>1668</v>
+        <v>1606</v>
       </c>
       <c r="E82" t="n">
-        <v>1658</v>
+        <v>1605</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1</v>
+        <v>647.6310999999999</v>
       </c>
       <c r="G82" t="n">
-        <v>1661.333333333333</v>
+        <v>-13663.3939</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3712,22 +3388,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1659</v>
+        <v>1598</v>
       </c>
       <c r="C83" t="n">
-        <v>1659</v>
+        <v>1597</v>
       </c>
       <c r="D83" t="n">
-        <v>1659</v>
+        <v>1598</v>
       </c>
       <c r="E83" t="n">
-        <v>1659</v>
+        <v>1597</v>
       </c>
       <c r="F83" t="n">
-        <v>15.3484</v>
+        <v>1.2</v>
       </c>
       <c r="G83" t="n">
-        <v>1661.666666666667</v>
+        <v>-13664.5939</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3752,22 +3428,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1685</v>
+        <v>1591</v>
       </c>
       <c r="C84" t="n">
-        <v>1686</v>
+        <v>1591</v>
       </c>
       <c r="D84" t="n">
-        <v>1686</v>
+        <v>1591</v>
       </c>
       <c r="E84" t="n">
-        <v>1685</v>
+        <v>1591</v>
       </c>
       <c r="F84" t="n">
-        <v>24.422</v>
+        <v>0.1</v>
       </c>
       <c r="G84" t="n">
-        <v>1671</v>
+        <v>-13664.6939</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3792,22 +3468,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1686</v>
+        <v>1606</v>
       </c>
       <c r="C85" t="n">
-        <v>1699</v>
+        <v>1606</v>
       </c>
       <c r="D85" t="n">
-        <v>1699</v>
+        <v>1606</v>
       </c>
       <c r="E85" t="n">
-        <v>1686</v>
+        <v>1606</v>
       </c>
       <c r="F85" t="n">
-        <v>1363.8355</v>
+        <v>303.14</v>
       </c>
       <c r="G85" t="n">
-        <v>1681.333333333333</v>
+        <v>-13361.5539</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3832,22 +3508,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1695</v>
+        <v>1604</v>
       </c>
       <c r="C86" t="n">
-        <v>1679</v>
+        <v>1604</v>
       </c>
       <c r="D86" t="n">
-        <v>1695</v>
+        <v>1604</v>
       </c>
       <c r="E86" t="n">
-        <v>1679</v>
+        <v>1604</v>
       </c>
       <c r="F86" t="n">
-        <v>1500.699</v>
+        <v>342.91</v>
       </c>
       <c r="G86" t="n">
-        <v>1688</v>
+        <v>-13704.4639</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3872,22 +3548,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1698</v>
+        <v>1599</v>
       </c>
       <c r="C87" t="n">
-        <v>1698</v>
+        <v>1599</v>
       </c>
       <c r="D87" t="n">
-        <v>1698</v>
+        <v>1599</v>
       </c>
       <c r="E87" t="n">
-        <v>1698</v>
+        <v>1599</v>
       </c>
       <c r="F87" t="n">
         <v>0.1</v>
       </c>
       <c r="G87" t="n">
-        <v>1692</v>
+        <v>-13704.5639</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3912,22 +3588,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1676</v>
+        <v>1606</v>
       </c>
       <c r="C88" t="n">
-        <v>1676</v>
+        <v>1606</v>
       </c>
       <c r="D88" t="n">
-        <v>1676</v>
+        <v>1606</v>
       </c>
       <c r="E88" t="n">
-        <v>1676</v>
+        <v>1606</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1</v>
+        <v>203.8749</v>
       </c>
       <c r="G88" t="n">
-        <v>1684.333333333333</v>
+        <v>-13500.689</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3952,22 +3628,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1695</v>
+        <v>1592</v>
       </c>
       <c r="C89" t="n">
-        <v>1695</v>
+        <v>1592</v>
       </c>
       <c r="D89" t="n">
-        <v>1695</v>
+        <v>1592</v>
       </c>
       <c r="E89" t="n">
-        <v>1695</v>
+        <v>1592</v>
       </c>
       <c r="F89" t="n">
         <v>0.1</v>
       </c>
       <c r="G89" t="n">
-        <v>1689.666666666667</v>
+        <v>-13500.789</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3992,22 +3668,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1674</v>
+        <v>1606</v>
       </c>
       <c r="C90" t="n">
-        <v>1672</v>
+        <v>1606</v>
       </c>
       <c r="D90" t="n">
-        <v>1687</v>
+        <v>1606</v>
       </c>
       <c r="E90" t="n">
-        <v>1672</v>
+        <v>1606</v>
       </c>
       <c r="F90" t="n">
-        <v>0.4</v>
+        <v>338.7199</v>
       </c>
       <c r="G90" t="n">
-        <v>1681</v>
+        <v>-13162.0691</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4032,22 +3708,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1687</v>
+        <v>1606</v>
       </c>
       <c r="C91" t="n">
-        <v>1670</v>
+        <v>1606</v>
       </c>
       <c r="D91" t="n">
-        <v>1687</v>
+        <v>1606</v>
       </c>
       <c r="E91" t="n">
-        <v>1670</v>
+        <v>1606</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3</v>
+        <v>692.1667</v>
       </c>
       <c r="G91" t="n">
-        <v>1679</v>
+        <v>-13162.0691</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4072,22 +3748,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1684</v>
+        <v>1606</v>
       </c>
       <c r="C92" t="n">
-        <v>1673</v>
+        <v>1606</v>
       </c>
       <c r="D92" t="n">
-        <v>1684</v>
+        <v>1606</v>
       </c>
       <c r="E92" t="n">
-        <v>1673</v>
+        <v>1606</v>
       </c>
       <c r="F92" t="n">
-        <v>0.298</v>
+        <v>25.12</v>
       </c>
       <c r="G92" t="n">
-        <v>1671.666666666667</v>
+        <v>-13162.0691</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4112,22 +3788,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1683</v>
+        <v>1606</v>
       </c>
       <c r="C93" t="n">
-        <v>1683</v>
+        <v>1606</v>
       </c>
       <c r="D93" t="n">
-        <v>1683</v>
+        <v>1606</v>
       </c>
       <c r="E93" t="n">
-        <v>1670</v>
+        <v>1606</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5</v>
+        <v>59.58</v>
       </c>
       <c r="G93" t="n">
-        <v>1675.333333333333</v>
+        <v>-13162.0691</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4152,22 +3828,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1671</v>
+        <v>1597</v>
       </c>
       <c r="C94" t="n">
-        <v>1671</v>
+        <v>1600</v>
       </c>
       <c r="D94" t="n">
-        <v>1683</v>
+        <v>1606</v>
       </c>
       <c r="E94" t="n">
-        <v>1671</v>
+        <v>1597</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>1675.666666666667</v>
+        <v>-13252.8091</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4192,22 +3868,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1671</v>
+        <v>1598</v>
       </c>
       <c r="C95" t="n">
-        <v>1672</v>
+        <v>1598</v>
       </c>
       <c r="D95" t="n">
-        <v>1683</v>
+        <v>1598</v>
       </c>
       <c r="E95" t="n">
-        <v>1671</v>
+        <v>1598</v>
       </c>
       <c r="F95" t="n">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="G95" t="n">
-        <v>1675.333333333333</v>
+        <v>-13252.9091</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4232,22 +3908,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1670</v>
+        <v>1606</v>
       </c>
       <c r="C96" t="n">
-        <v>1670</v>
+        <v>1606</v>
       </c>
       <c r="D96" t="n">
-        <v>1670</v>
+        <v>1606</v>
       </c>
       <c r="E96" t="n">
-        <v>1670</v>
+        <v>1606</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2</v>
+        <v>615.8092</v>
       </c>
       <c r="G96" t="n">
-        <v>1671</v>
+        <v>-12637.0999</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -4256,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1672</v>
+        <v>1598</v>
       </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
@@ -4274,22 +3950,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1681</v>
+        <v>1598</v>
       </c>
       <c r="C97" t="n">
-        <v>1681</v>
+        <v>1598</v>
       </c>
       <c r="D97" t="n">
-        <v>1681</v>
+        <v>1598</v>
       </c>
       <c r="E97" t="n">
-        <v>1681</v>
+        <v>1598</v>
       </c>
       <c r="F97" t="n">
         <v>0.1</v>
       </c>
       <c r="G97" t="n">
-        <v>1674.333333333333</v>
+        <v>-12637.1999</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -4298,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1670</v>
+        <v>1606</v>
       </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
@@ -4316,22 +3992,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1682</v>
+        <v>1606</v>
       </c>
       <c r="C98" t="n">
-        <v>1682</v>
+        <v>1606</v>
       </c>
       <c r="D98" t="n">
-        <v>1682</v>
+        <v>1606</v>
       </c>
       <c r="E98" t="n">
-        <v>1682</v>
+        <v>1606</v>
       </c>
       <c r="F98" t="n">
-        <v>0.11</v>
+        <v>0.118</v>
       </c>
       <c r="G98" t="n">
-        <v>1677.666666666667</v>
+        <v>-12637.0819</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -4340,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1681</v>
+        <v>1598</v>
       </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
@@ -4358,30 +4034,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1671</v>
+        <v>1595</v>
       </c>
       <c r="C99" t="n">
-        <v>1671</v>
+        <v>1595</v>
       </c>
       <c r="D99" t="n">
-        <v>1671</v>
+        <v>1595</v>
       </c>
       <c r="E99" t="n">
-        <v>1671</v>
+        <v>1595</v>
       </c>
       <c r="F99" t="n">
-        <v>15.2329</v>
+        <v>0.1</v>
       </c>
       <c r="G99" t="n">
-        <v>1678</v>
+        <v>-12637.1819</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1606</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -4398,30 +4076,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1682</v>
+        <v>1605</v>
       </c>
       <c r="C100" t="n">
-        <v>1682</v>
+        <v>1602</v>
       </c>
       <c r="D100" t="n">
-        <v>1682</v>
+        <v>1606</v>
       </c>
       <c r="E100" t="n">
-        <v>1682</v>
+        <v>1602</v>
       </c>
       <c r="F100" t="n">
-        <v>55.5237</v>
+        <v>1868.095</v>
       </c>
       <c r="G100" t="n">
-        <v>1678.333333333333</v>
+        <v>-10769.0869</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1595</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
@@ -4438,30 +4118,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1683</v>
+        <v>1595</v>
       </c>
       <c r="C101" t="n">
-        <v>1683</v>
+        <v>1595</v>
       </c>
       <c r="D101" t="n">
-        <v>1683</v>
+        <v>1595</v>
       </c>
       <c r="E101" t="n">
-        <v>1683</v>
+        <v>1595</v>
       </c>
       <c r="F101" t="n">
-        <v>160.06</v>
+        <v>0.1</v>
       </c>
       <c r="G101" t="n">
-        <v>1678.666666666667</v>
+        <v>-10769.1869</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1602</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -4478,30 +4160,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1683</v>
+        <v>1606</v>
       </c>
       <c r="C102" t="n">
-        <v>1683</v>
+        <v>1617</v>
       </c>
       <c r="D102" t="n">
-        <v>1683</v>
+        <v>1617</v>
       </c>
       <c r="E102" t="n">
-        <v>1683</v>
+        <v>1606</v>
       </c>
       <c r="F102" t="n">
-        <v>397.9699</v>
+        <v>3776.3062</v>
       </c>
       <c r="G102" t="n">
-        <v>1682.666666666667</v>
+        <v>-6992.880700000004</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1595</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4518,22 +4202,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1683</v>
+        <v>1617</v>
       </c>
       <c r="C103" t="n">
-        <v>1683</v>
+        <v>1617</v>
       </c>
       <c r="D103" t="n">
-        <v>1683</v>
+        <v>1617</v>
       </c>
       <c r="E103" t="n">
-        <v>1683</v>
+        <v>1617</v>
       </c>
       <c r="F103" t="n">
-        <v>56.8512</v>
+        <v>45.57</v>
       </c>
       <c r="G103" t="n">
-        <v>1683</v>
+        <v>-6992.880700000004</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4558,22 +4242,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1684</v>
+        <v>1617</v>
       </c>
       <c r="C104" t="n">
-        <v>1684</v>
+        <v>1626</v>
       </c>
       <c r="D104" t="n">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="E104" t="n">
-        <v>1684</v>
+        <v>1617</v>
       </c>
       <c r="F104" t="n">
-        <v>1582.3453</v>
+        <v>569.9165</v>
       </c>
       <c r="G104" t="n">
-        <v>1683.333333333333</v>
+        <v>-6422.964200000004</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4598,22 +4282,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1684</v>
+        <v>1634</v>
       </c>
       <c r="C105" t="n">
-        <v>1684</v>
+        <v>1634</v>
       </c>
       <c r="D105" t="n">
-        <v>1684</v>
+        <v>1634</v>
       </c>
       <c r="E105" t="n">
-        <v>1684</v>
+        <v>1634</v>
       </c>
       <c r="F105" t="n">
-        <v>674.4822</v>
+        <v>48</v>
       </c>
       <c r="G105" t="n">
-        <v>1683.666666666667</v>
+        <v>-6374.964200000004</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4638,22 +4322,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1684</v>
+        <v>1619</v>
       </c>
       <c r="C106" t="n">
-        <v>1684</v>
+        <v>1619</v>
       </c>
       <c r="D106" t="n">
-        <v>1684</v>
+        <v>1619</v>
       </c>
       <c r="E106" t="n">
-        <v>1684</v>
+        <v>1619</v>
       </c>
       <c r="F106" t="n">
-        <v>221.7808</v>
+        <v>15.4785</v>
       </c>
       <c r="G106" t="n">
-        <v>1684</v>
+        <v>-6390.442700000004</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4678,22 +4362,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1694</v>
+        <v>1629</v>
       </c>
       <c r="C107" t="n">
-        <v>1694</v>
+        <v>1621</v>
       </c>
       <c r="D107" t="n">
-        <v>1694</v>
+        <v>1629</v>
       </c>
       <c r="E107" t="n">
-        <v>1694</v>
+        <v>1621</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1</v>
+        <v>151.1</v>
       </c>
       <c r="G107" t="n">
-        <v>1687.333333333333</v>
+        <v>-6239.342700000004</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4718,22 +4402,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1695</v>
+        <v>1608</v>
       </c>
       <c r="C108" t="n">
-        <v>1695</v>
+        <v>1608</v>
       </c>
       <c r="D108" t="n">
-        <v>1695</v>
+        <v>1608</v>
       </c>
       <c r="E108" t="n">
-        <v>1695</v>
+        <v>1608</v>
       </c>
       <c r="F108" t="n">
-        <v>173.4199</v>
+        <v>0.1</v>
       </c>
       <c r="G108" t="n">
-        <v>1691</v>
+        <v>-6239.442700000004</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4758,22 +4442,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1695</v>
+        <v>1603</v>
       </c>
       <c r="C109" t="n">
-        <v>1719</v>
+        <v>1603</v>
       </c>
       <c r="D109" t="n">
-        <v>1719</v>
+        <v>1603</v>
       </c>
       <c r="E109" t="n">
-        <v>1695</v>
+        <v>1603</v>
       </c>
       <c r="F109" t="n">
-        <v>1715.89</v>
+        <v>0.1</v>
       </c>
       <c r="G109" t="n">
-        <v>1702.666666666667</v>
+        <v>-6239.542700000005</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4798,22 +4482,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1719</v>
+        <v>1601</v>
       </c>
       <c r="C110" t="n">
-        <v>1719</v>
+        <v>1597</v>
       </c>
       <c r="D110" t="n">
-        <v>1719</v>
+        <v>1601</v>
       </c>
       <c r="E110" t="n">
-        <v>1719</v>
+        <v>1597</v>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>1833.1878</v>
       </c>
       <c r="G110" t="n">
-        <v>1711</v>
+        <v>-8072.730500000004</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4838,22 +4522,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1720</v>
+        <v>1605</v>
       </c>
       <c r="C111" t="n">
-        <v>1720</v>
+        <v>1605</v>
       </c>
       <c r="D111" t="n">
-        <v>1720</v>
+        <v>1605</v>
       </c>
       <c r="E111" t="n">
-        <v>1720</v>
+        <v>1605</v>
       </c>
       <c r="F111" t="n">
-        <v>453.2557</v>
+        <v>134.1</v>
       </c>
       <c r="G111" t="n">
-        <v>1719.333333333333</v>
+        <v>-7938.630500000004</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4878,22 +4562,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1732</v>
+        <v>1598</v>
       </c>
       <c r="C112" t="n">
-        <v>1732</v>
+        <v>1598</v>
       </c>
       <c r="D112" t="n">
-        <v>1732</v>
+        <v>1598</v>
       </c>
       <c r="E112" t="n">
-        <v>1732</v>
+        <v>1598</v>
       </c>
       <c r="F112" t="n">
-        <v>305</v>
+        <v>16.2823</v>
       </c>
       <c r="G112" t="n">
-        <v>1723.666666666667</v>
+        <v>-7954.912800000004</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4918,22 +4602,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1733</v>
+        <v>1604</v>
       </c>
       <c r="C113" t="n">
-        <v>1733</v>
+        <v>1604</v>
       </c>
       <c r="D113" t="n">
-        <v>1733</v>
+        <v>1604</v>
       </c>
       <c r="E113" t="n">
-        <v>1733</v>
+        <v>1604</v>
       </c>
       <c r="F113" t="n">
-        <v>17.657</v>
+        <v>190.4</v>
       </c>
       <c r="G113" t="n">
-        <v>1728.333333333333</v>
+        <v>-7764.512800000004</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4958,22 +4642,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1739</v>
+        <v>1599</v>
       </c>
       <c r="C114" t="n">
-        <v>1739</v>
+        <v>1609</v>
       </c>
       <c r="D114" t="n">
-        <v>1739</v>
+        <v>1609</v>
       </c>
       <c r="E114" t="n">
-        <v>1739</v>
+        <v>1599</v>
       </c>
       <c r="F114" t="n">
-        <v>17.251</v>
+        <v>27.646</v>
       </c>
       <c r="G114" t="n">
-        <v>1734.666666666667</v>
+        <v>-7736.866800000004</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4998,22 +4682,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1734</v>
+        <v>1610</v>
       </c>
       <c r="C115" t="n">
-        <v>1739</v>
+        <v>1599</v>
       </c>
       <c r="D115" t="n">
-        <v>1739</v>
+        <v>1610</v>
       </c>
       <c r="E115" t="n">
-        <v>1732</v>
+        <v>1599</v>
       </c>
       <c r="F115" t="n">
-        <v>474.8211</v>
+        <v>16.1393</v>
       </c>
       <c r="G115" t="n">
-        <v>1737</v>
+        <v>-7753.006100000004</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5038,22 +4722,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1739</v>
+        <v>1610</v>
       </c>
       <c r="C116" t="n">
-        <v>1739</v>
+        <v>1610</v>
       </c>
       <c r="D116" t="n">
-        <v>1739</v>
+        <v>1610</v>
       </c>
       <c r="E116" t="n">
-        <v>1739</v>
+        <v>1610</v>
       </c>
       <c r="F116" t="n">
-        <v>208.3416</v>
+        <v>21.8611</v>
       </c>
       <c r="G116" t="n">
-        <v>1739</v>
+        <v>-7731.145000000004</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5078,22 +4762,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1751</v>
+        <v>1610</v>
       </c>
       <c r="C117" t="n">
-        <v>1773</v>
+        <v>1618</v>
       </c>
       <c r="D117" t="n">
-        <v>1773</v>
+        <v>1618</v>
       </c>
       <c r="E117" t="n">
-        <v>1751</v>
+        <v>1610</v>
       </c>
       <c r="F117" t="n">
-        <v>265.8471</v>
+        <v>1271.7748</v>
       </c>
       <c r="G117" t="n">
-        <v>1750.333333333333</v>
+        <v>-6459.370200000004</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5118,22 +4802,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1753</v>
+        <v>1619</v>
       </c>
       <c r="C118" t="n">
-        <v>1740</v>
+        <v>1620</v>
       </c>
       <c r="D118" t="n">
-        <v>1753</v>
+        <v>1620</v>
       </c>
       <c r="E118" t="n">
-        <v>1740</v>
+        <v>1619</v>
       </c>
       <c r="F118" t="n">
-        <v>2769.215</v>
+        <v>587</v>
       </c>
       <c r="G118" t="n">
-        <v>1750.666666666667</v>
+        <v>-5872.370200000004</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5158,22 +4842,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1768</v>
+        <v>1621</v>
       </c>
       <c r="C119" t="n">
-        <v>1767</v>
+        <v>1621</v>
       </c>
       <c r="D119" t="n">
-        <v>1768</v>
+        <v>1621</v>
       </c>
       <c r="E119" t="n">
-        <v>1767</v>
+        <v>1621</v>
       </c>
       <c r="F119" t="n">
-        <v>90.48050000000001</v>
+        <v>27.1292</v>
       </c>
       <c r="G119" t="n">
-        <v>1760</v>
+        <v>-5845.241000000004</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5198,22 +4882,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1767</v>
+        <v>1628</v>
       </c>
       <c r="C120" t="n">
-        <v>1774</v>
+        <v>1630</v>
       </c>
       <c r="D120" t="n">
-        <v>1774</v>
+        <v>1630</v>
       </c>
       <c r="E120" t="n">
-        <v>1761</v>
+        <v>1628</v>
       </c>
       <c r="F120" t="n">
-        <v>398.8767</v>
+        <v>1039.54581337</v>
       </c>
       <c r="G120" t="n">
-        <v>1760.333333333333</v>
+        <v>-4805.695186630004</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5238,22 +4922,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1778</v>
+        <v>1617</v>
       </c>
       <c r="C121" t="n">
-        <v>1778</v>
+        <v>1616</v>
       </c>
       <c r="D121" t="n">
-        <v>1778</v>
+        <v>1617</v>
       </c>
       <c r="E121" t="n">
-        <v>1765</v>
+        <v>1616</v>
       </c>
       <c r="F121" t="n">
-        <v>3780.2251</v>
+        <v>0.5</v>
       </c>
       <c r="G121" t="n">
-        <v>1773</v>
+        <v>-4806.195186630004</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5278,22 +4962,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1778</v>
+        <v>1616</v>
       </c>
       <c r="C122" t="n">
-        <v>1798</v>
+        <v>1616</v>
       </c>
       <c r="D122" t="n">
-        <v>1798</v>
+        <v>1616</v>
       </c>
       <c r="E122" t="n">
-        <v>1778</v>
+        <v>1616</v>
       </c>
       <c r="F122" t="n">
-        <v>436.56</v>
+        <v>0.5</v>
       </c>
       <c r="G122" t="n">
-        <v>1783.333333333333</v>
+        <v>-4806.195186630004</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5318,30 +5002,32 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1770</v>
+        <v>1622</v>
       </c>
       <c r="C123" t="n">
-        <v>1762</v>
+        <v>1622</v>
       </c>
       <c r="D123" t="n">
-        <v>1770</v>
+        <v>1622</v>
       </c>
       <c r="E123" t="n">
-        <v>1762</v>
+        <v>1622</v>
       </c>
       <c r="F123" t="n">
-        <v>36.8854</v>
+        <v>216.9794</v>
       </c>
       <c r="G123" t="n">
-        <v>1779.333333333333</v>
+        <v>-4589.215786630004</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1616</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
@@ -5358,22 +5044,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1773</v>
+        <v>1630</v>
       </c>
       <c r="C124" t="n">
-        <v>1782</v>
+        <v>1630</v>
       </c>
       <c r="D124" t="n">
-        <v>1782</v>
+        <v>1630</v>
       </c>
       <c r="E124" t="n">
-        <v>1764</v>
+        <v>1630</v>
       </c>
       <c r="F124" t="n">
-        <v>307.1236</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="G124" t="n">
-        <v>1780.666666666667</v>
+        <v>-4494.815786630004</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5398,22 +5084,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1780</v>
+        <v>1630</v>
       </c>
       <c r="C125" t="n">
-        <v>1781</v>
+        <v>1630</v>
       </c>
       <c r="D125" t="n">
-        <v>1781</v>
+        <v>1630</v>
       </c>
       <c r="E125" t="n">
-        <v>1780</v>
+        <v>1630</v>
       </c>
       <c r="F125" t="n">
-        <v>22.3488</v>
+        <v>47.2</v>
       </c>
       <c r="G125" t="n">
-        <v>1775</v>
+        <v>-4494.815786630004</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5438,22 +5124,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1782</v>
+        <v>1625</v>
       </c>
       <c r="C126" t="n">
-        <v>1781</v>
+        <v>1625</v>
       </c>
       <c r="D126" t="n">
-        <v>1790</v>
+        <v>1625</v>
       </c>
       <c r="E126" t="n">
-        <v>1781</v>
+        <v>1625</v>
       </c>
       <c r="F126" t="n">
-        <v>477.196</v>
+        <v>23.9041</v>
       </c>
       <c r="G126" t="n">
-        <v>1781.333333333333</v>
+        <v>-4518.719886630004</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5478,22 +5164,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1789</v>
+        <v>1624</v>
       </c>
       <c r="C127" t="n">
-        <v>1789</v>
+        <v>1623</v>
       </c>
       <c r="D127" t="n">
-        <v>1789</v>
+        <v>1624</v>
       </c>
       <c r="E127" t="n">
-        <v>1789</v>
+        <v>1623</v>
       </c>
       <c r="F127" t="n">
-        <v>0.118</v>
+        <v>15.7918</v>
       </c>
       <c r="G127" t="n">
-        <v>1783.666666666667</v>
+        <v>-4534.511686630004</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5518,22 +5204,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1771</v>
+        <v>1626</v>
       </c>
       <c r="C128" t="n">
-        <v>1788</v>
+        <v>1626</v>
       </c>
       <c r="D128" t="n">
-        <v>1788</v>
+        <v>1626</v>
       </c>
       <c r="E128" t="n">
-        <v>1771</v>
+        <v>1626</v>
       </c>
       <c r="F128" t="n">
-        <v>15.7712</v>
+        <v>26.9548</v>
       </c>
       <c r="G128" t="n">
-        <v>1786</v>
+        <v>-4507.556886630004</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5558,22 +5244,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1772</v>
+        <v>1623</v>
       </c>
       <c r="C129" t="n">
-        <v>1772</v>
+        <v>1623</v>
       </c>
       <c r="D129" t="n">
-        <v>1772</v>
+        <v>1623</v>
       </c>
       <c r="E129" t="n">
-        <v>1772</v>
+        <v>1623</v>
       </c>
       <c r="F129" t="n">
-        <v>355.3673</v>
+        <v>264.7996</v>
       </c>
       <c r="G129" t="n">
-        <v>1783</v>
+        <v>-4772.356486630004</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5598,22 +5284,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1772</v>
+        <v>1615</v>
       </c>
       <c r="C130" t="n">
-        <v>1772</v>
+        <v>1611</v>
       </c>
       <c r="D130" t="n">
-        <v>1772</v>
+        <v>1615</v>
       </c>
       <c r="E130" t="n">
-        <v>1772</v>
+        <v>1611</v>
       </c>
       <c r="F130" t="n">
-        <v>242.6304</v>
+        <v>0.5</v>
       </c>
       <c r="G130" t="n">
-        <v>1777.333333333333</v>
+        <v>-4772.856486630004</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5638,22 +5324,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1773</v>
+        <v>1610</v>
       </c>
       <c r="C131" t="n">
-        <v>1776</v>
+        <v>1607</v>
       </c>
       <c r="D131" t="n">
-        <v>1776</v>
+        <v>1610</v>
       </c>
       <c r="E131" t="n">
-        <v>1773</v>
+        <v>1607</v>
       </c>
       <c r="F131" t="n">
-        <v>386.5504</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>1773.333333333333</v>
+        <v>-4773.856486630004</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5678,22 +5364,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1773</v>
+        <v>1614</v>
       </c>
       <c r="C132" t="n">
-        <v>1780</v>
+        <v>1614</v>
       </c>
       <c r="D132" t="n">
-        <v>1780</v>
+        <v>1614</v>
       </c>
       <c r="E132" t="n">
-        <v>1773</v>
+        <v>1614</v>
       </c>
       <c r="F132" t="n">
-        <v>33.8166</v>
+        <v>35.6539</v>
       </c>
       <c r="G132" t="n">
-        <v>1776</v>
+        <v>-4738.202586630004</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5718,22 +5404,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1780</v>
+        <v>1617</v>
       </c>
       <c r="C133" t="n">
-        <v>1780</v>
+        <v>1616</v>
       </c>
       <c r="D133" t="n">
-        <v>1780</v>
+        <v>1617</v>
       </c>
       <c r="E133" t="n">
-        <v>1780</v>
+        <v>1616</v>
       </c>
       <c r="F133" t="n">
-        <v>49.8784</v>
+        <v>110.3199</v>
       </c>
       <c r="G133" t="n">
-        <v>1778.666666666667</v>
+        <v>-4627.882686630003</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5758,22 +5444,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1774</v>
+        <v>1611</v>
       </c>
       <c r="C134" t="n">
-        <v>1774</v>
+        <v>1611</v>
       </c>
       <c r="D134" t="n">
-        <v>1774</v>
+        <v>1611</v>
       </c>
       <c r="E134" t="n">
-        <v>1774</v>
+        <v>1611</v>
       </c>
       <c r="F134" t="n">
-        <v>34.3939</v>
+        <v>0.1</v>
       </c>
       <c r="G134" t="n">
-        <v>1778</v>
+        <v>-4627.982686630004</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5798,22 +5484,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1774</v>
+        <v>1615</v>
       </c>
       <c r="C135" t="n">
-        <v>1784</v>
+        <v>1615</v>
       </c>
       <c r="D135" t="n">
-        <v>1784</v>
+        <v>1615</v>
       </c>
       <c r="E135" t="n">
-        <v>1774</v>
+        <v>1615</v>
       </c>
       <c r="F135" t="n">
-        <v>566.5735</v>
+        <v>16.2263</v>
       </c>
       <c r="G135" t="n">
-        <v>1779.333333333333</v>
+        <v>-4611.756386630003</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5838,22 +5524,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1787</v>
+        <v>1622</v>
       </c>
       <c r="C136" t="n">
-        <v>1787</v>
+        <v>1622</v>
       </c>
       <c r="D136" t="n">
-        <v>1787</v>
+        <v>1622</v>
       </c>
       <c r="E136" t="n">
-        <v>1787</v>
+        <v>1622</v>
       </c>
       <c r="F136" t="n">
-        <v>22.4</v>
+        <v>11.47</v>
       </c>
       <c r="G136" t="n">
-        <v>1781.666666666667</v>
+        <v>-4600.286386630003</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5878,22 +5564,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1786</v>
+        <v>1621</v>
       </c>
       <c r="C137" t="n">
-        <v>1786</v>
+        <v>1621</v>
       </c>
       <c r="D137" t="n">
-        <v>1786</v>
+        <v>1621</v>
       </c>
       <c r="E137" t="n">
-        <v>1785</v>
+        <v>1621</v>
       </c>
       <c r="F137" t="n">
-        <v>452.2051</v>
+        <v>20.35</v>
       </c>
       <c r="G137" t="n">
-        <v>1785.666666666667</v>
+        <v>-4620.636386630003</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5918,30 +5604,32 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1786</v>
+        <v>1640</v>
       </c>
       <c r="C138" t="n">
-        <v>1788</v>
+        <v>1640</v>
       </c>
       <c r="D138" t="n">
-        <v>1788</v>
+        <v>1640</v>
       </c>
       <c r="E138" t="n">
-        <v>1786</v>
+        <v>1640</v>
       </c>
       <c r="F138" t="n">
-        <v>44.6655</v>
+        <v>57.61</v>
       </c>
       <c r="G138" t="n">
-        <v>1787</v>
+        <v>-4563.026386630004</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1621</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -5958,30 +5646,32 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1790</v>
+        <v>1635</v>
       </c>
       <c r="C139" t="n">
-        <v>1800</v>
+        <v>1635</v>
       </c>
       <c r="D139" t="n">
-        <v>1800</v>
+        <v>1635</v>
       </c>
       <c r="E139" t="n">
-        <v>1790</v>
+        <v>1635</v>
       </c>
       <c r="F139" t="n">
-        <v>323.7972</v>
+        <v>0.6989</v>
       </c>
       <c r="G139" t="n">
-        <v>1791.333333333333</v>
+        <v>-4563.725286630004</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1640</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
@@ -5998,30 +5688,32 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1800</v>
+        <v>1635</v>
       </c>
       <c r="C140" t="n">
-        <v>1787</v>
+        <v>1635</v>
       </c>
       <c r="D140" t="n">
-        <v>1802</v>
+        <v>1635</v>
       </c>
       <c r="E140" t="n">
-        <v>1787</v>
+        <v>1635</v>
       </c>
       <c r="F140" t="n">
-        <v>1671.3088</v>
+        <v>33.6973</v>
       </c>
       <c r="G140" t="n">
-        <v>1791.666666666667</v>
+        <v>-4563.725286630004</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1635</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -6038,22 +5730,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1801</v>
+        <v>1640</v>
       </c>
       <c r="C141" t="n">
-        <v>1789</v>
+        <v>1640</v>
       </c>
       <c r="D141" t="n">
-        <v>1802</v>
+        <v>1640</v>
       </c>
       <c r="E141" t="n">
-        <v>1789</v>
+        <v>1640</v>
       </c>
       <c r="F141" t="n">
-        <v>261.9938</v>
+        <v>0.1</v>
       </c>
       <c r="G141" t="n">
-        <v>1792</v>
+        <v>-4563.625286630004</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6078,22 +5770,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1802</v>
+        <v>1640</v>
       </c>
       <c r="C142" t="n">
-        <v>1802</v>
+        <v>1640</v>
       </c>
       <c r="D142" t="n">
-        <v>1802</v>
+        <v>1640</v>
       </c>
       <c r="E142" t="n">
-        <v>1802</v>
+        <v>1640</v>
       </c>
       <c r="F142" t="n">
-        <v>0.1</v>
+        <v>392.5974</v>
       </c>
       <c r="G142" t="n">
-        <v>1792.666666666667</v>
+        <v>-4563.625286630004</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6118,22 +5810,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1790</v>
+        <v>1636</v>
       </c>
       <c r="C143" t="n">
-        <v>1790</v>
+        <v>1636</v>
       </c>
       <c r="D143" t="n">
-        <v>1790</v>
+        <v>1636</v>
       </c>
       <c r="E143" t="n">
-        <v>1790</v>
+        <v>1636</v>
       </c>
       <c r="F143" t="n">
         <v>0.1</v>
       </c>
       <c r="G143" t="n">
-        <v>1793.666666666667</v>
+        <v>-4563.725286630004</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6158,22 +5850,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1801</v>
+        <v>1647</v>
       </c>
       <c r="C144" t="n">
-        <v>1790</v>
+        <v>1647</v>
       </c>
       <c r="D144" t="n">
-        <v>1801</v>
+        <v>1647</v>
       </c>
       <c r="E144" t="n">
-        <v>1790</v>
+        <v>1647</v>
       </c>
       <c r="F144" t="n">
-        <v>0.2</v>
+        <v>0.118</v>
       </c>
       <c r="G144" t="n">
-        <v>1794</v>
+        <v>-4563.607286630004</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6198,22 +5890,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1790</v>
+        <v>1646</v>
       </c>
       <c r="C145" t="n">
-        <v>1789</v>
+        <v>1649</v>
       </c>
       <c r="D145" t="n">
-        <v>1790</v>
+        <v>1649</v>
       </c>
       <c r="E145" t="n">
-        <v>1789</v>
+        <v>1646</v>
       </c>
       <c r="F145" t="n">
-        <v>629.4391000000001</v>
+        <v>909.6422</v>
       </c>
       <c r="G145" t="n">
-        <v>1789.666666666667</v>
+        <v>-3653.965086630003</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6238,22 +5930,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1790</v>
+        <v>1643</v>
       </c>
       <c r="C146" t="n">
-        <v>1790</v>
+        <v>1649</v>
       </c>
       <c r="D146" t="n">
-        <v>1790</v>
+        <v>1649</v>
       </c>
       <c r="E146" t="n">
-        <v>1790</v>
+        <v>1643</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0001</v>
+        <v>15.3465</v>
       </c>
       <c r="G146" t="n">
-        <v>1789.666666666667</v>
+        <v>-3653.965086630003</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6278,22 +5970,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1802</v>
+        <v>1644</v>
       </c>
       <c r="C147" t="n">
-        <v>1792</v>
+        <v>1644</v>
       </c>
       <c r="D147" t="n">
-        <v>1802</v>
+        <v>1644</v>
       </c>
       <c r="E147" t="n">
-        <v>1792</v>
+        <v>1644</v>
       </c>
       <c r="F147" t="n">
-        <v>2034.2415</v>
+        <v>17.4151</v>
       </c>
       <c r="G147" t="n">
-        <v>1790.333333333333</v>
+        <v>-3671.380186630004</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6318,22 +6010,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1800</v>
+        <v>1644</v>
       </c>
       <c r="C148" t="n">
-        <v>1800</v>
+        <v>1644</v>
       </c>
       <c r="D148" t="n">
-        <v>1800</v>
+        <v>1644</v>
       </c>
       <c r="E148" t="n">
-        <v>1790</v>
+        <v>1644</v>
       </c>
       <c r="F148" t="n">
-        <v>14.639</v>
+        <v>27.77</v>
       </c>
       <c r="G148" t="n">
-        <v>1794</v>
+        <v>-3671.380186630004</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6358,22 +6050,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1807</v>
+        <v>1650</v>
       </c>
       <c r="C149" t="n">
-        <v>1791</v>
+        <v>1650</v>
       </c>
       <c r="D149" t="n">
-        <v>1808</v>
+        <v>1650</v>
       </c>
       <c r="E149" t="n">
-        <v>1791</v>
+        <v>1650</v>
       </c>
       <c r="F149" t="n">
-        <v>116.3291761</v>
+        <v>6.2071</v>
       </c>
       <c r="G149" t="n">
-        <v>1794.333333333333</v>
+        <v>-3665.173086630004</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6398,22 +6090,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1808</v>
+        <v>1657</v>
       </c>
       <c r="C150" t="n">
-        <v>1808</v>
+        <v>1657</v>
       </c>
       <c r="D150" t="n">
-        <v>1808</v>
+        <v>1657</v>
       </c>
       <c r="E150" t="n">
-        <v>1808</v>
+        <v>1657</v>
       </c>
       <c r="F150" t="n">
-        <v>29.1</v>
+        <v>0.11</v>
       </c>
       <c r="G150" t="n">
-        <v>1799.666666666667</v>
+        <v>-3665.063086630003</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6438,22 +6130,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1791</v>
+        <v>1658</v>
       </c>
       <c r="C151" t="n">
-        <v>1789</v>
+        <v>1658</v>
       </c>
       <c r="D151" t="n">
-        <v>1791</v>
+        <v>1658</v>
       </c>
       <c r="E151" t="n">
-        <v>1789</v>
+        <v>1658</v>
       </c>
       <c r="F151" t="n">
-        <v>128.0189</v>
+        <v>18</v>
       </c>
       <c r="G151" t="n">
-        <v>1796</v>
+        <v>-3647.063086630003</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6478,22 +6170,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1805</v>
+        <v>1658</v>
       </c>
       <c r="C152" t="n">
-        <v>1810</v>
+        <v>1658</v>
       </c>
       <c r="D152" t="n">
-        <v>1810</v>
+        <v>1658</v>
       </c>
       <c r="E152" t="n">
-        <v>1805</v>
+        <v>1658</v>
       </c>
       <c r="F152" t="n">
-        <v>1026.7054</v>
+        <v>31.9999</v>
       </c>
       <c r="G152" t="n">
-        <v>1802.333333333333</v>
+        <v>-3647.063086630003</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6518,22 +6210,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1810</v>
+        <v>1658</v>
       </c>
       <c r="C153" t="n">
-        <v>1812</v>
+        <v>1668</v>
       </c>
       <c r="D153" t="n">
-        <v>1812</v>
+        <v>1668</v>
       </c>
       <c r="E153" t="n">
-        <v>1810</v>
+        <v>1658</v>
       </c>
       <c r="F153" t="n">
-        <v>459.7014</v>
+        <v>0.1</v>
       </c>
       <c r="G153" t="n">
-        <v>1803.666666666667</v>
+        <v>-3646.963086630004</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6558,22 +6250,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1812</v>
+        <v>1659</v>
       </c>
       <c r="C154" t="n">
-        <v>1812</v>
+        <v>1659</v>
       </c>
       <c r="D154" t="n">
-        <v>1812</v>
+        <v>1659</v>
       </c>
       <c r="E154" t="n">
-        <v>1812</v>
+        <v>1659</v>
       </c>
       <c r="F154" t="n">
-        <v>49.2218</v>
+        <v>15.3484</v>
       </c>
       <c r="G154" t="n">
-        <v>1811.333333333333</v>
+        <v>-3662.311486630003</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6598,22 +6290,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1812</v>
+        <v>1685</v>
       </c>
       <c r="C155" t="n">
-        <v>1828</v>
+        <v>1686</v>
       </c>
       <c r="D155" t="n">
-        <v>1828</v>
+        <v>1686</v>
       </c>
       <c r="E155" t="n">
-        <v>1812</v>
+        <v>1685</v>
       </c>
       <c r="F155" t="n">
-        <v>1970.11196132</v>
+        <v>24.422</v>
       </c>
       <c r="G155" t="n">
-        <v>1817.333333333333</v>
+        <v>-3637.889486630003</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6638,22 +6330,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1828</v>
+        <v>1686</v>
       </c>
       <c r="C156" t="n">
-        <v>1828</v>
+        <v>1699</v>
       </c>
       <c r="D156" t="n">
-        <v>1828</v>
+        <v>1699</v>
       </c>
       <c r="E156" t="n">
-        <v>1828</v>
+        <v>1686</v>
       </c>
       <c r="F156" t="n">
-        <v>564.69857768</v>
+        <v>1363.8355</v>
       </c>
       <c r="G156" t="n">
-        <v>1822.666666666667</v>
+        <v>-2274.053986630003</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6678,22 +6370,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1828</v>
+        <v>1695</v>
       </c>
       <c r="C157" t="n">
-        <v>1828</v>
+        <v>1679</v>
       </c>
       <c r="D157" t="n">
-        <v>1828</v>
+        <v>1695</v>
       </c>
       <c r="E157" t="n">
-        <v>1812</v>
+        <v>1679</v>
       </c>
       <c r="F157" t="n">
-        <v>155.2598</v>
+        <v>1500.699</v>
       </c>
       <c r="G157" t="n">
-        <v>1828</v>
+        <v>-3774.752986630003</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6718,22 +6410,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1825</v>
+        <v>1698</v>
       </c>
       <c r="C158" t="n">
-        <v>1825</v>
+        <v>1698</v>
       </c>
       <c r="D158" t="n">
-        <v>1825</v>
+        <v>1698</v>
       </c>
       <c r="E158" t="n">
-        <v>1825</v>
+        <v>1698</v>
       </c>
       <c r="F158" t="n">
-        <v>132.418</v>
+        <v>0.1</v>
       </c>
       <c r="G158" t="n">
-        <v>1827</v>
+        <v>-3774.652986630003</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6758,22 +6450,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1824</v>
+        <v>1676</v>
       </c>
       <c r="C159" t="n">
-        <v>1828</v>
+        <v>1676</v>
       </c>
       <c r="D159" t="n">
-        <v>1828</v>
+        <v>1676</v>
       </c>
       <c r="E159" t="n">
-        <v>1824</v>
+        <v>1676</v>
       </c>
       <c r="F159" t="n">
-        <v>1008.7091</v>
+        <v>0.1</v>
       </c>
       <c r="G159" t="n">
-        <v>1827</v>
+        <v>-3774.752986630003</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6798,22 +6490,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1822</v>
+        <v>1695</v>
       </c>
       <c r="C160" t="n">
-        <v>1828</v>
+        <v>1695</v>
       </c>
       <c r="D160" t="n">
-        <v>1828</v>
+        <v>1695</v>
       </c>
       <c r="E160" t="n">
-        <v>1822</v>
+        <v>1695</v>
       </c>
       <c r="F160" t="n">
-        <v>1602.61885185</v>
+        <v>0.1</v>
       </c>
       <c r="G160" t="n">
-        <v>1827</v>
+        <v>-3774.652986630003</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6838,22 +6530,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1828</v>
+        <v>1674</v>
       </c>
       <c r="C161" t="n">
-        <v>1827</v>
+        <v>1672</v>
       </c>
       <c r="D161" t="n">
-        <v>1828</v>
+        <v>1687</v>
       </c>
       <c r="E161" t="n">
-        <v>1827</v>
+        <v>1672</v>
       </c>
       <c r="F161" t="n">
-        <v>480.2999</v>
+        <v>0.4</v>
       </c>
       <c r="G161" t="n">
-        <v>1827.666666666667</v>
+        <v>-3775.052986630003</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6878,22 +6570,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1828</v>
+        <v>1687</v>
       </c>
       <c r="C162" t="n">
-        <v>1850</v>
+        <v>1670</v>
       </c>
       <c r="D162" t="n">
-        <v>1850</v>
+        <v>1687</v>
       </c>
       <c r="E162" t="n">
-        <v>1828</v>
+        <v>1670</v>
       </c>
       <c r="F162" t="n">
-        <v>1976</v>
+        <v>0.3</v>
       </c>
       <c r="G162" t="n">
-        <v>1835</v>
+        <v>-3775.352986630004</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6918,22 +6610,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1850</v>
+        <v>1684</v>
       </c>
       <c r="C163" t="n">
-        <v>1866</v>
+        <v>1673</v>
       </c>
       <c r="D163" t="n">
-        <v>1866</v>
+        <v>1684</v>
       </c>
       <c r="E163" t="n">
-        <v>1850</v>
+        <v>1673</v>
       </c>
       <c r="F163" t="n">
-        <v>550.0151091499999</v>
+        <v>0.298</v>
       </c>
       <c r="G163" t="n">
-        <v>1847.666666666667</v>
+        <v>-3775.054986630004</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6958,22 +6650,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1866</v>
+        <v>1683</v>
       </c>
       <c r="C164" t="n">
-        <v>1866</v>
+        <v>1683</v>
       </c>
       <c r="D164" t="n">
-        <v>1866</v>
+        <v>1683</v>
       </c>
       <c r="E164" t="n">
-        <v>1866</v>
+        <v>1670</v>
       </c>
       <c r="F164" t="n">
-        <v>177.1159</v>
+        <v>0.5</v>
       </c>
       <c r="G164" t="n">
-        <v>1860.666666666667</v>
+        <v>-3774.554986630004</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6998,37 +6690,39 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1866</v>
+        <v>1671</v>
       </c>
       <c r="C165" t="n">
-        <v>1869</v>
+        <v>1671</v>
       </c>
       <c r="D165" t="n">
-        <v>1869</v>
+        <v>1683</v>
       </c>
       <c r="E165" t="n">
-        <v>1866</v>
+        <v>1671</v>
       </c>
       <c r="F165" t="n">
-        <v>1626.2253</v>
+        <v>0.9</v>
       </c>
       <c r="G165" t="n">
-        <v>1867</v>
+        <v>-3775.454986630004</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M165" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
       <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
@@ -7036,32 +6730,36 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1877</v>
+        <v>1671</v>
       </c>
       <c r="C166" t="n">
-        <v>1869</v>
+        <v>1672</v>
       </c>
       <c r="D166" t="n">
-        <v>1877</v>
+        <v>1683</v>
       </c>
       <c r="E166" t="n">
-        <v>1858</v>
+        <v>1671</v>
       </c>
       <c r="F166" t="n">
-        <v>1348.973</v>
+        <v>1.9</v>
       </c>
       <c r="G166" t="n">
-        <v>1868</v>
+        <v>-3773.554986630004</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7072,32 +6770,36 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1869</v>
+        <v>1670</v>
       </c>
       <c r="C167" t="n">
-        <v>1869</v>
+        <v>1670</v>
       </c>
       <c r="D167" t="n">
-        <v>1877</v>
+        <v>1670</v>
       </c>
       <c r="E167" t="n">
-        <v>1869</v>
+        <v>1670</v>
       </c>
       <c r="F167" t="n">
-        <v>2274.05702215</v>
+        <v>0.2</v>
       </c>
       <c r="G167" t="n">
-        <v>1869</v>
+        <v>-3773.754986630004</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7108,32 +6810,36 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1869</v>
+        <v>1681</v>
       </c>
       <c r="C168" t="n">
-        <v>1869</v>
+        <v>1681</v>
       </c>
       <c r="D168" t="n">
-        <v>1878</v>
+        <v>1681</v>
       </c>
       <c r="E168" t="n">
-        <v>1869</v>
+        <v>1681</v>
       </c>
       <c r="F168" t="n">
-        <v>1988.40141585</v>
+        <v>0.1</v>
       </c>
       <c r="G168" t="n">
-        <v>1869</v>
+        <v>-3773.654986630004</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7144,32 +6850,36 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1869</v>
+        <v>1682</v>
       </c>
       <c r="C169" t="n">
-        <v>1847</v>
+        <v>1682</v>
       </c>
       <c r="D169" t="n">
-        <v>1875</v>
+        <v>1682</v>
       </c>
       <c r="E169" t="n">
-        <v>1847</v>
+        <v>1682</v>
       </c>
       <c r="F169" t="n">
-        <v>192.3552</v>
+        <v>0.11</v>
       </c>
       <c r="G169" t="n">
-        <v>1861.666666666667</v>
+        <v>-3773.544986630004</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7180,32 +6890,36 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1848</v>
+        <v>1671</v>
       </c>
       <c r="C170" t="n">
-        <v>1848</v>
+        <v>1671</v>
       </c>
       <c r="D170" t="n">
-        <v>1848</v>
+        <v>1671</v>
       </c>
       <c r="E170" t="n">
-        <v>1848</v>
+        <v>1671</v>
       </c>
       <c r="F170" t="n">
-        <v>132.0869</v>
+        <v>15.2329</v>
       </c>
       <c r="G170" t="n">
-        <v>1854.666666666667</v>
+        <v>-3788.777886630004</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7216,32 +6930,36 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1847</v>
+        <v>1682</v>
       </c>
       <c r="C171" t="n">
-        <v>1847</v>
+        <v>1682</v>
       </c>
       <c r="D171" t="n">
-        <v>1847</v>
+        <v>1682</v>
       </c>
       <c r="E171" t="n">
-        <v>1847</v>
+        <v>1682</v>
       </c>
       <c r="F171" t="n">
-        <v>56.62972744</v>
+        <v>55.5237</v>
       </c>
       <c r="G171" t="n">
-        <v>1847.333333333333</v>
+        <v>-3733.254186630003</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7252,32 +6970,36 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1846</v>
+        <v>1683</v>
       </c>
       <c r="C172" t="n">
-        <v>1846</v>
+        <v>1683</v>
       </c>
       <c r="D172" t="n">
-        <v>1846</v>
+        <v>1683</v>
       </c>
       <c r="E172" t="n">
-        <v>1846</v>
+        <v>1683</v>
       </c>
       <c r="F172" t="n">
-        <v>200.8528</v>
+        <v>160.06</v>
       </c>
       <c r="G172" t="n">
-        <v>1847</v>
+        <v>-3573.194186630004</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7288,32 +7010,36 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1830</v>
+        <v>1683</v>
       </c>
       <c r="C173" t="n">
-        <v>1830</v>
+        <v>1683</v>
       </c>
       <c r="D173" t="n">
-        <v>1830</v>
+        <v>1683</v>
       </c>
       <c r="E173" t="n">
-        <v>1830</v>
+        <v>1683</v>
       </c>
       <c r="F173" t="n">
-        <v>19.3144</v>
+        <v>397.9699</v>
       </c>
       <c r="G173" t="n">
-        <v>1841</v>
+        <v>-3573.194186630004</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7324,32 +7050,36 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1829</v>
+        <v>1683</v>
       </c>
       <c r="C174" t="n">
-        <v>1827</v>
+        <v>1683</v>
       </c>
       <c r="D174" t="n">
-        <v>1829</v>
+        <v>1683</v>
       </c>
       <c r="E174" t="n">
-        <v>1827</v>
+        <v>1683</v>
       </c>
       <c r="F174" t="n">
-        <v>141.0957</v>
+        <v>56.8512</v>
       </c>
       <c r="G174" t="n">
-        <v>1834.333333333333</v>
+        <v>-3573.194186630004</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7360,32 +7090,36 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1827</v>
+        <v>1684</v>
       </c>
       <c r="C175" t="n">
-        <v>1789</v>
+        <v>1684</v>
       </c>
       <c r="D175" t="n">
-        <v>1827</v>
+        <v>1684</v>
       </c>
       <c r="E175" t="n">
-        <v>1789</v>
+        <v>1684</v>
       </c>
       <c r="F175" t="n">
-        <v>415.503</v>
+        <v>1582.3453</v>
       </c>
       <c r="G175" t="n">
-        <v>1815.333333333333</v>
+        <v>-1990.848886630004</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7396,32 +7130,36 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1790</v>
+        <v>1684</v>
       </c>
       <c r="C176" t="n">
-        <v>1790</v>
+        <v>1684</v>
       </c>
       <c r="D176" t="n">
-        <v>1790</v>
+        <v>1684</v>
       </c>
       <c r="E176" t="n">
-        <v>1790</v>
+        <v>1684</v>
       </c>
       <c r="F176" t="n">
-        <v>260.3413</v>
+        <v>674.4822</v>
       </c>
       <c r="G176" t="n">
-        <v>1802</v>
+        <v>-1990.848886630004</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7432,32 +7170,36 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1809</v>
+        <v>1684</v>
       </c>
       <c r="C177" t="n">
-        <v>1809</v>
+        <v>1684</v>
       </c>
       <c r="D177" t="n">
-        <v>1809</v>
+        <v>1684</v>
       </c>
       <c r="E177" t="n">
-        <v>1809</v>
+        <v>1684</v>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>221.7808</v>
       </c>
       <c r="G177" t="n">
-        <v>1796</v>
+        <v>-1990.848886630004</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7468,32 +7210,36 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1803</v>
+        <v>1694</v>
       </c>
       <c r="C178" t="n">
-        <v>1803</v>
+        <v>1694</v>
       </c>
       <c r="D178" t="n">
-        <v>1803</v>
+        <v>1694</v>
       </c>
       <c r="E178" t="n">
-        <v>1803</v>
+        <v>1694</v>
       </c>
       <c r="F178" t="n">
-        <v>21.1713</v>
+        <v>0.1</v>
       </c>
       <c r="G178" t="n">
-        <v>1800.666666666667</v>
+        <v>-1990.748886630004</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7504,32 +7250,36 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1803</v>
+        <v>1695</v>
       </c>
       <c r="C179" t="n">
-        <v>1804</v>
+        <v>1695</v>
       </c>
       <c r="D179" t="n">
-        <v>1804</v>
+        <v>1695</v>
       </c>
       <c r="E179" t="n">
-        <v>1803</v>
+        <v>1695</v>
       </c>
       <c r="F179" t="n">
-        <v>531.5297</v>
+        <v>173.4199</v>
       </c>
       <c r="G179" t="n">
-        <v>1805.333333333333</v>
+        <v>-1817.328986630004</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7540,32 +7290,36 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1804</v>
+        <v>1695</v>
       </c>
       <c r="C180" t="n">
-        <v>1804</v>
+        <v>1719</v>
       </c>
       <c r="D180" t="n">
-        <v>1804</v>
+        <v>1719</v>
       </c>
       <c r="E180" t="n">
-        <v>1804</v>
+        <v>1695</v>
       </c>
       <c r="F180" t="n">
-        <v>0.1732</v>
+        <v>1715.89</v>
       </c>
       <c r="G180" t="n">
-        <v>1803.666666666667</v>
+        <v>-101.4389866300035</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7576,32 +7330,36 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1828</v>
+        <v>1719</v>
       </c>
       <c r="C181" t="n">
-        <v>1801</v>
+        <v>1719</v>
       </c>
       <c r="D181" t="n">
-        <v>1861</v>
+        <v>1719</v>
       </c>
       <c r="E181" t="n">
-        <v>1801</v>
+        <v>1719</v>
       </c>
       <c r="F181" t="n">
-        <v>216.6892</v>
+        <v>10</v>
       </c>
       <c r="G181" t="n">
-        <v>1803</v>
+        <v>-101.4389866300035</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7612,36 +7370,2802 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1860</v>
+        <v>1720</v>
       </c>
       <c r="C182" t="n">
-        <v>1860</v>
+        <v>1720</v>
       </c>
       <c r="D182" t="n">
-        <v>1860</v>
+        <v>1720</v>
       </c>
       <c r="E182" t="n">
-        <v>1860</v>
+        <v>1720</v>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>453.2557</v>
       </c>
       <c r="G182" t="n">
-        <v>1821.666666666667</v>
+        <v>351.8167133699965</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
       <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1732</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1732</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1732</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1732</v>
+      </c>
+      <c r="F183" t="n">
+        <v>305</v>
+      </c>
+      <c r="G183" t="n">
+        <v>656.8167133699965</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1733</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1733</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1733</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1733</v>
+      </c>
+      <c r="F184" t="n">
+        <v>17.657</v>
+      </c>
+      <c r="G184" t="n">
+        <v>674.4737133699965</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1739</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1739</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1739</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1739</v>
+      </c>
+      <c r="F185" t="n">
+        <v>17.251</v>
+      </c>
+      <c r="G185" t="n">
+        <v>691.7247133699965</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1734</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1739</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1739</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1732</v>
+      </c>
+      <c r="F186" t="n">
+        <v>474.8211</v>
+      </c>
+      <c r="G186" t="n">
+        <v>691.7247133699965</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1739</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1739</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1739</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1739</v>
+      </c>
+      <c r="F187" t="n">
+        <v>208.3416</v>
+      </c>
+      <c r="G187" t="n">
+        <v>691.7247133699965</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1751</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1773</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1773</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1751</v>
+      </c>
+      <c r="F188" t="n">
+        <v>265.8471</v>
+      </c>
+      <c r="G188" t="n">
+        <v>957.5718133699966</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1753</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1753</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1740</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2769.215</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-1811.643186630004</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1768</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1767</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1768</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1767</v>
+      </c>
+      <c r="F190" t="n">
+        <v>90.48050000000001</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-1721.162686630003</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1767</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1774</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1774</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1761</v>
+      </c>
+      <c r="F191" t="n">
+        <v>398.8767</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-1322.285986630003</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1778</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1778</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1778</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1765</v>
+      </c>
+      <c r="F192" t="n">
+        <v>3780.2251</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2457.939113369996</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1778</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1798</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1798</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1778</v>
+      </c>
+      <c r="F193" t="n">
+        <v>436.56</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2894.499113369996</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1770</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1762</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1770</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1762</v>
+      </c>
+      <c r="F194" t="n">
+        <v>36.8854</v>
+      </c>
+      <c r="G194" t="n">
+        <v>2857.613713369996</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1773</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1782</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1782</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1764</v>
+      </c>
+      <c r="F195" t="n">
+        <v>307.1236</v>
+      </c>
+      <c r="G195" t="n">
+        <v>3164.737313369996</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1780</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1781</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1781</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1780</v>
+      </c>
+      <c r="F196" t="n">
+        <v>22.3488</v>
+      </c>
+      <c r="G196" t="n">
+        <v>3142.388513369996</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1782</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1781</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1790</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1781</v>
+      </c>
+      <c r="F197" t="n">
+        <v>477.196</v>
+      </c>
+      <c r="G197" t="n">
+        <v>3142.388513369996</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1789</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1789</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1789</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1789</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="G198" t="n">
+        <v>3142.506513369996</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1771</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1788</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1788</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1771</v>
+      </c>
+      <c r="F199" t="n">
+        <v>15.7712</v>
+      </c>
+      <c r="G199" t="n">
+        <v>3126.735313369996</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1772</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1772</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1772</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1772</v>
+      </c>
+      <c r="F200" t="n">
+        <v>355.3673</v>
+      </c>
+      <c r="G200" t="n">
+        <v>2771.368013369996</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1772</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1772</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1772</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1772</v>
+      </c>
+      <c r="F201" t="n">
+        <v>242.6304</v>
+      </c>
+      <c r="G201" t="n">
+        <v>2771.368013369996</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1773</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1776</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1776</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1773</v>
+      </c>
+      <c r="F202" t="n">
+        <v>386.5504</v>
+      </c>
+      <c r="G202" t="n">
+        <v>3157.918413369996</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1773</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1780</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1780</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1773</v>
+      </c>
+      <c r="F203" t="n">
+        <v>33.8166</v>
+      </c>
+      <c r="G203" t="n">
+        <v>3191.735013369996</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1780</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1780</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1780</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1780</v>
+      </c>
+      <c r="F204" t="n">
+        <v>49.8784</v>
+      </c>
+      <c r="G204" t="n">
+        <v>3191.735013369996</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1774</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1774</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1774</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F205" t="n">
+        <v>34.3939</v>
+      </c>
+      <c r="G205" t="n">
+        <v>3157.341113369996</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1774</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1784</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1784</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F206" t="n">
+        <v>566.5735</v>
+      </c>
+      <c r="G206" t="n">
+        <v>3723.914613369996</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1787</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1787</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1787</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1787</v>
+      </c>
+      <c r="F207" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="G207" t="n">
+        <v>3746.314613369996</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1786</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1786</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1786</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1785</v>
+      </c>
+      <c r="F208" t="n">
+        <v>452.2051</v>
+      </c>
+      <c r="G208" t="n">
+        <v>3294.109513369996</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1786</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1788</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1788</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1786</v>
+      </c>
+      <c r="F209" t="n">
+        <v>44.6655</v>
+      </c>
+      <c r="G209" t="n">
+        <v>3338.775013369996</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1790</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1790</v>
+      </c>
+      <c r="F210" t="n">
+        <v>323.7972</v>
+      </c>
+      <c r="G210" t="n">
+        <v>3662.572213369996</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1787</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1802</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1787</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1671.3088</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1991.263413369996</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1801</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1789</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1802</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1789</v>
+      </c>
+      <c r="F212" t="n">
+        <v>261.9938</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2253.257213369996</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1802</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1802</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1802</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1802</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2253.357213369996</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1790</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1790</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1790</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1790</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2253.257213369996</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1801</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1790</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1801</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1790</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G215" t="n">
+        <v>2253.257213369996</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1790</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1789</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1790</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1789</v>
+      </c>
+      <c r="F216" t="n">
+        <v>629.4391000000001</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1623.818113369996</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1790</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1790</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1790</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1790</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1623.818213369996</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1802</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1792</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1802</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1792</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2034.2415</v>
+      </c>
+      <c r="G218" t="n">
+        <v>3658.059713369996</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1790</v>
+      </c>
+      <c r="F219" t="n">
+        <v>14.639</v>
+      </c>
+      <c r="G219" t="n">
+        <v>3672.698713369996</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1807</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1791</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1808</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1791</v>
+      </c>
+      <c r="F220" t="n">
+        <v>116.3291761</v>
+      </c>
+      <c r="G220" t="n">
+        <v>3556.369537269996</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1808</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1808</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1808</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1808</v>
+      </c>
+      <c r="F221" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="G221" t="n">
+        <v>3585.469537269996</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1791</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1789</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1791</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1789</v>
+      </c>
+      <c r="F222" t="n">
+        <v>128.0189</v>
+      </c>
+      <c r="G222" t="n">
+        <v>3457.450637269996</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1805</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1810</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1810</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1805</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1026.7054</v>
+      </c>
+      <c r="G223" t="n">
+        <v>4484.156037269996</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1810</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1812</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1812</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1810</v>
+      </c>
+      <c r="F224" t="n">
+        <v>459.7014</v>
+      </c>
+      <c r="G224" t="n">
+        <v>4943.857437269996</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1812</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1812</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1812</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1812</v>
+      </c>
+      <c r="F225" t="n">
+        <v>49.2218</v>
+      </c>
+      <c r="G225" t="n">
+        <v>4943.857437269996</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1812</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1828</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1828</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1812</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1970.11196132</v>
+      </c>
+      <c r="G226" t="n">
+        <v>6913.969398589996</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1828</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1828</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1828</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1828</v>
+      </c>
+      <c r="F227" t="n">
+        <v>564.69857768</v>
+      </c>
+      <c r="G227" t="n">
+        <v>6913.969398589996</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1828</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1828</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1828</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1812</v>
+      </c>
+      <c r="F228" t="n">
+        <v>155.2598</v>
+      </c>
+      <c r="G228" t="n">
+        <v>6913.969398589996</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1825</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1825</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1825</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1825</v>
+      </c>
+      <c r="F229" t="n">
+        <v>132.418</v>
+      </c>
+      <c r="G229" t="n">
+        <v>6781.551398589996</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1824</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1828</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1828</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1824</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1008.7091</v>
+      </c>
+      <c r="G230" t="n">
+        <v>7790.260498589996</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1822</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1828</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1828</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1822</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1602.61885185</v>
+      </c>
+      <c r="G231" t="n">
+        <v>7790.260498589996</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1828</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1827</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1828</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1827</v>
+      </c>
+      <c r="F232" t="n">
+        <v>480.2999</v>
+      </c>
+      <c r="G232" t="n">
+        <v>7309.960598589996</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1828</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1850</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1850</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1828</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1976</v>
+      </c>
+      <c r="G233" t="n">
+        <v>9285.960598589996</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1866</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1866</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F234" t="n">
+        <v>550.0151091499999</v>
+      </c>
+      <c r="G234" t="n">
+        <v>9835.975707739995</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1866</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1866</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1866</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1866</v>
+      </c>
+      <c r="F235" t="n">
+        <v>177.1159</v>
+      </c>
+      <c r="G235" t="n">
+        <v>9835.975707739995</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1866</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1869</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1869</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1866</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1626.2253</v>
+      </c>
+      <c r="G236" t="n">
+        <v>11462.20100774</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1877</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1869</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1877</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1858</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1348.973</v>
+      </c>
+      <c r="G237" t="n">
+        <v>11462.20100774</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1869</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1869</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1877</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1869</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2274.05702215</v>
+      </c>
+      <c r="G238" t="n">
+        <v>11462.20100774</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1869</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1869</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1878</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1869</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1988.40141585</v>
+      </c>
+      <c r="G239" t="n">
+        <v>11462.20100774</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1869</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1847</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1875</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1847</v>
+      </c>
+      <c r="F240" t="n">
+        <v>192.3552</v>
+      </c>
+      <c r="G240" t="n">
+        <v>11269.84580774</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1848</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1848</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1848</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1848</v>
+      </c>
+      <c r="F241" t="n">
+        <v>132.0869</v>
+      </c>
+      <c r="G241" t="n">
+        <v>11401.93270774</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1847</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1847</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1847</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1847</v>
+      </c>
+      <c r="F242" t="n">
+        <v>56.62972744</v>
+      </c>
+      <c r="G242" t="n">
+        <v>11345.3029803</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1846</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1846</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1846</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1846</v>
+      </c>
+      <c r="F243" t="n">
+        <v>200.8528</v>
+      </c>
+      <c r="G243" t="n">
+        <v>11144.45018029999</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1830</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1830</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1830</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1830</v>
+      </c>
+      <c r="F244" t="n">
+        <v>19.3144</v>
+      </c>
+      <c r="G244" t="n">
+        <v>11125.1357803</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1829</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1827</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1829</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1827</v>
+      </c>
+      <c r="F245" t="n">
+        <v>141.0957</v>
+      </c>
+      <c r="G245" t="n">
+        <v>10984.0400803</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1827</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1789</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1827</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1789</v>
+      </c>
+      <c r="F246" t="n">
+        <v>415.503</v>
+      </c>
+      <c r="G246" t="n">
+        <v>10568.5370803</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1790</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1790</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1790</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1790</v>
+      </c>
+      <c r="F247" t="n">
+        <v>260.3413</v>
+      </c>
+      <c r="G247" t="n">
+        <v>10828.8783803</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>1</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1809</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1809</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1809</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1809</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1</v>
+      </c>
+      <c r="G248" t="n">
+        <v>10829.8783803</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1803</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1803</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1803</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1803</v>
+      </c>
+      <c r="F249" t="n">
+        <v>21.1713</v>
+      </c>
+      <c r="G249" t="n">
+        <v>10808.7070803</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1803</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1804</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1804</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1803</v>
+      </c>
+      <c r="F250" t="n">
+        <v>531.5297</v>
+      </c>
+      <c r="G250" t="n">
+        <v>11340.23678029999</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1804</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1804</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1804</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1804</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.1732</v>
+      </c>
+      <c r="G251" t="n">
+        <v>11340.23678029999</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1828</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1801</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1861</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1801</v>
+      </c>
+      <c r="F252" t="n">
+        <v>216.6892</v>
+      </c>
+      <c r="G252" t="n">
+        <v>11123.54758029999</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1860</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1860</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1860</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1860</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1</v>
+      </c>
+      <c r="G253" t="n">
+        <v>11124.54758029999</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest HC.xlsx
+++ b/BackTest/2019-10-27 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N253"/>
+  <dimension ref="A1:M253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-2487.861900000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-2372.532000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-2372.632000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-2372.632000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-2324.152100000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-2126.665500000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-2406.665400000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-2565.065400000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-2565.165400000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-2565.365400000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-2379.7725</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-3506.985600000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,24 +2926,15 @@
         <v>-12550.3478</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3198,24 +2959,15 @@
         <v>-13922.8416</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3240,24 +2992,15 @@
         <v>-13719.0344</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3282,24 +3025,15 @@
         <v>-13719.1344</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1606</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3324,24 +3058,15 @@
         <v>-13663.3939</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3368,20 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3408,20 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3448,20 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3488,20 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3528,20 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3568,20 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3608,20 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3648,20 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3688,20 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3728,20 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3768,20 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3808,20 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3848,20 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3888,20 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3926,24 +3553,15 @@
         <v>-12637.0999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3968,24 +3586,15 @@
         <v>-12637.1999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1606</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4010,24 +3619,15 @@
         <v>-12637.0819</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4052,24 +3652,15 @@
         <v>-12637.1819</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1606</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4094,24 +3685,15 @@
         <v>-10769.0869</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4136,24 +3718,15 @@
         <v>-10769.1869</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4178,24 +3751,15 @@
         <v>-6992.880700000004</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4222,20 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4262,20 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4302,20 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4342,20 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4382,20 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4422,20 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4462,20 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4502,20 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4542,20 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4582,20 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4622,20 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4662,20 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4702,20 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4742,20 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4782,20 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4820,22 +4279,19 @@
         <v>-5872.370200000004</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>1618</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1618</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4860,22 +4316,23 @@
         <v>-5845.241000000004</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>1620</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4900,22 +4357,23 @@
         <v>-4805.695186630004</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>1621</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4940,22 +4398,23 @@
         <v>-4806.195186630004</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>1630</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4980,22 +4439,23 @@
         <v>-4806.195186630004</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>1616</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5020,24 +4480,23 @@
         <v>-4589.215786630004</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1616</v>
       </c>
       <c r="J123" t="n">
-        <v>1616</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>1618</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5064,20 +4523,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5102,22 +4560,23 @@
         <v>-4494.815786630004</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>1630</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5144,20 +4603,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5184,20 +4642,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5224,20 +4681,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5264,20 +4720,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5304,20 +4759,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5344,20 +4798,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5384,20 +4837,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5422,22 +4874,23 @@
         <v>-4627.882686630003</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>1614</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5462,22 +4915,23 @@
         <v>-4627.982686630004</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>1616</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5502,22 +4956,23 @@
         <v>-4611.756386630003</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>1611</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5542,22 +4997,23 @@
         <v>-4600.286386630003</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>1615</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5582,22 +5038,23 @@
         <v>-4620.636386630003</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>1622</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5622,24 +5079,23 @@
         <v>-4563.026386630004</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1621</v>
       </c>
       <c r="J138" t="n">
-        <v>1621</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>1618</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5664,24 +5120,21 @@
         <v>-4563.725286630004</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>1640</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>1618</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5706,24 +5159,21 @@
         <v>-4563.725286630004</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>1635</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>1618</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5750,20 +5200,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5788,22 +5237,23 @@
         <v>-4563.625286630004</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>1640</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5830,20 +5280,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5870,20 +5319,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5910,20 +5358,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5950,20 +5397,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5990,20 +5436,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6030,20 +5475,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6070,20 +5514,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6110,20 +5553,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6150,20 +5592,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6190,20 +5631,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6230,20 +5670,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6270,20 +5709,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6310,20 +5748,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6350,20 +5787,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6390,20 +5826,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6430,20 +5865,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6470,20 +5904,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6510,20 +5943,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6550,20 +5982,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6590,20 +6021,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6630,20 +6060,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6670,20 +6099,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6710,20 +6138,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6750,20 +6177,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6790,20 +6216,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6830,20 +6255,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6870,20 +6294,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6910,20 +6333,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6950,20 +6372,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6990,20 +6411,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7030,20 +6450,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7070,20 +6489,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7110,20 +6528,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7148,22 +6565,21 @@
         <v>-1990.848886630004</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7190,20 +6606,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7228,22 +6643,21 @@
         <v>-1990.748886630004</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7270,20 +6684,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7310,20 +6723,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7350,20 +6762,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7390,20 +6801,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7430,20 +6840,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7470,20 +6879,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7510,20 +6918,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7550,20 +6957,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7590,20 +6996,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7630,20 +7035,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7670,20 +7074,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7710,20 +7113,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7750,20 +7152,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7790,20 +7191,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7830,20 +7230,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7870,20 +7269,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7910,20 +7308,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7950,20 +7347,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7990,20 +7386,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8030,20 +7425,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8070,20 +7464,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8110,20 +7503,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8150,20 +7542,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8190,20 +7581,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8230,20 +7620,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8268,22 +7657,21 @@
         <v>3191.735013369996</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8310,20 +7698,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8348,22 +7735,21 @@
         <v>3723.914613369996</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8390,20 +7776,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8428,22 +7813,21 @@
         <v>3294.109513369996</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8470,20 +7854,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8510,20 +7893,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8550,20 +7932,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8588,22 +7969,21 @@
         <v>2253.257213369996</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8630,20 +8010,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8668,22 +8047,21 @@
         <v>2253.257213369996</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8710,20 +8088,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8750,20 +8127,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8790,20 +8166,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8830,20 +8205,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8870,20 +8244,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8910,20 +8283,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8950,20 +8322,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8990,20 +8361,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9030,20 +8400,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9070,20 +8439,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9110,20 +8478,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9150,20 +8517,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9190,20 +8556,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9230,20 +8595,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9270,20 +8634,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9310,20 +8673,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9350,20 +8712,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9390,20 +8751,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9430,20 +8790,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9470,18 +8829,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
       </c>
       <c r="M234" t="inlineStr"/>
-      <c r="N234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9506,18 +8866,23 @@
         <v>9835.975707739995</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1.14827564894932</v>
+      </c>
       <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+        <v>1.063211125158028</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9542,18 +8907,15 @@
         <v>11462.20100774</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9578,18 +8940,15 @@
         <v>11462.20100774</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9614,18 +8973,15 @@
         <v>11462.20100774</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9650,18 +9006,15 @@
         <v>11462.20100774</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9686,18 +9039,15 @@
         <v>11269.84580774</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9722,18 +9072,15 @@
         <v>11401.93270774</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9758,18 +9105,15 @@
         <v>11345.3029803</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9794,18 +9138,15 @@
         <v>11144.45018029999</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9832,16 +9173,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>1</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9868,16 +9206,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>1</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9904,16 +9239,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>1</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9940,16 +9272,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>1</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9976,16 +9305,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10010,18 +9336,15 @@
         <v>10808.7070803</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10046,18 +9369,15 @@
         <v>11340.23678029999</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10082,18 +9402,15 @@
         <v>11340.23678029999</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10118,18 +9435,15 @@
         <v>11123.54758029999</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10154,20 +9468,17 @@
         <v>11124.54758029999</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest HC.xlsx
+++ b/BackTest/2019-10-27 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2487.861900000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2372.532000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2372.632000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2372.632000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2324.152100000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2126.665500000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2406.665400000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2565.065400000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2565.165400000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2565.365400000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2379.7725</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-3506.985600000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1639,10 +1639,14 @@
         <v>-3447.996000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1609</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1609</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
@@ -1672,11 +1676,19 @@
         <v>-3447.996000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1609</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1609</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1720,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1609</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,10 +1756,14 @@
         <v>-3447.996000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1609</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1609</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
@@ -1774,8 +1796,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1609</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +1835,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1609</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1969,10 +2003,14 @@
         <v>-2428.057900000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1617</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1617</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
@@ -2002,11 +2040,19 @@
         <v>-2427.957900000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1625</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1617</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2081,19 @@
         <v>-2462.608800000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1636</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1617</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,10 +2122,14 @@
         <v>-2397.508900000001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1626</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1626</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2101,11 +2159,19 @@
         <v>-2662.058000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1628</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2203,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2242,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2281,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2320,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2359,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2398,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2437,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2476,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2515,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2551,19 @@
         <v>-10819.2539</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2595,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2634,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2673,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2712,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2751,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2787,19 @@
         <v>-11670.3893</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1601</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2831,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2870,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2909,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +2948,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +2987,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3026,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3065,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3101,19 @@
         <v>-12634.8297</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1585</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3142,19 @@
         <v>-12550.3478</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1600</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3183,19 @@
         <v>-13922.8416</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1605</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3227,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3266,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3305,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3344,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3383,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3422,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3461,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3497,19 @@
         <v>-13704.4639</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1606</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3538,19 @@
         <v>-13704.5639</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1604</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3579,19 @@
         <v>-13500.689</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1599</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3623,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3662,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3701,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3740,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3779,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3818,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3857,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3893,19 @@
         <v>-12637.0999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1598</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3934,19 @@
         <v>-12637.1999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1606</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3975,19 @@
         <v>-12637.0819</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1598</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4019,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +4055,19 @@
         <v>-10769.0869</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1595</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4099,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4138,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4177,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4216,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4255,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4294,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4333,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4372,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4411,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4450,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4489,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4528,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4567,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4606,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4645,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4684,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4723,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,15 +4759,17 @@
         <v>-5872.370200000004</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>1618</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+        <v>1626</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,17 +4798,15 @@
         <v>-5845.241000000004</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -4357,17 +4837,15 @@
         <v>-4805.695186630004</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -4398,17 +4876,15 @@
         <v>-4806.195186630004</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -4439,13 +4915,11 @@
         <v>-4806.195186630004</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4480,13 +4954,11 @@
         <v>-4589.215786630004</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4525,7 +4997,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4560,13 +5032,11 @@
         <v>-4494.815786630004</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4605,7 +5075,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4644,7 +5114,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4683,7 +5153,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4722,7 +5192,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4761,7 +5231,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4800,7 +5270,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -4839,7 +5309,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -4874,13 +5344,13 @@
         <v>-4627.882686630003</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>1614</v>
       </c>
       <c r="J133" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -4915,13 +5385,13 @@
         <v>-4627.982686630004</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>1616</v>
       </c>
       <c r="J134" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -4956,13 +5426,13 @@
         <v>-4611.756386630003</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>1611</v>
       </c>
       <c r="J135" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -4997,13 +5467,13 @@
         <v>-4600.286386630003</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>1615</v>
       </c>
       <c r="J136" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5038,13 +5508,13 @@
         <v>-4620.636386630003</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>1622</v>
       </c>
       <c r="J137" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5079,13 +5549,13 @@
         <v>-4563.026386630004</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>1621</v>
       </c>
       <c r="J138" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5120,11 +5590,13 @@
         <v>-4563.725286630004</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1640</v>
+      </c>
       <c r="J139" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5159,11 +5631,13 @@
         <v>-4563.725286630004</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1635</v>
+      </c>
       <c r="J140" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5198,11 +5672,13 @@
         <v>-4563.625286630004</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1635</v>
+      </c>
       <c r="J141" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5237,13 +5713,11 @@
         <v>-4563.625286630004</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5282,7 +5756,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5321,7 +5795,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5360,7 +5834,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5399,7 +5873,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5438,7 +5912,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5477,7 +5951,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5516,7 +5990,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5555,7 +6029,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5594,7 +6068,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5633,7 +6107,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5672,7 +6146,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5711,7 +6185,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5750,7 +6224,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5789,7 +6263,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5828,7 +6302,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5867,7 +6341,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5906,7 +6380,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5945,7 +6419,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5984,7 +6458,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6023,7 +6497,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6062,7 +6536,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6101,7 +6575,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6140,7 +6614,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6179,7 +6653,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6218,7 +6692,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6257,7 +6731,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6296,7 +6770,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6335,7 +6809,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6374,7 +6848,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6413,7 +6887,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6452,7 +6926,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6491,7 +6965,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6530,7 +7004,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6565,11 +7039,11 @@
         <v>-1990.848886630004</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6608,7 +7082,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6643,11 +7117,11 @@
         <v>-1990.748886630004</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6686,7 +7160,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6725,7 +7199,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6764,7 +7238,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6803,7 +7277,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6842,7 +7316,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6881,7 +7355,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6920,7 +7394,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6959,7 +7433,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6998,7 +7472,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7037,7 +7511,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7076,7 +7550,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7115,7 +7589,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7154,7 +7628,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7193,7 +7667,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7232,7 +7706,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7271,7 +7745,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7310,7 +7784,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7349,7 +7823,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7388,7 +7862,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7427,7 +7901,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7466,7 +7940,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7505,7 +7979,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7544,7 +8018,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7583,7 +8057,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7622,7 +8096,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7657,11 +8131,11 @@
         <v>3191.735013369996</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7700,7 +8174,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7735,11 +8209,11 @@
         <v>3723.914613369996</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7778,7 +8252,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7813,11 +8287,11 @@
         <v>3294.109513369996</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7856,7 +8330,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7895,7 +8369,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7934,7 +8408,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7969,11 +8443,11 @@
         <v>2253.257213369996</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8012,7 +8486,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8047,11 +8521,11 @@
         <v>2253.257213369996</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8090,7 +8564,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8129,7 +8603,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8168,7 +8642,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8207,7 +8681,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8246,7 +8720,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8285,7 +8759,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8324,7 +8798,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8363,7 +8837,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8402,7 +8876,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8441,7 +8915,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8480,7 +8954,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8519,7 +8993,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8558,7 +9032,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8597,7 +9071,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8636,7 +9110,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8671,21 +9145,23 @@
         <v>7790.260498589996</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>1.119231242312423</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1.031795511221945</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8710,17 +9186,11 @@
         <v>7790.260498589996</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>1618</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8749,17 +9219,11 @@
         <v>7309.960598589996</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>1618</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8788,17 +9252,11 @@
         <v>9285.960598589996</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>1618</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8827,17 +9285,11 @@
         <v>9835.975707739995</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>1618</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8866,23 +9318,15 @@
         <v>9835.975707739995</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>1618</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
-        <v>1.14827564894932</v>
-      </c>
-      <c r="M235" t="n">
-        <v>1.063211125158028</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8907,7 +9351,7 @@
         <v>11462.20100774</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8940,7 +9384,7 @@
         <v>11462.20100774</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8973,7 +9417,7 @@
         <v>11462.20100774</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9006,7 +9450,7 @@
         <v>11462.20100774</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9039,7 +9483,7 @@
         <v>11269.84580774</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9072,7 +9516,7 @@
         <v>11401.93270774</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9105,7 +9549,7 @@
         <v>11345.3029803</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9138,7 +9582,7 @@
         <v>11144.45018029999</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9171,7 +9615,7 @@
         <v>11125.1357803</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9204,7 +9648,7 @@
         <v>10984.0400803</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9237,7 +9681,7 @@
         <v>10568.5370803</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9270,7 +9714,7 @@
         <v>10828.8783803</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9303,7 +9747,7 @@
         <v>10829.8783803</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9336,7 +9780,7 @@
         <v>10808.7070803</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9369,7 +9813,7 @@
         <v>11340.23678029999</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9402,7 +9846,7 @@
         <v>11340.23678029999</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9435,7 +9879,7 @@
         <v>11123.54758029999</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9468,7 +9912,7 @@
         <v>11124.54758029999</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9479,6 +9923,6 @@
       <c r="M253" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest HC.xlsx
+++ b/BackTest/2019-10-27 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1210,11 +1210,17 @@
         <v>-3512.985600000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1606</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1253,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1290,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1327,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1364,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1401,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1438,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1475,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1512,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1549,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1586,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1623,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1660,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,15 +1693,15 @@
         <v>-3447.996000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1609</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1609</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,17 +1730,13 @@
         <v>-3447.996000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1609</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1609</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1720,12 +1770,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>1609</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1756,15 +1804,15 @@
         <v>-3447.996000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1609</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1609</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1796,12 +1844,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>1609</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -1835,12 +1881,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>1609</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -1875,7 +1919,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1908,7 +1956,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1941,7 +1993,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1974,7 +2030,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2003,15 +2063,15 @@
         <v>-2428.057900000001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1617</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1617</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2040,17 +2100,13 @@
         <v>-2427.957900000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1625</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2081,17 +2137,13 @@
         <v>-2462.608800000001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1636</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2122,15 +2174,15 @@
         <v>-2397.508900000001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1626</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2159,17 +2211,13 @@
         <v>-2662.058000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1628</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2203,9 +2251,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2242,9 +2288,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2281,9 +2325,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2320,9 +2362,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2359,9 +2399,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2398,9 +2436,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2437,9 +2473,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2476,9 +2510,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2515,9 +2547,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2551,14 +2581,10 @@
         <v>-10819.2539</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1612</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2595,9 +2621,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2634,9 +2658,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2673,9 +2695,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2712,9 +2732,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2751,9 +2769,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2787,14 +2803,10 @@
         <v>-11670.3893</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1601</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2831,9 +2843,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2870,9 +2880,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2909,9 +2917,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2948,9 +2954,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2987,9 +2991,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3026,9 +3028,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3065,9 +3065,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3101,14 +3099,10 @@
         <v>-12634.8297</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1585</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3142,14 +3136,10 @@
         <v>-12550.3478</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1600</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3183,14 +3173,10 @@
         <v>-13922.8416</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1605</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3227,9 +3213,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3266,9 +3250,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3305,9 +3287,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3344,9 +3324,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3383,9 +3361,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3422,9 +3398,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3461,9 +3435,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3497,14 +3469,10 @@
         <v>-13704.4639</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1606</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3538,14 +3506,10 @@
         <v>-13704.5639</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1604</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3579,14 +3543,10 @@
         <v>-13500.689</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1599</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3623,9 +3583,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3662,9 +3620,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3701,9 +3657,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3740,9 +3694,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3779,9 +3731,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3818,9 +3768,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3857,9 +3805,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3898,9 +3844,7 @@
       <c r="I96" t="n">
         <v>1598</v>
       </c>
-      <c r="J96" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3939,9 +3883,7 @@
       <c r="I97" t="n">
         <v>1606</v>
       </c>
-      <c r="J97" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3980,9 +3922,7 @@
       <c r="I98" t="n">
         <v>1598</v>
       </c>
-      <c r="J98" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4016,12 +3956,12 @@
         <v>-12637.1819</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>1626</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1606</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4060,9 +4000,7 @@
       <c r="I100" t="n">
         <v>1595</v>
       </c>
-      <c r="J100" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4096,12 +4034,12 @@
         <v>-10769.1869</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>1626</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1602</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4135,12 +4073,12 @@
         <v>-6992.880700000004</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>1626</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1595</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4177,9 +4115,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4216,9 +4152,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4255,9 +4189,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4294,9 +4226,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4333,9 +4263,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4372,9 +4300,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4411,9 +4337,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4450,9 +4374,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4489,9 +4411,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4528,9 +4448,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4567,9 +4485,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4606,9 +4522,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4645,9 +4559,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4684,9 +4596,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4720,12 +4630,12 @@
         <v>-6459.370200000004</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>1626</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4762,9 +4672,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4801,9 +4709,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4837,12 +4743,12 @@
         <v>-4805.695186630004</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>1626</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1621</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4879,9 +4785,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4918,9 +4822,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4957,9 +4859,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4996,9 +4896,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5035,9 +4933,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5074,9 +4970,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5113,9 +5007,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5152,9 +5044,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5191,9 +5081,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5230,9 +5118,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5269,9 +5155,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5308,9 +5192,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5344,14 +5226,10 @@
         <v>-4627.882686630003</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1614</v>
-      </c>
-      <c r="J133" t="n">
-        <v>1626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5385,14 +5263,10 @@
         <v>-4627.982686630004</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1616</v>
-      </c>
-      <c r="J134" t="n">
-        <v>1626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5426,14 +5300,10 @@
         <v>-4611.756386630003</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1611</v>
-      </c>
-      <c r="J135" t="n">
-        <v>1626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5467,14 +5337,10 @@
         <v>-4600.286386630003</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1615</v>
-      </c>
-      <c r="J136" t="n">
-        <v>1626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5508,14 +5374,10 @@
         <v>-4620.636386630003</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1622</v>
-      </c>
-      <c r="J137" t="n">
-        <v>1626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5549,14 +5411,10 @@
         <v>-4563.026386630004</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1621</v>
-      </c>
-      <c r="J138" t="n">
-        <v>1626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5590,14 +5448,10 @@
         <v>-4563.725286630004</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1640</v>
-      </c>
-      <c r="J139" t="n">
-        <v>1626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5631,14 +5485,10 @@
         <v>-4563.725286630004</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1635</v>
-      </c>
-      <c r="J140" t="n">
-        <v>1626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5672,14 +5522,10 @@
         <v>-4563.625286630004</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1635</v>
-      </c>
-      <c r="J141" t="n">
-        <v>1626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5716,9 +5562,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5755,9 +5599,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5794,9 +5636,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5833,9 +5673,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5872,9 +5710,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5911,9 +5747,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5950,9 +5784,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5989,9 +5821,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6028,9 +5858,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6067,9 +5895,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6106,9 +5932,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6145,9 +5969,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6184,9 +6006,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6223,9 +6043,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6262,9 +6080,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6301,9 +6117,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6340,9 +6154,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6379,9 +6191,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6418,9 +6228,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6457,9 +6265,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6496,9 +6302,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6535,9 +6339,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6574,9 +6376,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6613,9 +6413,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6652,9 +6450,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6691,9 +6487,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6730,9 +6524,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6769,9 +6561,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6808,9 +6598,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6847,9 +6635,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6886,9 +6672,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6925,9 +6709,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6964,9 +6746,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7003,9 +6783,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7042,9 +6820,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7081,9 +6857,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7120,9 +6894,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7159,9 +6931,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7198,9 +6968,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7234,20 +7002,16 @@
         <v>-101.4389866300035</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>1626</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
@@ -7273,17 +7037,11 @@
         <v>351.8167133699965</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7312,17 +7070,11 @@
         <v>656.8167133699965</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7351,17 +7103,11 @@
         <v>674.4737133699965</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7390,17 +7136,11 @@
         <v>691.7247133699965</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7429,17 +7169,11 @@
         <v>691.7247133699965</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7468,17 +7202,11 @@
         <v>691.7247133699965</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7507,17 +7235,11 @@
         <v>957.5718133699966</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7546,17 +7268,11 @@
         <v>-1811.643186630004</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7585,17 +7301,11 @@
         <v>-1721.162686630003</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7624,17 +7334,11 @@
         <v>-1322.285986630003</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7663,17 +7367,11 @@
         <v>2457.939113369996</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7702,17 +7400,11 @@
         <v>2894.499113369996</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7741,17 +7433,11 @@
         <v>2857.613713369996</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7780,17 +7466,11 @@
         <v>3164.737313369996</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7819,17 +7499,11 @@
         <v>3142.388513369996</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7858,17 +7532,11 @@
         <v>3142.388513369996</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7897,17 +7565,11 @@
         <v>3142.506513369996</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7936,17 +7598,11 @@
         <v>3126.735313369996</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7975,17 +7631,11 @@
         <v>2771.368013369996</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8014,17 +7664,11 @@
         <v>2771.368013369996</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8053,17 +7697,11 @@
         <v>3157.918413369996</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8092,17 +7730,11 @@
         <v>3191.735013369996</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8131,17 +7763,11 @@
         <v>3191.735013369996</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8170,17 +7796,11 @@
         <v>3157.341113369996</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8209,17 +7829,11 @@
         <v>3723.914613369996</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8248,17 +7862,11 @@
         <v>3746.314613369996</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8290,14 +7898,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8326,17 +7928,11 @@
         <v>3338.775013369996</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8365,17 +7961,11 @@
         <v>3662.572213369996</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8407,14 +7997,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8443,17 +8027,11 @@
         <v>2253.257213369996</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8482,17 +8060,11 @@
         <v>2253.357213369996</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8521,17 +8093,11 @@
         <v>2253.257213369996</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8560,17 +8126,11 @@
         <v>2253.257213369996</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8599,17 +8159,11 @@
         <v>1623.818113369996</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8638,17 +8192,11 @@
         <v>1623.818213369996</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8677,17 +8225,11 @@
         <v>3658.059713369996</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8716,17 +8258,11 @@
         <v>3672.698713369996</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8755,17 +8291,11 @@
         <v>3556.369537269996</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8794,17 +8324,11 @@
         <v>3585.469537269996</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8833,17 +8357,11 @@
         <v>3457.450637269996</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8872,17 +8390,11 @@
         <v>4484.156037269996</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8911,17 +8423,11 @@
         <v>4943.857437269996</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8953,14 +8459,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8992,14 +8492,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9031,14 +8525,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9070,14 +8558,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9109,14 +8591,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9145,23 +8621,15 @@
         <v>7790.260498589996</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
-        <v>1.119231242312423</v>
-      </c>
-      <c r="M230" t="n">
-        <v>1.031795511221945</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9186,7 +8654,7 @@
         <v>7790.260498589996</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9219,7 +8687,7 @@
         <v>7309.960598589996</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9252,7 +8720,7 @@
         <v>9285.960598589996</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9285,7 +8753,7 @@
         <v>9835.975707739995</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9318,7 +8786,7 @@
         <v>9835.975707739995</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9351,7 +8819,7 @@
         <v>11462.20100774</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9384,7 +8852,7 @@
         <v>11462.20100774</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9417,7 +8885,7 @@
         <v>11462.20100774</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9450,7 +8918,7 @@
         <v>11462.20100774</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9483,7 +8951,7 @@
         <v>11269.84580774</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9516,7 +8984,7 @@
         <v>11401.93270774</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9549,7 +9017,7 @@
         <v>11345.3029803</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9582,7 +9050,7 @@
         <v>11144.45018029999</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9615,7 +9083,7 @@
         <v>11125.1357803</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9648,7 +9116,7 @@
         <v>10984.0400803</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9681,7 +9149,7 @@
         <v>10568.5370803</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9714,7 +9182,7 @@
         <v>10828.8783803</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9747,7 +9215,7 @@
         <v>10829.8783803</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9780,7 +9248,7 @@
         <v>10808.7070803</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9813,7 +9281,7 @@
         <v>11340.23678029999</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9846,7 +9314,7 @@
         <v>11340.23678029999</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9879,7 +9347,7 @@
         <v>11123.54758029999</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9912,7 +9380,7 @@
         <v>11124.54758029999</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9923,6 +9391,6 @@
       <c r="M253" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest HC.xlsx
+++ b/BackTest/2019-10-27 BackTest HC.xlsx
@@ -1210,17 +1210,11 @@
         <v>-3512.985600000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1606</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1253,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1290,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1327,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1364,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1401,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1438,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1475,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1512,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1549,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1586,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1623,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1660,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1697,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1734,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1808,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1845,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1882,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1919,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1956,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1993,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2030,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2067,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2104,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2141,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2178,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2215,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2252,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2289,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2326,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2363,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2400,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2437,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2474,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2511,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2548,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2585,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2622,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2659,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2696,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2733,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2770,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2807,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2844,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2881,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2918,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2955,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3029,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3066,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3103,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3140,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3177,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3214,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3251,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3288,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3325,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3362,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3399,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3436,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3473,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3506,15 +3256,15 @@
         <v>-13704.5639</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1604</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1604</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3543,13 +3293,17 @@
         <v>-13500.689</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1599</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1604</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -3580,13 +3334,17 @@
         <v>-13500.789</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1606</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1604</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -3617,15 +3375,15 @@
         <v>-13162.0691</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1592</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1592</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3657,10 +3415,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1592</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3694,10 +3454,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1592</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -3732,11 +3494,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3765,13 +3523,15 @@
         <v>-13252.8091</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1606</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -4073,11 +3833,9 @@
         <v>-6992.880700000004</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4630,11 +4388,9 @@
         <v>-6459.370200000004</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4743,11 +4499,9 @@
         <v>-4805.695186630004</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -7002,16 +6756,18 @@
         <v>-101.4389866300035</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L181" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
       <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
@@ -7037,11 +6793,15 @@
         <v>351.8167133699965</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7070,11 +6830,15 @@
         <v>656.8167133699965</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7103,11 +6867,15 @@
         <v>674.4737133699965</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7136,11 +6904,15 @@
         <v>691.7247133699965</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7169,11 +6941,15 @@
         <v>691.7247133699965</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7202,11 +6978,15 @@
         <v>691.7247133699965</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7235,11 +7015,15 @@
         <v>957.5718133699966</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7268,11 +7052,15 @@
         <v>-1811.643186630004</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7301,11 +7089,15 @@
         <v>-1721.162686630003</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7334,11 +7126,15 @@
         <v>-1322.285986630003</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7367,11 +7163,15 @@
         <v>2457.939113369996</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7400,11 +7200,15 @@
         <v>2894.499113369996</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7433,11 +7237,15 @@
         <v>2857.613713369996</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7466,11 +7274,15 @@
         <v>3164.737313369996</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7499,11 +7311,15 @@
         <v>3142.388513369996</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7532,11 +7348,15 @@
         <v>3142.388513369996</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7565,11 +7385,15 @@
         <v>3142.506513369996</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7598,11 +7422,15 @@
         <v>3126.735313369996</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7631,11 +7459,15 @@
         <v>2771.368013369996</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7664,11 +7496,15 @@
         <v>2771.368013369996</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7697,11 +7533,15 @@
         <v>3157.918413369996</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7730,11 +7570,15 @@
         <v>3191.735013369996</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7763,11 +7607,15 @@
         <v>3191.735013369996</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7796,11 +7644,15 @@
         <v>3157.341113369996</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7829,11 +7681,15 @@
         <v>3723.914613369996</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7862,11 +7718,15 @@
         <v>3746.314613369996</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7899,7 +7759,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7928,11 +7792,15 @@
         <v>3338.775013369996</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7961,11 +7829,15 @@
         <v>3662.572213369996</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7998,7 +7870,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8027,11 +7903,15 @@
         <v>2253.257213369996</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8060,11 +7940,15 @@
         <v>2253.357213369996</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8093,11 +7977,15 @@
         <v>2253.257213369996</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8126,11 +8014,15 @@
         <v>2253.257213369996</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8159,11 +8051,15 @@
         <v>1623.818113369996</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8192,11 +8088,15 @@
         <v>1623.818213369996</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8225,11 +8125,15 @@
         <v>3658.059713369996</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8258,11 +8162,15 @@
         <v>3672.698713369996</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8291,11 +8199,15 @@
         <v>3556.369537269996</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8324,11 +8236,15 @@
         <v>3585.469537269996</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8357,11 +8273,15 @@
         <v>3457.450637269996</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8390,11 +8310,15 @@
         <v>4484.156037269996</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8423,11 +8347,15 @@
         <v>4943.857437269996</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8460,7 +8388,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8493,7 +8425,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8526,7 +8462,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8559,7 +8499,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8592,7 +8536,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8625,7 +8573,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8658,7 +8610,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8691,7 +8647,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8724,7 +8684,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8757,7 +8721,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8786,14 +8754,16 @@
         <v>9835.975707739995</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
@@ -8819,7 +8789,7 @@
         <v>11462.20100774</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8852,7 +8822,7 @@
         <v>11462.20100774</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8885,7 +8855,7 @@
         <v>11462.20100774</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8918,7 +8888,7 @@
         <v>11462.20100774</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8951,7 +8921,7 @@
         <v>11269.84580774</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8984,7 +8954,7 @@
         <v>11401.93270774</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9017,7 +8987,7 @@
         <v>11345.3029803</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9050,7 +9020,7 @@
         <v>11144.45018029999</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9083,7 +9053,7 @@
         <v>11125.1357803</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9116,7 +9086,7 @@
         <v>10984.0400803</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9149,7 +9119,7 @@
         <v>10568.5370803</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9182,7 +9152,7 @@
         <v>10828.8783803</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9215,7 +9185,7 @@
         <v>10829.8783803</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9248,7 +9218,7 @@
         <v>10808.7070803</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9281,7 +9251,7 @@
         <v>11340.23678029999</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9314,7 +9284,7 @@
         <v>11340.23678029999</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9347,7 +9317,7 @@
         <v>11123.54758029999</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9380,7 +9350,7 @@
         <v>11124.54758029999</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest HC.xlsx
+++ b/BackTest/2019-10-27 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M253"/>
+  <dimension ref="A1:L253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>-2487.861900000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>115.3299</v>
       </c>
       <c r="G3" t="n">
-        <v>-2372.532000000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>-2372.632000000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>856.1643</v>
       </c>
       <c r="G5" t="n">
-        <v>-2372.632000000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>48.4799</v>
       </c>
       <c r="G6" t="n">
-        <v>-2324.152100000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>197.4866</v>
       </c>
       <c r="G7" t="n">
-        <v>-2126.665500000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>279.9999</v>
       </c>
       <c r="G8" t="n">
-        <v>-2406.665400000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>158.4</v>
       </c>
       <c r="G9" t="n">
-        <v>-2565.065400000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>0.1</v>
       </c>
       <c r="G10" t="n">
-        <v>-2565.165400000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>0.2</v>
       </c>
       <c r="G11" t="n">
-        <v>-2565.365400000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>185.5929</v>
       </c>
       <c r="G12" t="n">
-        <v>-2379.7725</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>151.2829</v>
       </c>
       <c r="G13" t="n">
-        <v>-2228.4896</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>-2228.3896</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>16.1794</v>
       </c>
       <c r="G15" t="n">
-        <v>-2244.569</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>-2244.569</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>-2244.569</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>70.2205</v>
       </c>
       <c r="G18" t="n">
-        <v>-2244.569</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>3.0001</v>
       </c>
       <c r="G19" t="n">
-        <v>-2247.569100000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>287.0565</v>
       </c>
       <c r="G20" t="n">
-        <v>-2534.625600000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>995</v>
       </c>
       <c r="G21" t="n">
-        <v>-3529.625600000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>22.74</v>
       </c>
       <c r="G22" t="n">
-        <v>-3506.885600000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>0.1</v>
       </c>
       <c r="G23" t="n">
-        <v>-3506.985600000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>-3512.985600000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1000</v>
       </c>
       <c r="G25" t="n">
-        <v>-3512.985600000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>18.0607</v>
       </c>
       <c r="G26" t="n">
-        <v>-3494.924900000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1560.9221</v>
       </c>
       <c r="G27" t="n">
-        <v>-3494.924900000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>286.03</v>
       </c>
       <c r="G28" t="n">
-        <v>-3494.924900000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>270</v>
       </c>
       <c r="G29" t="n">
-        <v>-3494.924900000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>788.67</v>
       </c>
       <c r="G30" t="n">
-        <v>-3494.924900000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>135.58</v>
       </c>
       <c r="G31" t="n">
-        <v>-3494.924900000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>4319.26</v>
       </c>
       <c r="G32" t="n">
-        <v>-3494.924900000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>399.7049</v>
       </c>
       <c r="G33" t="n">
-        <v>-3494.924900000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>3.0711</v>
       </c>
       <c r="G34" t="n">
-        <v>-3497.996000000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>50</v>
       </c>
       <c r="G35" t="n">
-        <v>-3447.996000000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>40</v>
       </c>
       <c r="G36" t="n">
-        <v>-3447.996000000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>389</v>
       </c>
       <c r="G37" t="n">
-        <v>-3447.996000000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>195.02</v>
       </c>
       <c r="G38" t="n">
-        <v>-3447.996000000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>4367.7938</v>
       </c>
       <c r="G39" t="n">
-        <v>-3447.996000000001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>510.4411</v>
       </c>
       <c r="G40" t="n">
-        <v>-3447.996000000001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>4185</v>
       </c>
       <c r="G41" t="n">
-        <v>-3447.996000000001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>51.652</v>
       </c>
       <c r="G42" t="n">
-        <v>-3447.996000000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2298</v>
       </c>
       <c r="G43" t="n">
-        <v>-3447.996000000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>645</v>
       </c>
       <c r="G44" t="n">
-        <v>-3447.996000000001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>56</v>
       </c>
       <c r="G45" t="n">
-        <v>-3447.996000000001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>281.7507</v>
       </c>
       <c r="G46" t="n">
-        <v>-3166.245300000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>0.1</v>
       </c>
       <c r="G47" t="n">
-        <v>-3166.345300000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>738.2874</v>
       </c>
       <c r="G48" t="n">
-        <v>-2428.057900000001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>0.1</v>
       </c>
       <c r="G49" t="n">
-        <v>-2427.957900000001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>34.6509</v>
       </c>
       <c r="G50" t="n">
-        <v>-2462.608800000001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>65.09990000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>-2397.508900000001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>264.5491</v>
       </c>
       <c r="G52" t="n">
-        <v>-2662.058000000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>22</v>
       </c>
       <c r="G53" t="n">
-        <v>-2640.058000000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>16</v>
       </c>
       <c r="G54" t="n">
-        <v>-2656.058000000001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>17.053</v>
       </c>
       <c r="G55" t="n">
-        <v>-2639.005000000001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>2640.2932</v>
       </c>
       <c r="G56" t="n">
-        <v>-5279.298200000001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>3362.2293</v>
       </c>
       <c r="G57" t="n">
-        <v>-8641.5275</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1099</v>
       </c>
       <c r="G58" t="n">
-        <v>-9740.5275</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>1127.6577</v>
       </c>
       <c r="G59" t="n">
-        <v>-8612.8698</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>2358.9565</v>
       </c>
       <c r="G60" t="n">
-        <v>-10971.8263</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>87.083</v>
       </c>
       <c r="G61" t="n">
-        <v>-10884.7433</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>65.4894</v>
       </c>
       <c r="G62" t="n">
-        <v>-10819.2539</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>2499.41</v>
       </c>
       <c r="G63" t="n">
-        <v>-10819.2539</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>723.925</v>
       </c>
       <c r="G64" t="n">
-        <v>-11543.1789</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>2461.5782</v>
       </c>
       <c r="G65" t="n">
-        <v>-11543.1789</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>127.2104</v>
       </c>
       <c r="G66" t="n">
-        <v>-11670.3893</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1451.3131</v>
       </c>
       <c r="G67" t="n">
-        <v>-11670.3893</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>380</v>
       </c>
       <c r="G68" t="n">
-        <v>-11670.3893</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>0.1</v>
       </c>
       <c r="G69" t="n">
-        <v>-11670.4893</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>155.7827</v>
       </c>
       <c r="G70" t="n">
-        <v>-11670.4893</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1100</v>
       </c>
       <c r="G71" t="n">
-        <v>-12770.4893</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>0.2</v>
       </c>
       <c r="G72" t="n">
-        <v>-12770.6893</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>109.2666</v>
       </c>
       <c r="G73" t="n">
-        <v>-12661.4227</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>0.1</v>
       </c>
       <c r="G74" t="n">
-        <v>-12661.5227</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>0.2</v>
       </c>
       <c r="G75" t="n">
-        <v>-12661.7227</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,19 @@
         <v>26.893</v>
       </c>
       <c r="G76" t="n">
-        <v>-12634.8297</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1585</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1585</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2697,23 @@
         <v>84.4819</v>
       </c>
       <c r="G77" t="n">
-        <v>-12550.3478</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>1600</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1585</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2735,23 @@
         <v>1372.4938</v>
       </c>
       <c r="G78" t="n">
-        <v>-13922.8416</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>1605</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1585</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2773,19 @@
         <v>203.8072</v>
       </c>
       <c r="G79" t="n">
-        <v>-13719.0344</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1589</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1589</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2807,23 @@
         <v>0.1</v>
       </c>
       <c r="G80" t="n">
-        <v>-13719.1344</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>1606</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2845,23 @@
         <v>55.7405</v>
       </c>
       <c r="G81" t="n">
-        <v>-13663.3939</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>1599</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2883,23 @@
         <v>647.6310999999999</v>
       </c>
       <c r="G82" t="n">
-        <v>-13663.3939</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>1605</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2921,23 @@
         <v>1.2</v>
       </c>
       <c r="G83" t="n">
-        <v>-13664.5939</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>1605</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2959,23 @@
         <v>0.1</v>
       </c>
       <c r="G84" t="n">
-        <v>-13664.6939</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>1597</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2997,23 @@
         <v>303.14</v>
       </c>
       <c r="G85" t="n">
-        <v>-13361.5539</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>1591</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3035,23 @@
         <v>342.91</v>
       </c>
       <c r="G86" t="n">
-        <v>-13704.4639</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>1606</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,22 +3073,23 @@
         <v>0.1</v>
       </c>
       <c r="G87" t="n">
-        <v>-13704.5639</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>1604</v>
       </c>
       <c r="I87" t="n">
-        <v>1604</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1604</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>1589</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3290,26 +3111,23 @@
         <v>203.8749</v>
       </c>
       <c r="G88" t="n">
-        <v>-13500.689</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>1599</v>
       </c>
       <c r="I88" t="n">
-        <v>1599</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1604</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>1589</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3331,26 +3149,23 @@
         <v>0.1</v>
       </c>
       <c r="G89" t="n">
-        <v>-13500.789</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>1606</v>
       </c>
       <c r="I89" t="n">
-        <v>1606</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1604</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>1589</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3372,22 +3187,23 @@
         <v>338.7199</v>
       </c>
       <c r="G90" t="n">
-        <v>-13162.0691</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>1592</v>
       </c>
       <c r="I90" t="n">
-        <v>1592</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1592</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>1589</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3409,24 +3225,23 @@
         <v>692.1667</v>
       </c>
       <c r="G91" t="n">
-        <v>-13162.0691</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>1592</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>1606</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3448,24 +3263,23 @@
         <v>25.12</v>
       </c>
       <c r="G92" t="n">
-        <v>-13162.0691</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>1592</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>1606</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3487,18 +3301,23 @@
         <v>59.58</v>
       </c>
       <c r="G93" t="n">
-        <v>-13162.0691</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>1606</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3520,24 +3339,23 @@
         <v>90.73999999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>-13252.8091</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>1606</v>
       </c>
       <c r="I94" t="n">
-        <v>1606</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>1589</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3559,22 +3377,23 @@
         <v>0.1</v>
       </c>
       <c r="G95" t="n">
-        <v>-13252.9091</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>1600</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3596,24 +3415,23 @@
         <v>615.8092</v>
       </c>
       <c r="G96" t="n">
-        <v>-12637.0999</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>1598</v>
       </c>
       <c r="I96" t="n">
-        <v>1598</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>1589</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3635,24 +3453,23 @@
         <v>0.1</v>
       </c>
       <c r="G97" t="n">
-        <v>-12637.1999</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>1606</v>
       </c>
       <c r="I97" t="n">
-        <v>1606</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>1589</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3674,24 +3491,23 @@
         <v>0.118</v>
       </c>
       <c r="G98" t="n">
-        <v>-12637.0819</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>1598</v>
       </c>
       <c r="I98" t="n">
-        <v>1598</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>1589</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3713,24 +3529,23 @@
         <v>0.1</v>
       </c>
       <c r="G99" t="n">
-        <v>-12637.1819</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>1606</v>
       </c>
       <c r="I99" t="n">
-        <v>1606</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>1589</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3752,24 +3567,23 @@
         <v>1868.095</v>
       </c>
       <c r="G100" t="n">
-        <v>-10769.0869</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>1595</v>
       </c>
       <c r="I100" t="n">
-        <v>1595</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>1589</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3791,24 +3605,23 @@
         <v>0.1</v>
       </c>
       <c r="G101" t="n">
-        <v>-10769.1869</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>1602</v>
       </c>
       <c r="I101" t="n">
-        <v>1602</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>1589</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3830,22 +3643,23 @@
         <v>3776.3062</v>
       </c>
       <c r="G102" t="n">
-        <v>-6992.880700000004</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>1595</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3867,22 +3681,23 @@
         <v>45.57</v>
       </c>
       <c r="G103" t="n">
-        <v>-6992.880700000004</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>1617</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3904,22 +3719,23 @@
         <v>569.9165</v>
       </c>
       <c r="G104" t="n">
-        <v>-6422.964200000004</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>1617</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3941,22 +3757,21 @@
         <v>48</v>
       </c>
       <c r="G105" t="n">
-        <v>-6374.964200000004</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3978,22 +3793,21 @@
         <v>15.4785</v>
       </c>
       <c r="G106" t="n">
-        <v>-6390.442700000004</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4015,22 +3829,21 @@
         <v>151.1</v>
       </c>
       <c r="G107" t="n">
-        <v>-6239.342700000004</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4052,22 +3865,21 @@
         <v>0.1</v>
       </c>
       <c r="G108" t="n">
-        <v>-6239.442700000004</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4089,22 +3901,21 @@
         <v>0.1</v>
       </c>
       <c r="G109" t="n">
-        <v>-6239.542700000005</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4126,22 +3937,21 @@
         <v>1833.1878</v>
       </c>
       <c r="G110" t="n">
-        <v>-8072.730500000004</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4163,22 +3973,21 @@
         <v>134.1</v>
       </c>
       <c r="G111" t="n">
-        <v>-7938.630500000004</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4200,22 +4009,21 @@
         <v>16.2823</v>
       </c>
       <c r="G112" t="n">
-        <v>-7954.912800000004</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4237,22 +4045,21 @@
         <v>190.4</v>
       </c>
       <c r="G113" t="n">
-        <v>-7764.512800000004</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4274,22 +4081,21 @@
         <v>27.646</v>
       </c>
       <c r="G114" t="n">
-        <v>-7736.866800000004</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4311,22 +4117,21 @@
         <v>16.1393</v>
       </c>
       <c r="G115" t="n">
-        <v>-7753.006100000004</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4348,22 +4153,21 @@
         <v>21.8611</v>
       </c>
       <c r="G116" t="n">
-        <v>-7731.145000000004</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4385,22 +4189,21 @@
         <v>1271.7748</v>
       </c>
       <c r="G117" t="n">
-        <v>-6459.370200000004</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4422,22 +4225,21 @@
         <v>587</v>
       </c>
       <c r="G118" t="n">
-        <v>-5872.370200000004</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4459,22 +4261,21 @@
         <v>27.1292</v>
       </c>
       <c r="G119" t="n">
-        <v>-5845.241000000004</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4496,22 +4297,21 @@
         <v>1039.54581337</v>
       </c>
       <c r="G120" t="n">
-        <v>-4805.695186630004</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4533,22 +4333,21 @@
         <v>0.5</v>
       </c>
       <c r="G121" t="n">
-        <v>-4806.195186630004</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4570,22 +4369,21 @@
         <v>0.5</v>
       </c>
       <c r="G122" t="n">
-        <v>-4806.195186630004</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4607,22 +4405,21 @@
         <v>216.9794</v>
       </c>
       <c r="G123" t="n">
-        <v>-4589.215786630004</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4644,22 +4441,21 @@
         <v>94.40000000000001</v>
       </c>
       <c r="G124" t="n">
-        <v>-4494.815786630004</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4681,22 +4477,21 @@
         <v>47.2</v>
       </c>
       <c r="G125" t="n">
-        <v>-4494.815786630004</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4718,22 +4513,21 @@
         <v>23.9041</v>
       </c>
       <c r="G126" t="n">
-        <v>-4518.719886630004</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4755,22 +4549,21 @@
         <v>15.7918</v>
       </c>
       <c r="G127" t="n">
-        <v>-4534.511686630004</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4792,22 +4585,21 @@
         <v>26.9548</v>
       </c>
       <c r="G128" t="n">
-        <v>-4507.556886630004</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4829,22 +4621,21 @@
         <v>264.7996</v>
       </c>
       <c r="G129" t="n">
-        <v>-4772.356486630004</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4866,22 +4657,21 @@
         <v>0.5</v>
       </c>
       <c r="G130" t="n">
-        <v>-4772.856486630004</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4903,22 +4693,21 @@
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>-4773.856486630004</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4940,22 +4729,21 @@
         <v>35.6539</v>
       </c>
       <c r="G132" t="n">
-        <v>-4738.202586630004</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4977,22 +4765,21 @@
         <v>110.3199</v>
       </c>
       <c r="G133" t="n">
-        <v>-4627.882686630003</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5014,22 +4801,21 @@
         <v>0.1</v>
       </c>
       <c r="G134" t="n">
-        <v>-4627.982686630004</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5051,22 +4837,21 @@
         <v>16.2263</v>
       </c>
       <c r="G135" t="n">
-        <v>-4611.756386630003</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5088,22 +4873,21 @@
         <v>11.47</v>
       </c>
       <c r="G136" t="n">
-        <v>-4600.286386630003</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5125,22 +4909,21 @@
         <v>20.35</v>
       </c>
       <c r="G137" t="n">
-        <v>-4620.636386630003</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5162,22 +4945,21 @@
         <v>57.61</v>
       </c>
       <c r="G138" t="n">
-        <v>-4563.026386630004</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5199,22 +4981,21 @@
         <v>0.6989</v>
       </c>
       <c r="G139" t="n">
-        <v>-4563.725286630004</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5236,22 +5017,21 @@
         <v>33.6973</v>
       </c>
       <c r="G140" t="n">
-        <v>-4563.725286630004</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5273,22 +5053,21 @@
         <v>0.1</v>
       </c>
       <c r="G141" t="n">
-        <v>-4563.625286630004</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5310,22 +5089,21 @@
         <v>392.5974</v>
       </c>
       <c r="G142" t="n">
-        <v>-4563.625286630004</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5347,22 +5125,21 @@
         <v>0.1</v>
       </c>
       <c r="G143" t="n">
-        <v>-4563.725286630004</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5384,22 +5161,21 @@
         <v>0.118</v>
       </c>
       <c r="G144" t="n">
-        <v>-4563.607286630004</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5421,22 +5197,21 @@
         <v>909.6422</v>
       </c>
       <c r="G145" t="n">
-        <v>-3653.965086630003</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5458,22 +5233,21 @@
         <v>15.3465</v>
       </c>
       <c r="G146" t="n">
-        <v>-3653.965086630003</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5495,22 +5269,21 @@
         <v>17.4151</v>
       </c>
       <c r="G147" t="n">
-        <v>-3671.380186630004</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5532,22 +5305,21 @@
         <v>27.77</v>
       </c>
       <c r="G148" t="n">
-        <v>-3671.380186630004</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5569,22 +5341,21 @@
         <v>6.2071</v>
       </c>
       <c r="G149" t="n">
-        <v>-3665.173086630004</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5606,22 +5377,21 @@
         <v>0.11</v>
       </c>
       <c r="G150" t="n">
-        <v>-3665.063086630003</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5643,22 +5413,21 @@
         <v>18</v>
       </c>
       <c r="G151" t="n">
-        <v>-3647.063086630003</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5680,22 +5449,21 @@
         <v>31.9999</v>
       </c>
       <c r="G152" t="n">
-        <v>-3647.063086630003</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5717,22 +5485,21 @@
         <v>0.1</v>
       </c>
       <c r="G153" t="n">
-        <v>-3646.963086630004</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5754,22 +5521,21 @@
         <v>15.3484</v>
       </c>
       <c r="G154" t="n">
-        <v>-3662.311486630003</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5791,22 +5557,21 @@
         <v>24.422</v>
       </c>
       <c r="G155" t="n">
-        <v>-3637.889486630003</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5828,22 +5593,21 @@
         <v>1363.8355</v>
       </c>
       <c r="G156" t="n">
-        <v>-2274.053986630003</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5865,22 +5629,21 @@
         <v>1500.699</v>
       </c>
       <c r="G157" t="n">
-        <v>-3774.752986630003</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5902,22 +5665,21 @@
         <v>0.1</v>
       </c>
       <c r="G158" t="n">
-        <v>-3774.652986630003</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5939,22 +5701,21 @@
         <v>0.1</v>
       </c>
       <c r="G159" t="n">
-        <v>-3774.752986630003</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5976,22 +5737,21 @@
         <v>0.1</v>
       </c>
       <c r="G160" t="n">
-        <v>-3774.652986630003</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6013,22 +5773,21 @@
         <v>0.4</v>
       </c>
       <c r="G161" t="n">
-        <v>-3775.052986630003</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6050,22 +5809,21 @@
         <v>0.3</v>
       </c>
       <c r="G162" t="n">
-        <v>-3775.352986630004</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6087,22 +5845,21 @@
         <v>0.298</v>
       </c>
       <c r="G163" t="n">
-        <v>-3775.054986630004</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6124,22 +5881,21 @@
         <v>0.5</v>
       </c>
       <c r="G164" t="n">
-        <v>-3774.554986630004</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6161,22 +5917,21 @@
         <v>0.9</v>
       </c>
       <c r="G165" t="n">
-        <v>-3775.454986630004</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6198,22 +5953,21 @@
         <v>1.9</v>
       </c>
       <c r="G166" t="n">
-        <v>-3773.554986630004</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6235,22 +5989,21 @@
         <v>0.2</v>
       </c>
       <c r="G167" t="n">
-        <v>-3773.754986630004</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6272,22 +6025,21 @@
         <v>0.1</v>
       </c>
       <c r="G168" t="n">
-        <v>-3773.654986630004</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6309,22 +6061,21 @@
         <v>0.11</v>
       </c>
       <c r="G169" t="n">
-        <v>-3773.544986630004</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6346,22 +6097,21 @@
         <v>15.2329</v>
       </c>
       <c r="G170" t="n">
-        <v>-3788.777886630004</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6383,22 +6133,21 @@
         <v>55.5237</v>
       </c>
       <c r="G171" t="n">
-        <v>-3733.254186630003</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6420,22 +6169,21 @@
         <v>160.06</v>
       </c>
       <c r="G172" t="n">
-        <v>-3573.194186630004</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6457,22 +6205,21 @@
         <v>397.9699</v>
       </c>
       <c r="G173" t="n">
-        <v>-3573.194186630004</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6494,22 +6241,21 @@
         <v>56.8512</v>
       </c>
       <c r="G174" t="n">
-        <v>-3573.194186630004</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6531,22 +6277,21 @@
         <v>1582.3453</v>
       </c>
       <c r="G175" t="n">
-        <v>-1990.848886630004</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6568,22 +6313,21 @@
         <v>674.4822</v>
       </c>
       <c r="G176" t="n">
-        <v>-1990.848886630004</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6605,22 +6349,21 @@
         <v>221.7808</v>
       </c>
       <c r="G177" t="n">
-        <v>-1990.848886630004</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6642,22 +6385,21 @@
         <v>0.1</v>
       </c>
       <c r="G178" t="n">
-        <v>-1990.748886630004</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6679,22 +6421,21 @@
         <v>173.4199</v>
       </c>
       <c r="G179" t="n">
-        <v>-1817.328986630004</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6716,22 +6457,21 @@
         <v>1715.89</v>
       </c>
       <c r="G180" t="n">
-        <v>-101.4389866300035</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6753,22 +6493,21 @@
         <v>10</v>
       </c>
       <c r="G181" t="n">
-        <v>-101.4389866300035</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6790,22 +6529,21 @@
         <v>453.2557</v>
       </c>
       <c r="G182" t="n">
-        <v>351.8167133699965</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6827,22 +6565,21 @@
         <v>305</v>
       </c>
       <c r="G183" t="n">
-        <v>656.8167133699965</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6864,22 +6601,21 @@
         <v>17.657</v>
       </c>
       <c r="G184" t="n">
-        <v>674.4737133699965</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6901,22 +6637,21 @@
         <v>17.251</v>
       </c>
       <c r="G185" t="n">
-        <v>691.7247133699965</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6938,22 +6673,21 @@
         <v>474.8211</v>
       </c>
       <c r="G186" t="n">
-        <v>691.7247133699965</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6975,22 +6709,21 @@
         <v>208.3416</v>
       </c>
       <c r="G187" t="n">
-        <v>691.7247133699965</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7012,22 +6745,21 @@
         <v>265.8471</v>
       </c>
       <c r="G188" t="n">
-        <v>957.5718133699966</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7049,22 +6781,21 @@
         <v>2769.215</v>
       </c>
       <c r="G189" t="n">
-        <v>-1811.643186630004</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7086,22 +6817,21 @@
         <v>90.48050000000001</v>
       </c>
       <c r="G190" t="n">
-        <v>-1721.162686630003</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7123,22 +6853,21 @@
         <v>398.8767</v>
       </c>
       <c r="G191" t="n">
-        <v>-1322.285986630003</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7160,22 +6889,21 @@
         <v>3780.2251</v>
       </c>
       <c r="G192" t="n">
-        <v>2457.939113369996</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7197,22 +6925,21 @@
         <v>436.56</v>
       </c>
       <c r="G193" t="n">
-        <v>2894.499113369996</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7234,22 +6961,21 @@
         <v>36.8854</v>
       </c>
       <c r="G194" t="n">
-        <v>2857.613713369996</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7271,22 +6997,21 @@
         <v>307.1236</v>
       </c>
       <c r="G195" t="n">
-        <v>3164.737313369996</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7308,22 +7033,21 @@
         <v>22.3488</v>
       </c>
       <c r="G196" t="n">
-        <v>3142.388513369996</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7345,22 +7069,21 @@
         <v>477.196</v>
       </c>
       <c r="G197" t="n">
-        <v>3142.388513369996</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7382,22 +7105,21 @@
         <v>0.118</v>
       </c>
       <c r="G198" t="n">
-        <v>3142.506513369996</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7419,22 +7141,21 @@
         <v>15.7712</v>
       </c>
       <c r="G199" t="n">
-        <v>3126.735313369996</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7456,22 +7177,21 @@
         <v>355.3673</v>
       </c>
       <c r="G200" t="n">
-        <v>2771.368013369996</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7493,22 +7213,21 @@
         <v>242.6304</v>
       </c>
       <c r="G201" t="n">
-        <v>2771.368013369996</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7530,22 +7249,21 @@
         <v>386.5504</v>
       </c>
       <c r="G202" t="n">
-        <v>3157.918413369996</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7567,22 +7285,21 @@
         <v>33.8166</v>
       </c>
       <c r="G203" t="n">
-        <v>3191.735013369996</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7604,22 +7321,21 @@
         <v>49.8784</v>
       </c>
       <c r="G204" t="n">
-        <v>3191.735013369996</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7641,22 +7357,21 @@
         <v>34.3939</v>
       </c>
       <c r="G205" t="n">
-        <v>3157.341113369996</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7678,22 +7393,21 @@
         <v>566.5735</v>
       </c>
       <c r="G206" t="n">
-        <v>3723.914613369996</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7715,22 +7429,21 @@
         <v>22.4</v>
       </c>
       <c r="G207" t="n">
-        <v>3746.314613369996</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7752,22 +7465,21 @@
         <v>452.2051</v>
       </c>
       <c r="G208" t="n">
-        <v>3294.109513369996</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7789,22 +7501,21 @@
         <v>44.6655</v>
       </c>
       <c r="G209" t="n">
-        <v>3338.775013369996</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7826,22 +7537,21 @@
         <v>323.7972</v>
       </c>
       <c r="G210" t="n">
-        <v>3662.572213369996</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7863,22 +7573,21 @@
         <v>1671.3088</v>
       </c>
       <c r="G211" t="n">
-        <v>1991.263413369996</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7900,22 +7609,21 @@
         <v>261.9938</v>
       </c>
       <c r="G212" t="n">
-        <v>2253.257213369996</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7937,22 +7645,21 @@
         <v>0.1</v>
       </c>
       <c r="G213" t="n">
-        <v>2253.357213369996</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7974,22 +7681,21 @@
         <v>0.1</v>
       </c>
       <c r="G214" t="n">
-        <v>2253.257213369996</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8011,22 +7717,21 @@
         <v>0.2</v>
       </c>
       <c r="G215" t="n">
-        <v>2253.257213369996</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8048,22 +7753,21 @@
         <v>629.4391000000001</v>
       </c>
       <c r="G216" t="n">
-        <v>1623.818113369996</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8085,22 +7789,21 @@
         <v>0.0001</v>
       </c>
       <c r="G217" t="n">
-        <v>1623.818213369996</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8122,22 +7825,21 @@
         <v>2034.2415</v>
       </c>
       <c r="G218" t="n">
-        <v>3658.059713369996</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8159,22 +7861,21 @@
         <v>14.639</v>
       </c>
       <c r="G219" t="n">
-        <v>3672.698713369996</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8196,22 +7897,21 @@
         <v>116.3291761</v>
       </c>
       <c r="G220" t="n">
-        <v>3556.369537269996</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8233,22 +7933,21 @@
         <v>29.1</v>
       </c>
       <c r="G221" t="n">
-        <v>3585.469537269996</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8270,22 +7969,21 @@
         <v>128.0189</v>
       </c>
       <c r="G222" t="n">
-        <v>3457.450637269996</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8307,22 +8005,21 @@
         <v>1026.7054</v>
       </c>
       <c r="G223" t="n">
-        <v>4484.156037269996</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8344,22 +8041,21 @@
         <v>459.7014</v>
       </c>
       <c r="G224" t="n">
-        <v>4943.857437269996</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8381,22 +8077,21 @@
         <v>49.2218</v>
       </c>
       <c r="G225" t="n">
-        <v>4943.857437269996</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8418,22 +8113,21 @@
         <v>1970.11196132</v>
       </c>
       <c r="G226" t="n">
-        <v>6913.969398589996</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8455,22 +8149,21 @@
         <v>564.69857768</v>
       </c>
       <c r="G227" t="n">
-        <v>6913.969398589996</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8492,22 +8185,21 @@
         <v>155.2598</v>
       </c>
       <c r="G228" t="n">
-        <v>6913.969398589996</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8529,22 +8221,21 @@
         <v>132.418</v>
       </c>
       <c r="G229" t="n">
-        <v>6781.551398589996</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8566,22 +8257,21 @@
         <v>1008.7091</v>
       </c>
       <c r="G230" t="n">
-        <v>7790.260498589996</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8603,22 +8293,21 @@
         <v>1602.61885185</v>
       </c>
       <c r="G231" t="n">
-        <v>7790.260498589996</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8640,22 +8329,21 @@
         <v>480.2999</v>
       </c>
       <c r="G232" t="n">
-        <v>7309.960598589996</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8677,22 +8365,21 @@
         <v>1976</v>
       </c>
       <c r="G233" t="n">
-        <v>9285.960598589996</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8714,22 +8401,21 @@
         <v>550.0151091499999</v>
       </c>
       <c r="G234" t="n">
-        <v>9835.975707739995</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8751,20 +8437,23 @@
         <v>177.1159</v>
       </c>
       <c r="G235" t="n">
-        <v>9835.975707739995</v>
-      </c>
-      <c r="H235" t="n">
         <v>2</v>
       </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J235" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1.169323473882945</v>
+      </c>
+      <c r="L235" t="n">
+        <v>1.04614412136536</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8786,18 +8475,15 @@
         <v>1626.2253</v>
       </c>
       <c r="G236" t="n">
-        <v>11462.20100774</v>
-      </c>
-      <c r="H236" t="n">
         <v>2</v>
       </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8819,18 +8505,15 @@
         <v>1348.973</v>
       </c>
       <c r="G237" t="n">
-        <v>11462.20100774</v>
-      </c>
-      <c r="H237" t="n">
         <v>2</v>
       </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8852,18 +8535,15 @@
         <v>2274.05702215</v>
       </c>
       <c r="G238" t="n">
-        <v>11462.20100774</v>
-      </c>
-      <c r="H238" t="n">
         <v>2</v>
       </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8885,18 +8565,15 @@
         <v>1988.40141585</v>
       </c>
       <c r="G239" t="n">
-        <v>11462.20100774</v>
-      </c>
-      <c r="H239" t="n">
         <v>2</v>
       </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8918,18 +8595,15 @@
         <v>192.3552</v>
       </c>
       <c r="G240" t="n">
-        <v>11269.84580774</v>
-      </c>
-      <c r="H240" t="n">
         <v>2</v>
       </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8951,18 +8625,15 @@
         <v>132.0869</v>
       </c>
       <c r="G241" t="n">
-        <v>11401.93270774</v>
-      </c>
-      <c r="H241" t="n">
         <v>2</v>
       </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8984,18 +8655,15 @@
         <v>56.62972744</v>
       </c>
       <c r="G242" t="n">
-        <v>11345.3029803</v>
-      </c>
-      <c r="H242" t="n">
         <v>2</v>
       </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9017,18 +8685,15 @@
         <v>200.8528</v>
       </c>
       <c r="G243" t="n">
-        <v>11144.45018029999</v>
-      </c>
-      <c r="H243" t="n">
         <v>2</v>
       </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9050,18 +8715,15 @@
         <v>19.3144</v>
       </c>
       <c r="G244" t="n">
-        <v>11125.1357803</v>
-      </c>
-      <c r="H244" t="n">
         <v>2</v>
       </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9083,18 +8745,15 @@
         <v>141.0957</v>
       </c>
       <c r="G245" t="n">
-        <v>10984.0400803</v>
-      </c>
-      <c r="H245" t="n">
         <v>2</v>
       </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9116,18 +8775,15 @@
         <v>415.503</v>
       </c>
       <c r="G246" t="n">
-        <v>10568.5370803</v>
-      </c>
-      <c r="H246" t="n">
         <v>2</v>
       </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9149,18 +8805,15 @@
         <v>260.3413</v>
       </c>
       <c r="G247" t="n">
-        <v>10828.8783803</v>
-      </c>
-      <c r="H247" t="n">
         <v>2</v>
       </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9182,18 +8835,15 @@
         <v>1</v>
       </c>
       <c r="G248" t="n">
-        <v>10829.8783803</v>
-      </c>
-      <c r="H248" t="n">
         <v>2</v>
       </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9215,18 +8865,15 @@
         <v>21.1713</v>
       </c>
       <c r="G249" t="n">
-        <v>10808.7070803</v>
-      </c>
-      <c r="H249" t="n">
         <v>2</v>
       </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9248,18 +8895,15 @@
         <v>531.5297</v>
       </c>
       <c r="G250" t="n">
-        <v>11340.23678029999</v>
-      </c>
-      <c r="H250" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9281,18 +8925,15 @@
         <v>0.1732</v>
       </c>
       <c r="G251" t="n">
-        <v>11340.23678029999</v>
-      </c>
-      <c r="H251" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9314,18 +8955,15 @@
         <v>216.6892</v>
       </c>
       <c r="G252" t="n">
-        <v>11123.54758029999</v>
-      </c>
-      <c r="H252" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9347,18 +8985,15 @@
         <v>1</v>
       </c>
       <c r="G253" t="n">
-        <v>11124.54758029999</v>
-      </c>
-      <c r="H253" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
